--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6500" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="877">
   <si>
     <t>target</t>
   </si>
@@ -2372,9 +2372,6 @@
     <t>${addCategory.DownloadIcon}</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
     <t>verify Category Heading in Listing table</t>
   </si>
   <si>
@@ -2588,57 +2585,54 @@
     <t>${ParentCategory.LabelText}</t>
   </si>
   <si>
-    <t>verify parent category values</t>
+    <t>verify Add specification switch box</t>
+  </si>
+  <si>
+    <t>${addSpecifiction.switchbox}</t>
+  </si>
+  <si>
+    <t>verify add specification label text</t>
+  </si>
+  <si>
+    <t>${addSpecification.LabelText}</t>
+  </si>
+  <si>
+    <t>Add Specification</t>
+  </si>
+  <si>
+    <t>verify Add Tax switch box</t>
+  </si>
+  <si>
+    <t>${addTax.switchbox}</t>
+  </si>
+  <si>
+    <t>verify add Tax label text</t>
+  </si>
+  <si>
+    <t>${addTax.LabelText}</t>
+  </si>
+  <si>
+    <t>Add Tax</t>
+  </si>
+  <si>
+    <t>verify save button</t>
+  </si>
+  <si>
+    <t>${specification.saveButton}</t>
+  </si>
+  <si>
+    <t>Enter the value in Category name</t>
+  </si>
+  <si>
+    <t>TestCategory[NUMBER(${num})=&gt;randomDigits(2)]</t>
+  </si>
+  <si>
+    <t>select parent category</t>
   </si>
   <si>
     <t>${select.ParentCategory}</t>
   </si>
   <si>
-    <t>verify Add specification switch box</t>
-  </si>
-  <si>
-    <t>${addSpecifiction.switchbox}</t>
-  </si>
-  <si>
-    <t>verify add specification label text</t>
-  </si>
-  <si>
-    <t>${addSpecification.LabelText}</t>
-  </si>
-  <si>
-    <t>Add Specification</t>
-  </si>
-  <si>
-    <t>verify Add Tax switch box</t>
-  </si>
-  <si>
-    <t>${addTax.switchbox}</t>
-  </si>
-  <si>
-    <t>verify add Tax label text</t>
-  </si>
-  <si>
-    <t>${addTax.LabelText}</t>
-  </si>
-  <si>
-    <t>Add Tax</t>
-  </si>
-  <si>
-    <t>verify save button</t>
-  </si>
-  <si>
-    <t>${specification.saveButton}</t>
-  </si>
-  <si>
-    <t>Enter the value in Category name</t>
-  </si>
-  <si>
-    <t>TestCategory[NUMBER(${num})=&gt;randomDigits(2)]</t>
-  </si>
-  <si>
-    <t>select parent category</t>
-  </si>
-  <si>
     <t>verify specification heading in Add specification table</t>
   </si>
   <si>
@@ -2700,75 +2694,6 @@
   </si>
   <si>
     <t>${save.button.AddCategory}</t>
-  </si>
-  <si>
-    <t>New Category Creation</t>
-  </si>
-  <si>
-    <t>TestCategory</t>
-  </si>
-  <si>
-    <t>Click on add Specification Switch box</t>
-  </si>
-  <si>
-    <t>Click on Tax Switch box</t>
-  </si>
-  <si>
-    <t>select Specification values</t>
-  </si>
-  <si>
-    <t>${add.new.Specification}</t>
-  </si>
-  <si>
-    <t>Enter Title values in Specification Table</t>
-  </si>
-  <si>
-    <t>${add.new.Title}</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Select IGST Value</t>
-  </si>
-  <si>
-    <t>${add.Tax.IGST}</t>
-  </si>
-  <si>
-    <t>Enter CESS Value</t>
-  </si>
-  <si>
-    <t>${add.Tax.CESS}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the CVAT vaue </t>
-  </si>
-  <si>
-    <t>${add.Tax.CVAT}</t>
-  </si>
-  <si>
-    <t>Type State values in select field</t>
-  </si>
-  <si>
-    <t>${add.Select.state}</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>{DOWN}{ENTER}</t>
-  </si>
-  <si>
-    <t>Enter VAT Values</t>
-  </si>
-  <si>
-    <t>${add.Tax.VAT}</t>
-  </si>
-  <si>
-    <t>click on save button</t>
   </si>
 </sst>
 </file>
@@ -2839,16 +2764,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <strike/>
       <sz val="11"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -3600,10 +3525,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3622,10 +3543,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3649,7 +3566,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3657,15 +3574,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3680,11 +3597,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -6815,14 +6740,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="39"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6836,12 +6761,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="38"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6853,7 +6778,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="42"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6888,10 +6813,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="41" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6912,13 +6837,13 @@
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>749</v>
       </c>
       <c r="F5" s="61" t="s">
@@ -6927,15 +6852,15 @@
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="46"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="51"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="53"/>
       <c r="C6" s="62"/>
       <c r="D6" s="63"/>
@@ -6944,32 +6869,32 @@
       <c r="G6" s="63"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="46"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="51"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="53"/>
-      <c r="C7" s="31"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="46"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="51"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="53"/>
       <c r="C8" s="57"/>
       <c r="D8" s="58"/>
@@ -6978,12 +6903,12 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="46"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="44"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6995,7 +6920,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -7012,7 +6937,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="49"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -7029,7 +6954,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="49"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -7046,7 +6971,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -7063,7 +6988,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="49"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7080,7 +7005,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7097,7 +7022,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="49"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7114,7 +7039,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="49"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7131,7 +7056,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="49"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7148,7 +7073,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="49"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7165,7 +7090,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="49"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7182,7 +7107,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="49"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7199,7 +7124,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="49"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7216,7 +7141,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="49"/>
+      <c r="J22" s="47"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7233,7 +7158,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="49"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7250,7 +7175,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="49"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7267,7 +7192,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="49"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7284,7 +7209,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="49"/>
+      <c r="J26" s="47"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7301,7 +7226,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="49"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7318,7 +7243,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="49"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7335,7 +7260,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="49"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7352,7 +7277,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="49"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7369,7 +7294,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="49"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7386,7 +7311,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="49"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7403,7 +7328,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="49"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7420,7 +7345,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="49"/>
+      <c r="J34" s="47"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7437,7 +7362,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="49"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7454,7 +7379,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="49"/>
+      <c r="J36" s="47"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7471,7 +7396,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="49"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7488,7 +7413,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="49"/>
+      <c r="J38" s="47"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7505,7 +7430,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="49"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7522,7 +7447,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="49"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7539,7 +7464,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="49"/>
+      <c r="J41" s="47"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7556,7 +7481,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="49"/>
+      <c r="J42" s="47"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7573,7 +7498,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="49"/>
+      <c r="J43" s="47"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7590,7 +7515,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="49"/>
+      <c r="J44" s="47"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7607,7 +7532,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="49"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7624,7 +7549,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="49"/>
+      <c r="J46" s="47"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7641,7 +7566,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="49"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7658,7 +7583,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="49"/>
+      <c r="J48" s="47"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7675,7 +7600,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="49"/>
+      <c r="J49" s="47"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7692,7 +7617,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="49"/>
+      <c r="J50" s="47"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7709,7 +7634,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="49"/>
+      <c r="J51" s="47"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7726,7 +7651,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="49"/>
+      <c r="J52" s="47"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7743,7 +7668,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="49"/>
+      <c r="J53" s="47"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7760,7 +7685,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="49"/>
+      <c r="J54" s="47"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7777,7 +7702,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="49"/>
+      <c r="J55" s="47"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7794,7 +7719,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="49"/>
+      <c r="J56" s="47"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7811,7 +7736,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="49"/>
+      <c r="J57" s="47"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7828,7 +7753,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="49"/>
+      <c r="J58" s="47"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7845,7 +7770,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="49"/>
+      <c r="J59" s="47"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7862,7 +7787,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="49"/>
+      <c r="J60" s="47"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7879,7 +7804,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="49"/>
+      <c r="J61" s="47"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7896,7 +7821,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="49"/>
+      <c r="J62" s="47"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7913,7 +7838,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="49"/>
+      <c r="J63" s="47"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7930,7 +7855,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="49"/>
+      <c r="J64" s="47"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7947,7 +7872,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="49"/>
+      <c r="J65" s="47"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7964,7 +7889,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="49"/>
+      <c r="J66" s="47"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7981,7 +7906,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="49"/>
+      <c r="J67" s="47"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7998,7 +7923,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="49"/>
+      <c r="J68" s="47"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -8015,7 +7940,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="49"/>
+      <c r="J69" s="47"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -8032,7 +7957,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="49"/>
+      <c r="J70" s="47"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -8049,7 +7974,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="49"/>
+      <c r="J71" s="47"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -8066,7 +7991,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="49"/>
+      <c r="J72" s="47"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8083,7 +8008,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="49"/>
+      <c r="J73" s="47"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8100,7 +8025,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="49"/>
+      <c r="J74" s="47"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8117,7 +8042,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="49"/>
+      <c r="J75" s="47"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8134,7 +8059,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="49"/>
+      <c r="J76" s="47"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8151,7 +8076,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="49"/>
+      <c r="J77" s="47"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8168,7 +8093,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="49"/>
+      <c r="J78" s="47"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8185,7 +8110,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="49"/>
+      <c r="J79" s="47"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8202,7 +8127,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="49"/>
+      <c r="J80" s="47"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8219,7 +8144,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="49"/>
+      <c r="J81" s="47"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8236,7 +8161,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="49"/>
+      <c r="J82" s="47"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8253,7 +8178,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="49"/>
+      <c r="J83" s="47"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8270,7 +8195,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="49"/>
+      <c r="J84" s="47"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8287,7 +8212,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="49"/>
+      <c r="J85" s="47"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8304,7 +8229,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="49"/>
+      <c r="J86" s="47"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8321,7 +8246,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="49"/>
+      <c r="J87" s="47"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8338,7 +8263,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="49"/>
+      <c r="J88" s="47"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8355,7 +8280,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="49"/>
+      <c r="J89" s="47"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8372,7 +8297,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="49"/>
+      <c r="J90" s="47"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8389,7 +8314,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="49"/>
+      <c r="J91" s="47"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8406,7 +8331,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="49"/>
+      <c r="J92" s="47"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8423,7 +8348,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="49"/>
+      <c r="J93" s="47"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8440,7 +8365,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="49"/>
+      <c r="J94" s="47"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8457,7 +8382,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="49"/>
+      <c r="J95" s="47"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8474,7 +8399,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="49"/>
+      <c r="J96" s="47"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8491,7 +8416,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="49"/>
+      <c r="J97" s="47"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8508,7 +8433,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="49"/>
+      <c r="J98" s="47"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8525,7 +8450,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="49"/>
+      <c r="J99" s="47"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8542,7 +8467,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="49"/>
+      <c r="J100" s="47"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8559,7 +8484,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="49"/>
+      <c r="J101" s="47"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8576,7 +8501,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="49"/>
+      <c r="J102" s="47"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8593,7 +8518,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="49"/>
+      <c r="J103" s="47"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8610,7 +8535,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="49"/>
+      <c r="J104" s="47"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8627,7 +8552,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="49"/>
+      <c r="J105" s="47"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8644,7 +8569,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="49"/>
+      <c r="J106" s="47"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8661,7 +8586,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="49"/>
+      <c r="J107" s="47"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8678,7 +8603,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="49"/>
+      <c r="J108" s="47"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8695,7 +8620,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="49"/>
+      <c r="J109" s="47"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8712,7 +8637,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="49"/>
+      <c r="J110" s="47"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8729,7 +8654,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="49"/>
+      <c r="J111" s="47"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8746,7 +8671,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="49"/>
+      <c r="J112" s="47"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8763,7 +8688,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="49"/>
+      <c r="J113" s="47"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8780,7 +8705,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="49"/>
+      <c r="J114" s="47"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8797,7 +8722,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="49"/>
+      <c r="J115" s="47"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8814,7 +8739,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="49"/>
+      <c r="J116" s="47"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8831,7 +8756,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="49"/>
+      <c r="J117" s="47"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8848,7 +8773,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="49"/>
+      <c r="J118" s="47"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8865,7 +8790,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="49"/>
+      <c r="J119" s="47"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8882,7 +8807,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="49"/>
+      <c r="J120" s="47"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8899,7 +8824,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="49"/>
+      <c r="J121" s="47"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8916,7 +8841,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="49"/>
+      <c r="J122" s="47"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8933,7 +8858,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="49"/>
+      <c r="J123" s="47"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8950,7 +8875,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="49"/>
+      <c r="J124" s="47"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8967,7 +8892,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="49"/>
+      <c r="J125" s="47"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8984,7 +8909,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="49"/>
+      <c r="J126" s="47"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -9001,7 +8926,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="49"/>
+      <c r="J127" s="47"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -9018,7 +8943,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="49"/>
+      <c r="J128" s="47"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -9035,7 +8960,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="49"/>
+      <c r="J129" s="47"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -9052,7 +8977,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="49"/>
+      <c r="J130" s="47"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -9069,7 +8994,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="49"/>
+      <c r="J131" s="47"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9086,7 +9011,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="49"/>
+      <c r="J132" s="47"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9103,7 +9028,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="49"/>
+      <c r="J133" s="47"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9120,7 +9045,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="49"/>
+      <c r="J134" s="47"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9137,7 +9062,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="49"/>
+      <c r="J135" s="47"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9154,7 +9079,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="49"/>
+      <c r="J136" s="47"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9171,7 +9096,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="49"/>
+      <c r="J137" s="47"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9188,7 +9113,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="49"/>
+      <c r="J138" s="47"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9205,7 +9130,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="49"/>
+      <c r="J139" s="47"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9222,7 +9147,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="49"/>
+      <c r="J140" s="47"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9239,7 +9164,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="49"/>
+      <c r="J141" s="47"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9256,7 +9181,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="49"/>
+      <c r="J142" s="47"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9273,7 +9198,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="49"/>
+      <c r="J143" s="47"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9290,7 +9215,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="49"/>
+      <c r="J144" s="47"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9307,7 +9232,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="49"/>
+      <c r="J145" s="47"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9324,7 +9249,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="49"/>
+      <c r="J146" s="47"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9341,7 +9266,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="49"/>
+      <c r="J147" s="47"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9358,7 +9283,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="49"/>
+      <c r="J148" s="47"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9375,7 +9300,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="49"/>
+      <c r="J149" s="47"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9392,7 +9317,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="49"/>
+      <c r="J150" s="47"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9409,7 +9334,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="49"/>
+      <c r="J151" s="47"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9426,7 +9351,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="49"/>
+      <c r="J152" s="47"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9443,7 +9368,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="49"/>
+      <c r="J153" s="47"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9460,7 +9385,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="49"/>
+      <c r="J154" s="47"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9477,7 +9402,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="49"/>
+      <c r="J155" s="47"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9494,7 +9419,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="49"/>
+      <c r="J156" s="47"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9511,7 +9436,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="49"/>
+      <c r="J157" s="47"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9528,7 +9453,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="49"/>
+      <c r="J158" s="47"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9545,7 +9470,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="49"/>
+      <c r="J159" s="47"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9562,7 +9487,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="49"/>
+      <c r="J160" s="47"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9579,7 +9504,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="49"/>
+      <c r="J161" s="47"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9596,7 +9521,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="49"/>
+      <c r="J162" s="47"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9613,7 +9538,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="49"/>
+      <c r="J163" s="47"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9630,7 +9555,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="49"/>
+      <c r="J164" s="47"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9647,7 +9572,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="49"/>
+      <c r="J165" s="47"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9664,7 +9589,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="49"/>
+      <c r="J166" s="47"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9681,7 +9606,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="49"/>
+      <c r="J167" s="47"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9698,7 +9623,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="49"/>
+      <c r="J168" s="47"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9715,7 +9640,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="49"/>
+      <c r="J169" s="47"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9732,7 +9657,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="49"/>
+      <c r="J170" s="47"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9749,7 +9674,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="49"/>
+      <c r="J171" s="47"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9766,7 +9691,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="49"/>
+      <c r="J172" s="47"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9783,7 +9708,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="49"/>
+      <c r="J173" s="47"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9800,7 +9725,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="49"/>
+      <c r="J174" s="47"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9817,7 +9742,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="49"/>
+      <c r="J175" s="47"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9834,7 +9759,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="49"/>
+      <c r="J176" s="47"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9851,7 +9776,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="49"/>
+      <c r="J177" s="47"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9868,7 +9793,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="49"/>
+      <c r="J178" s="47"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9885,7 +9810,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="49"/>
+      <c r="J179" s="47"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9902,7 +9827,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="49"/>
+      <c r="J180" s="47"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9919,7 +9844,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="49"/>
+      <c r="J181" s="47"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9936,7 +9861,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="49"/>
+      <c r="J182" s="47"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9953,7 +9878,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="49"/>
+      <c r="J183" s="47"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9970,7 +9895,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="49"/>
+      <c r="J184" s="47"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9987,7 +9912,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="49"/>
+      <c r="J185" s="47"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -10004,7 +9929,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="49"/>
+      <c r="J186" s="47"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -10021,7 +9946,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="49"/>
+      <c r="J187" s="47"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -10038,7 +9963,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="49"/>
+      <c r="J188" s="47"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -10101,10 +10026,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O193"/>
+  <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B74" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10148,14 +10073,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="39"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -10169,12 +10094,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="38"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -10186,7 +10111,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="42"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10221,10 +10146,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="41" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10260,12 +10185,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="46"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10285,12 +10210,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="46"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10312,7 +10237,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="49"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10337,7 +10262,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10362,7 +10287,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10387,7 +10312,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="49"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10412,7 +10337,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="49"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10437,7 +10362,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10446,23 +10371,25 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>769</v>
+      <c r="D13" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>771</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="49"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10472,7 +10399,7 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
@@ -10481,15 +10408,15 @@
         <v>530</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10499,24 +10426,22 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>775</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="49"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10525,23 +10450,23 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
-        <v>776</v>
-      </c>
+      <c r="B16" s="30"/>
       <c r="C16" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="28" t="s">
+        <v>778</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="49"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10551,22 +10476,22 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="C17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>779</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>780</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="49"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10576,22 +10501,22 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="F18" s="34" t="s">
+      <c r="D18" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>781</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>782</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="49"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10601,22 +10526,22 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="F19" s="34" t="s">
+      <c r="D19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>783</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>784</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="49"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10625,23 +10550,25 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="B20" s="30" t="s">
         <v>785</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>786</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="49"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10650,25 +10577,23 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="F21" s="34" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>787</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>788</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="49"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10685,15 +10610,15 @@
         <v>493</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="49"/>
+      <c r="J22" s="47"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10703,22 +10628,22 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>790</v>
+      <c r="E23" s="35" t="s">
+        <v>791</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="49"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10728,14 +10653,14 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>792</v>
+      <c r="D24" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>788</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>793</v>
@@ -10743,7 +10668,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="49"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10753,14 +10678,14 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>530</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>794</v>
@@ -10768,7 +10693,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="49"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10778,14 +10703,14 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>530</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>795</v>
@@ -10793,7 +10718,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="49"/>
+      <c r="J26" s="47"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10802,23 +10727,22 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>796</v>
+      <c r="D27" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>797</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="49"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10828,21 +10752,24 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>797</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>798</v>
+      <c r="F28" s="27" t="s">
+        <v>759</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="49"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10850,26 +10777,26 @@
       <c r="O28" s="22"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="19"/>
+      <c r="A29" s="19" t="s">
+        <v>799</v>
+      </c>
       <c r="B29" s="30" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>759</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="49"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10877,26 +10804,24 @@
       <c r="O29" s="22"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A30" s="19" t="s">
-        <v>800</v>
-      </c>
+      <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="49"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10906,22 +10831,24 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>363</v>
+        <v>692</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>804</v>
-      </c>
-      <c r="F31" s="27"/>
+        <v>805</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>806</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="49"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10931,24 +10858,24 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="49"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10958,24 +10885,22 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>810</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="49"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10994,13 +10919,13 @@
         <v>363</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="49"/>
+      <c r="J34" s="47"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -11009,9 +10934,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="30" t="s">
-        <v>812</v>
-      </c>
+      <c r="B35" s="30"/>
       <c r="C35" s="26" t="s">
         <v>30</v>
       </c>
@@ -11025,7 +10948,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="49"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -11034,7 +10957,9 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30"/>
+      <c r="B36" s="30" t="s">
+        <v>814</v>
+      </c>
       <c r="C36" s="26" t="s">
         <v>30</v>
       </c>
@@ -11042,13 +10967,13 @@
         <v>363</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="49"/>
+      <c r="J36" s="47"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -11058,22 +10983,24 @@
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="30" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="F37" s="27"/>
+        <v>817</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>759</v>
+      </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="49"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -11083,24 +11010,20 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>818</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>759</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="49"/>
+      <c r="J38" s="47"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -11116,14 +11039,16 @@
         <v>30</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="E39" s="27"/>
+        <v>600</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>820</v>
+      </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="49"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -11132,14 +11057,12 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30" t="s">
-        <v>820</v>
-      </c>
+      <c r="B40" s="30"/>
       <c r="C40" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>600</v>
+        <v>363</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>821</v>
@@ -11148,7 +11071,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="49"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -11157,21 +11080,23 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="C41" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>822</v>
+        <v>768</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="49"/>
+      <c r="J41" s="47"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -11181,22 +11106,24 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="30" t="s">
-        <v>767</v>
+        <v>822</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F42" s="27"/>
+        <v>823</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>771</v>
+      </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="49"/>
+      <c r="J42" s="47"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -11206,7 +11133,7 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>30</v>
@@ -11215,15 +11142,15 @@
         <v>530</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="49"/>
+      <c r="J43" s="47"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11233,24 +11160,22 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>826</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>775</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="49"/>
+      <c r="J44" s="47"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11258,24 +11183,26 @@
       <c r="O44" s="22"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="19"/>
+      <c r="A45" s="19" t="s">
+        <v>828</v>
+      </c>
       <c r="B45" s="30" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>828</v>
+        <v>763</v>
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="49"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11283,9 +11210,7 @@
       <c r="O45" s="22"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A46" s="19" t="s">
-        <v>829</v>
-      </c>
+      <c r="A46" s="19"/>
       <c r="B46" s="30" t="s">
         <v>830</v>
       </c>
@@ -11293,16 +11218,18 @@
         <v>30</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F46" s="27"/>
+        <v>831</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>832</v>
+      </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="49"/>
+      <c r="J46" s="47"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11312,7 +11239,7 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
@@ -11321,15 +11248,15 @@
         <v>530</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="49"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11339,24 +11266,22 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>836</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="49"/>
+      <c r="J48" s="47"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11366,22 +11291,24 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="F49" s="27"/>
+        <v>839</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>774</v>
+      </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="49"/>
+      <c r="J49" s="47"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11391,24 +11318,22 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="30" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>775</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="49"/>
+      <c r="J50" s="47"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11417,23 +11342,25 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="37" t="s">
-        <v>841</v>
-      </c>
-      <c r="C51" s="31" t="s">
+      <c r="B51" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="C51" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="F51" s="27"/>
+      <c r="D51" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>844</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="49"/>
+      <c r="J51" s="47"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11443,7 +11370,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>30</v>
@@ -11452,13 +11379,13 @@
         <v>253</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="49"/>
+      <c r="J52" s="47"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11468,7 +11395,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="30" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>30</v>
@@ -11477,15 +11404,15 @@
         <v>530</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="49"/>
+      <c r="J53" s="47"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11495,7 +11422,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="30" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>30</v>
@@ -11504,13 +11431,13 @@
         <v>253</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="49"/>
+      <c r="J54" s="47"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11520,24 +11447,24 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="30" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>530</v>
+        <v>707</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>851</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>852</v>
+        <v>837</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>853</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="49"/>
+      <c r="J55" s="47"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11547,22 +11474,24 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="30" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="F56" s="27"/>
+        <v>855</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>766</v>
+      </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="49"/>
+      <c r="J56" s="47"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11572,24 +11501,24 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="30" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="49"/>
+      <c r="J57" s="47"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11599,24 +11528,24 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="30" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>766</v>
+        <v>860</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>861</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="49"/>
+      <c r="J58" s="47"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11624,26 +11553,20 @@
       <c r="O58" s="22"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A59" s="19"/>
-      <c r="B59" s="30" t="s">
-        <v>858</v>
-      </c>
+      <c r="A59" s="30"/>
       <c r="C59" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>860</v>
-      </c>
-      <c r="G59" s="27"/>
+        <v>862</v>
+      </c>
+      <c r="F59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="49"/>
+      <c r="J59" s="47"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11651,26 +11574,22 @@
       <c r="O59" s="22"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="19"/>
-      <c r="B60" s="30" t="s">
-        <v>861</v>
-      </c>
+      <c r="A60" s="30"/>
       <c r="C60" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>862</v>
+        <v>777</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>863</v>
       </c>
-      <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="49"/>
+      <c r="J60" s="47"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11679,19 +11598,21 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="30"/>
-      <c r="C61" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>864</v>
-      </c>
-      <c r="F61" s="27"/>
+      <c r="C61" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>780</v>
+      </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="49"/>
+      <c r="J61" s="47"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11700,21 +11621,21 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="30"/>
-      <c r="C62" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>865</v>
+      <c r="C62" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>781</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>782</v>
       </c>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="49"/>
+      <c r="J62" s="47"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11723,21 +11644,21 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="30"/>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>781</v>
+      <c r="D63" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>784</v>
       </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="49"/>
+      <c r="J63" s="47"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11746,21 +11667,24 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="30"/>
-      <c r="C64" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="F64" s="34" t="s">
-        <v>783</v>
+      <c r="B64" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>786</v>
       </c>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="49"/>
+      <c r="J64" s="47"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11769,21 +11693,21 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="30"/>
-      <c r="C65" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>785</v>
+      <c r="C65" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>864</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>865</v>
       </c>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="49"/>
+      <c r="J65" s="47"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11792,24 +11716,21 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="30"/>
-      <c r="B66" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>787</v>
+      <c r="C66" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>867</v>
       </c>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="49"/>
+      <c r="J66" s="47"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11818,21 +11739,21 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="30"/>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="E67" s="27" t="s">
-        <v>866</v>
+      <c r="E67" s="35" t="s">
+        <v>791</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="49"/>
+      <c r="J67" s="47"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11841,21 +11762,21 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="30"/>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>868</v>
+      <c r="D68" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>865</v>
       </c>
       <c r="F68" s="28" t="s">
         <v>869</v>
       </c>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="49"/>
+      <c r="J68" s="47"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11864,21 +11785,21 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="30"/>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E69" s="36" t="s">
-        <v>792</v>
+      <c r="D69" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>867</v>
       </c>
       <c r="F69" s="28" t="s">
         <v>870</v>
       </c>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="49"/>
+      <c r="J69" s="47"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11887,44 +11808,46 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="30"/>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="32" t="s">
         <v>530</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>871</v>
+        <v>795</v>
       </c>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="49"/>
+      <c r="J70" s="47"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
       <c r="N70" s="23"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A71" s="30"/>
-      <c r="C71" s="32" t="s">
+    <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B71" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="33" t="s">
-        <v>530</v>
+      <c r="D71" s="32" t="s">
+        <v>692</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>872</v>
+        <v>806</v>
       </c>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="49"/>
+      <c r="J71" s="47"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11932,47 +11855,48 @@
       <c r="O71" s="22"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A72" s="30"/>
-      <c r="C72" s="32" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="C72" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="33" t="s">
-        <v>530</v>
+      <c r="D72" s="32" t="s">
+        <v>707</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>796</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="49"/>
+      <c r="J72" s="47"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
       <c r="N72" s="23"/>
       <c r="O72" s="22"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B73" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C73" s="32" t="s">
+    <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>807</v>
-      </c>
+      <c r="D73" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="49"/>
+      <c r="J73" s="47"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11980,26 +11904,16 @@
       <c r="O73" s="22"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>876</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>877</v>
-      </c>
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="52"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="49"/>
+      <c r="J74" s="47"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -12007,21 +11921,16 @@
       <c r="O74" s="22"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>878</v>
-      </c>
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="49"/>
+      <c r="J75" s="47"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -12029,28 +11938,16 @@
       <c r="O75" s="22"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A76" s="51" t="s">
-        <v>879</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>855</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>838</v>
-      </c>
-      <c r="F76" s="52" t="s">
-        <v>856</v>
-      </c>
+      <c r="A76" s="49"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="49"/>
+      <c r="J76" s="47"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -12058,26 +11955,16 @@
       <c r="O76" s="22"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="51"/>
-      <c r="B77" s="37" t="s">
-        <v>857</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>880</v>
-      </c>
+      <c r="A77" s="49"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="49"/>
+      <c r="J77" s="47"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -12085,24 +11972,16 @@
       <c r="O77" s="22"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A78" s="51"/>
-      <c r="B78" s="53" t="s">
-        <v>881</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>844</v>
-      </c>
-      <c r="F78" s="29"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="49"/>
+      <c r="J78" s="47"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -12110,24 +11989,16 @@
       <c r="O78" s="22"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A79" s="51"/>
-      <c r="B79" s="53" t="s">
-        <v>882</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>849</v>
-      </c>
-      <c r="F79" s="29"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="49"/>
+      <c r="J79" s="47"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -12135,26 +12006,16 @@
       <c r="O79" s="22"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="51"/>
-      <c r="B80" s="45" t="s">
-        <v>883</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="E80" s="55" t="s">
-        <v>884</v>
-      </c>
-      <c r="F80" s="55" t="s">
-        <v>807</v>
-      </c>
+      <c r="A80" s="49"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="56"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="49"/>
+      <c r="J80" s="47"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -12162,26 +12023,16 @@
       <c r="O80" s="22"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A81" s="51"/>
-      <c r="B81" s="45" t="s">
-        <v>885</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="55" t="s">
-        <v>707</v>
-      </c>
-      <c r="E81" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="F81" s="55" t="s">
-        <v>887</v>
-      </c>
+      <c r="A81" s="49"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="56"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="49"/>
+      <c r="J81" s="47"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -12189,26 +12040,16 @@
       <c r="O81" s="22"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="51"/>
-      <c r="B82" s="45" t="s">
-        <v>888</v>
-      </c>
-      <c r="C82" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="E82" s="55" t="s">
-        <v>889</v>
-      </c>
-      <c r="F82" s="56">
-        <v>0.1</v>
-      </c>
+      <c r="A82" s="49"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="49"/>
+      <c r="J82" s="47"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -12216,26 +12057,16 @@
       <c r="O82" s="22"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A83" s="51"/>
-      <c r="B83" s="45" t="s">
-        <v>890</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="55" t="s">
-        <v>707</v>
-      </c>
-      <c r="E83" s="55" t="s">
-        <v>891</v>
-      </c>
-      <c r="F83" s="56">
-        <v>1</v>
-      </c>
+      <c r="A83" s="49"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="49"/>
+      <c r="J83" s="47"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -12243,26 +12074,16 @@
       <c r="O83" s="22"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="51"/>
-      <c r="B84" s="45" t="s">
-        <v>892</v>
-      </c>
-      <c r="C84" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>893</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>787</v>
-      </c>
+      <c r="A84" s="49"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="49"/>
+      <c r="J84" s="47"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -12270,26 +12091,16 @@
       <c r="O84" s="22"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="51"/>
-      <c r="B85" s="45" t="s">
-        <v>894</v>
-      </c>
-      <c r="C85" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>895</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>896</v>
-      </c>
+      <c r="A85" s="49"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="49"/>
+      <c r="J85" s="47"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -12297,24 +12108,16 @@
       <c r="O85" s="22"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="51"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>656</v>
-      </c>
-      <c r="E86" s="58" t="s">
-        <v>897</v>
-      </c>
-      <c r="F86" s="58" t="s">
-        <v>898</v>
-      </c>
+      <c r="A86" s="49"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="49"/>
+      <c r="J86" s="47"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -12322,26 +12125,16 @@
       <c r="O86" s="22"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="51"/>
-      <c r="B87" s="45" t="s">
-        <v>899</v>
-      </c>
-      <c r="C87" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>900</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>787</v>
-      </c>
+      <c r="A87" s="19"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="49"/>
+      <c r="J87" s="47"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12349,24 +12142,16 @@
       <c r="O87" s="22"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A88" s="51"/>
-      <c r="B88" s="45" t="s">
-        <v>901</v>
-      </c>
-      <c r="C88" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>878</v>
-      </c>
-      <c r="F88" s="29"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="49"/>
+      <c r="J88" s="47"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -12375,15 +12160,15 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="32"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="49"/>
+      <c r="J89" s="47"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12392,15 +12177,15 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="50"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="49"/>
+      <c r="J90" s="47"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12409,7 +12194,7 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
-      <c r="B91" s="49"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="26"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
@@ -12417,7 +12202,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="49"/>
+      <c r="J91" s="47"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -12426,7 +12211,7 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
-      <c r="B92" s="49"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="26"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
@@ -12434,7 +12219,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="49"/>
+      <c r="J92" s="47"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12443,15 +12228,15 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="26"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="59"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="49"/>
+      <c r="J93" s="47"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12460,15 +12245,15 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="26"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="59"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="49"/>
+      <c r="J94" s="47"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12477,15 +12262,15 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="59"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="49"/>
+      <c r="J95" s="47"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12494,15 +12279,15 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="59"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="49"/>
+      <c r="J96" s="47"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12511,7 +12296,7 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
-      <c r="B97" s="49"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="26"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
@@ -12519,7 +12304,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="49"/>
+      <c r="J97" s="47"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12528,7 +12313,7 @@
     </row>
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
-      <c r="B98" s="49"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="26"/>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
@@ -12536,7 +12321,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="49"/>
+      <c r="J98" s="47"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12553,7 +12338,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="49"/>
+      <c r="J99" s="47"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12570,7 +12355,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="49"/>
+      <c r="J100" s="47"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12587,7 +12372,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="49"/>
+      <c r="J101" s="47"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12604,7 +12389,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="49"/>
+      <c r="J102" s="47"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12621,7 +12406,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="49"/>
+      <c r="J103" s="47"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12638,7 +12423,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="49"/>
+      <c r="J104" s="47"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12655,7 +12440,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="49"/>
+      <c r="J105" s="47"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12672,7 +12457,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="49"/>
+      <c r="J106" s="47"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12689,7 +12474,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="49"/>
+      <c r="J107" s="47"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12706,7 +12491,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="49"/>
+      <c r="J108" s="47"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12723,7 +12508,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="49"/>
+      <c r="J109" s="47"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12740,7 +12525,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="49"/>
+      <c r="J110" s="47"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12757,7 +12542,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="49"/>
+      <c r="J111" s="47"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12774,7 +12559,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="49"/>
+      <c r="J112" s="47"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12791,7 +12576,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="49"/>
+      <c r="J113" s="47"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12808,7 +12593,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="49"/>
+      <c r="J114" s="47"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12825,7 +12610,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="49"/>
+      <c r="J115" s="47"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12842,7 +12627,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="49"/>
+      <c r="J116" s="47"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12859,7 +12644,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="49"/>
+      <c r="J117" s="47"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12876,7 +12661,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="49"/>
+      <c r="J118" s="47"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12893,7 +12678,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="49"/>
+      <c r="J119" s="47"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12910,7 +12695,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="49"/>
+      <c r="J120" s="47"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12927,7 +12712,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="49"/>
+      <c r="J121" s="47"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12944,7 +12729,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="49"/>
+      <c r="J122" s="47"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12961,7 +12746,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="49"/>
+      <c r="J123" s="47"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12978,7 +12763,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="49"/>
+      <c r="J124" s="47"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12995,7 +12780,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="49"/>
+      <c r="J125" s="47"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -13012,7 +12797,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="49"/>
+      <c r="J126" s="47"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -13029,7 +12814,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="49"/>
+      <c r="J127" s="47"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -13046,7 +12831,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="49"/>
+      <c r="J128" s="47"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -13063,7 +12848,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="49"/>
+      <c r="J129" s="47"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -13080,7 +12865,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="49"/>
+      <c r="J130" s="47"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -13097,7 +12882,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="49"/>
+      <c r="J131" s="47"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -13114,7 +12899,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="49"/>
+      <c r="J132" s="47"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -13131,7 +12916,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="49"/>
+      <c r="J133" s="47"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -13148,7 +12933,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="49"/>
+      <c r="J134" s="47"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -13165,7 +12950,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="49"/>
+      <c r="J135" s="47"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -13182,7 +12967,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="49"/>
+      <c r="J136" s="47"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -13199,7 +12984,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="49"/>
+      <c r="J137" s="47"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -13216,7 +13001,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="49"/>
+      <c r="J138" s="47"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -13233,7 +13018,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="49"/>
+      <c r="J139" s="47"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -13250,7 +13035,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="49"/>
+      <c r="J140" s="47"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -13267,7 +13052,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="49"/>
+      <c r="J141" s="47"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -13284,7 +13069,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="49"/>
+      <c r="J142" s="47"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -13301,7 +13086,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="49"/>
+      <c r="J143" s="47"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -13318,7 +13103,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="49"/>
+      <c r="J144" s="47"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -13335,7 +13120,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="49"/>
+      <c r="J145" s="47"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13352,7 +13137,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="49"/>
+      <c r="J146" s="47"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13369,7 +13154,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="49"/>
+      <c r="J147" s="47"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -13386,7 +13171,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="49"/>
+      <c r="J148" s="47"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -13403,7 +13188,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="49"/>
+      <c r="J149" s="47"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -13420,7 +13205,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="49"/>
+      <c r="J150" s="47"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -13437,7 +13222,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="49"/>
+      <c r="J151" s="47"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -13454,7 +13239,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="49"/>
+      <c r="J152" s="47"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13471,7 +13256,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="49"/>
+      <c r="J153" s="47"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -13488,7 +13273,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="49"/>
+      <c r="J154" s="47"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -13505,7 +13290,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="49"/>
+      <c r="J155" s="47"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -13522,7 +13307,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="49"/>
+      <c r="J156" s="47"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -13539,7 +13324,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="49"/>
+      <c r="J157" s="47"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -13556,7 +13341,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="49"/>
+      <c r="J158" s="47"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -13573,7 +13358,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="49"/>
+      <c r="J159" s="47"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13590,7 +13375,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="49"/>
+      <c r="J160" s="47"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13607,7 +13392,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="49"/>
+      <c r="J161" s="47"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13624,7 +13409,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="49"/>
+      <c r="J162" s="47"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13641,7 +13426,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="49"/>
+      <c r="J163" s="47"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13658,7 +13443,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="49"/>
+      <c r="J164" s="47"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13675,7 +13460,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="49"/>
+      <c r="J165" s="47"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13692,7 +13477,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="49"/>
+      <c r="J166" s="47"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13709,7 +13494,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="49"/>
+      <c r="J167" s="47"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13726,7 +13511,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="49"/>
+      <c r="J168" s="47"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13743,7 +13528,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="49"/>
+      <c r="J169" s="47"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13760,7 +13545,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="49"/>
+      <c r="J170" s="47"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13777,7 +13562,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="49"/>
+      <c r="J171" s="47"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13794,7 +13579,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="49"/>
+      <c r="J172" s="47"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13811,7 +13596,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="49"/>
+      <c r="J173" s="47"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13828,7 +13613,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="49"/>
+      <c r="J174" s="47"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13845,7 +13630,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="49"/>
+      <c r="J175" s="47"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13862,7 +13647,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="49"/>
+      <c r="J176" s="47"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13879,7 +13664,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="49"/>
+      <c r="J177" s="47"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13896,7 +13681,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="49"/>
+      <c r="J178" s="47"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13913,7 +13698,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="49"/>
+      <c r="J179" s="47"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13930,7 +13715,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="49"/>
+      <c r="J180" s="47"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13947,7 +13732,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="49"/>
+      <c r="J181" s="47"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13964,7 +13749,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="49"/>
+      <c r="J182" s="47"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13981,7 +13766,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="49"/>
+      <c r="J183" s="47"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13998,7 +13783,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="49"/>
+      <c r="J184" s="47"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -14015,7 +13800,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="49"/>
+      <c r="J185" s="47"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -14032,7 +13817,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="49"/>
+      <c r="J186" s="47"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -14049,7 +13834,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="49"/>
+      <c r="J187" s="47"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -14066,7 +13851,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="49"/>
+      <c r="J188" s="47"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -14083,7 +13868,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="49"/>
+      <c r="J189" s="47"/>
       <c r="K189" s="22"/>
       <c r="L189" s="23"/>
       <c r="M189" s="21"/>
@@ -14100,7 +13885,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="49"/>
+      <c r="J190" s="47"/>
       <c r="K190" s="22"/>
       <c r="L190" s="23"/>
       <c r="M190" s="21"/>
@@ -14117,46 +13902,12 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="49"/>
+      <c r="J191" s="47"/>
       <c r="K191" s="22"/>
       <c r="L191" s="23"/>
       <c r="M191" s="21"/>
       <c r="N191" s="23"/>
       <c r="O191" s="22"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="49"/>
-      <c r="K192" s="22"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="49"/>
-      <c r="K193" s="22"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14165,18 +13916,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N94:N193">
+  <conditionalFormatting sqref="N92:N191">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N94,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N92,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N94,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N92,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N94,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N92,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N93">
+  <conditionalFormatting sqref="N1 N3:N91">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -14188,10 +13939,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C11 C12 C13 C14 C15 C16 C17 C18 C21 C22 C23 C24 C25 C26 C27 C28 C34 C35 C36 C39 C57 C58 C59 C60 C61 C62 C63 C66 C67 C68 C69 C70 C71 C72 C73 C74 C76 C77 C78 C79 C83 C84 C85 C86 C87 C88 C89 C91 C92 C93 C94 C8:C10 C19:C20 C29:C33 C37:C38 C40:C41 C42:C43 C44:C51 C52:C56 C64:C65 C97:C193">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C11 C12 C13 C14 C15 C16 C17 C20 C21 C22 C23 C24 C25 C26 C27 C33 C34 C35 C38 C55 C56 C57 C58 C59 C60 C61 C64 C65 C66 C67 C68 C69 C70 C71 C72 C74 C75 C76 C77 C81 C82 C83 C84 C85 C86 C87 C89 C90 C91 C92 C8:C10 C18:C19 C28:C32 C36:C37 C39:C40 C41:C42 C43:C49 C50:C54 C62:C63 C95:C191">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D11 D12 D13 D14 D15 D16 D17 D18 D21 D22 D23 D24 D25 D26 D27 D28 D34 D35 D36 D39 D57 D58 D59 D60 D61 D62 D63 D66 D67 D68 D69 D70 D71 D72 D73 D74 D76 D77 D78 D79 D86 D8:D10 D19:D20 D29:D33 D37:D38 D40:D41 D42:D43 D44:D51 D52:D56 D64:D65 D84:D85 D87:D193">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D11 D12 D13 D14 D15 D16 D17 D20 D21 D22 D23 D24 D25 D26 D27 D33 D34 D35 D38 D55 D56 D57 D58 D59 D60 D61 D64 D65 D66 D67 D68 D69 D70 D71 D72 D74 D75 D76 D77 D84 D8:D10 D18:D19 D28:D32 D36:D37 D39:D40 D41:D42 D43:D49 D50:D54 D62:D63 D82:D83 D85:D191">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6500" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="839">
   <si>
     <t>target</t>
   </si>
@@ -2351,211 +2351,139 @@
     <t>${Inventory.Category}</t>
   </si>
   <si>
-    <t>verify Add Category button</t>
+    <t>Type anything in search</t>
+  </si>
+  <si>
+    <t>${addCategory.Search}</t>
+  </si>
+  <si>
+    <t>ServiceCategory</t>
+  </si>
+  <si>
+    <t>Download the List Categories</t>
+  </si>
+  <si>
+    <t>Download the Category list page</t>
+  </si>
+  <si>
+    <t>${addCategory.DownloadIcon}</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>{ENTER}</t>
+  </si>
+  <si>
+    <t>Edit Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click Edit button in specific Category </t>
+  </si>
+  <si>
+    <t>${ac.list.click.edit.button}</t>
+  </si>
+  <si>
+    <t>Verify Heading of Edit Category</t>
+  </si>
+  <si>
+    <t>${editCategory.Heading}</t>
+  </si>
+  <si>
+    <t>click on add button in Sepcification Table</t>
+  </si>
+  <si>
+    <t>${add.Specification}</t>
+  </si>
+  <si>
+    <t>select Specification</t>
+  </si>
+  <si>
+    <t>${select.Specification}</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Enter value in Title field</t>
+  </si>
+  <si>
+    <t>${Enter.Title.Specification}</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Again click on add button in Sepcification Table</t>
+  </si>
+  <si>
+    <t>Delete Functionality in Edit Category</t>
+  </si>
+  <si>
+    <t>click on delete button in specification</t>
+  </si>
+  <si>
+    <t>${click.Delete.SpecificationField}</t>
+  </si>
+  <si>
+    <t>delete the specification</t>
+  </si>
+  <si>
+    <t>${delete.Sepcification}</t>
+  </si>
+  <si>
+    <t>click on delete button in Tax field</t>
+  </si>
+  <si>
+    <t>${delete.Tax}</t>
+  </si>
+  <si>
+    <t>click on update button</t>
+  </si>
+  <si>
+    <t>${editCategory.UpdateButton}</t>
+  </si>
+  <si>
+    <t>go back the previous page</t>
+  </si>
+  <si>
+    <t>Delete Category</t>
+  </si>
+  <si>
+    <t>delete Category in the listing page</t>
+  </si>
+  <si>
+    <t>${delete.Category}</t>
+  </si>
+  <si>
+    <t>click on ok button in Pop up</t>
+  </si>
+  <si>
+    <t>${click.PopUp.ok}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify download button in add category </t>
+  </si>
+  <si>
+    <t>wait for some time</t>
+  </si>
+  <si>
+    <t>verify the Add category button</t>
   </si>
   <si>
     <t>${addCategory.Button}</t>
   </si>
   <si>
-    <t>vrify add category search field</t>
-  </si>
-  <si>
-    <t>${addCategory.Search}</t>
-  </si>
-  <si>
-    <t>ServiceCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify download button in add category </t>
-  </si>
-  <si>
-    <t>${addCategory.DownloadIcon}</t>
-  </si>
-  <si>
-    <t>verify Category Heading in Listing table</t>
-  </si>
-  <si>
-    <t>${ac.listing.CategoryHeading}</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>verify Parent Category Heading in Listing page</t>
-  </si>
-  <si>
-    <t>${ac.listing.parentCategory.Heading}</t>
-  </si>
-  <si>
-    <t>Parent Category</t>
-  </si>
-  <si>
-    <t>verify Add and delete Heading in Listing page</t>
-  </si>
-  <si>
-    <t>${ac.listing.addDelete.Heading}</t>
-  </si>
-  <si>
-    <t>rowcount</t>
-  </si>
-  <si>
-    <t>${ac.list.table.row.xpath}</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>${counter}</t>
-  </si>
-  <si>
-    <t>${rowcount}</t>
-  </si>
-  <si>
-    <t>Increase the count</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>${ac.list.table.row.xpath}[${counter}]${table.specification.values}</t>
-  </si>
-  <si>
-    <t>parentCategory</t>
-  </si>
-  <si>
-    <t>${ac.list.table.row.xpath}[${counter}]${table.title.values}</t>
-  </si>
-  <si>
-    <t>addDelete</t>
-  </si>
-  <si>
-    <t>${ac.list.table.row.xpath}[${counter}]${table.addDelete.values}</t>
-  </si>
-  <si>
-    <t>${category}</t>
-  </si>
-  <si>
-    <t>${parentCategory}</t>
-  </si>
-  <si>
-    <t>${addDelete}</t>
-  </si>
-  <si>
-    <t>verify edit button in Category field</t>
-  </si>
-  <si>
-    <t>${ac.list.click.edit.button}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click Edit button in specific Category </t>
-  </si>
-  <si>
-    <t>Navigate to Edit Category page</t>
-  </si>
-  <si>
-    <t>Verify Heading of Edit Category</t>
-  </si>
-  <si>
-    <t>${editCategory.Heading}</t>
-  </si>
-  <si>
-    <t>click on add button in Sepcification Table</t>
-  </si>
-  <si>
-    <t>${add.Specification}</t>
-  </si>
-  <si>
-    <t>select Specification</t>
-  </si>
-  <si>
-    <t>${select.Specification}</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Enter value in Title field</t>
-  </si>
-  <si>
-    <t>${Enter.Title.Specification}</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>Again click on add button in Sepcification Table</t>
-  </si>
-  <si>
-    <t>click on delete button in specification</t>
-  </si>
-  <si>
-    <t>${click.Delete.SpecificationField}</t>
-  </si>
-  <si>
-    <t>${delete.Sepcification}</t>
-  </si>
-  <si>
-    <t>click on delete button in Tax field</t>
-  </si>
-  <si>
-    <t>${delete.Tax}</t>
-  </si>
-  <si>
-    <t>click on update button</t>
-  </si>
-  <si>
-    <t>${editCategory.UpdateButton}</t>
-  </si>
-  <si>
-    <t>go back the previous page</t>
-  </si>
-  <si>
-    <t>delete Category in the listing page</t>
-  </si>
-  <si>
-    <t>${delete.Category}</t>
-  </si>
-  <si>
-    <t>${click.PopUp.ok}</t>
-  </si>
-  <si>
-    <t>verify Add category Heading field</t>
-  </si>
-  <si>
-    <t>${Category.Heading}</t>
-  </si>
-  <si>
-    <t>verify Parent category field</t>
-  </si>
-  <si>
-    <t>${ParentCategory.Heading}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add and delete Field </t>
-  </si>
-  <si>
-    <t>${AddandDelete}</t>
-  </si>
-  <si>
     <t>Create Add Category</t>
   </si>
   <si>
     <t>Click on add Category button</t>
   </si>
   <si>
-    <t>verify Add category Heading</t>
+    <t>verify the add category Heading</t>
   </si>
   <si>
     <t>${create.AddCategory.Heading}</t>
@@ -2564,133 +2492,91 @@
     <t>Add Category</t>
   </si>
   <si>
-    <t>verify Category name Label text</t>
-  </si>
-  <si>
-    <t>${AddCategory.Name.LabelText}</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>verify Category name field</t>
+    <t>Enter the value in Category name</t>
   </si>
   <si>
     <t>${AddCategory.Name.Values}</t>
   </si>
   <si>
-    <t>verify Parent category Label Text</t>
-  </si>
-  <si>
-    <t>${ParentCategory.LabelText}</t>
-  </si>
-  <si>
-    <t>verify Add specification switch box</t>
-  </si>
-  <si>
-    <t>${addSpecifiction.switchbox}</t>
-  </si>
-  <si>
-    <t>verify add specification label text</t>
-  </si>
-  <si>
-    <t>${addSpecification.LabelText}</t>
-  </si>
-  <si>
-    <t>Add Specification</t>
-  </si>
-  <si>
-    <t>verify Add Tax switch box</t>
+    <t>TestCategory[NUMBER(${num})=&gt;randomDigits(2)]</t>
+  </si>
+  <si>
+    <t>select parent category</t>
+  </si>
+  <si>
+    <t>${select.ParentCategory}</t>
+  </si>
+  <si>
+    <t>Select Text in Specification Table</t>
+  </si>
+  <si>
+    <t>${ac.specification.value}</t>
+  </si>
+  <si>
+    <t>Type Title value in Specification Table</t>
+  </si>
+  <si>
+    <t>${ac.title.value}</t>
+  </si>
+  <si>
+    <t>CategoryTest</t>
+  </si>
+  <si>
+    <t>Add Tax Functionality</t>
+  </si>
+  <si>
+    <t>click on Add Tax button</t>
   </si>
   <si>
     <t>${addTax.switchbox}</t>
   </si>
   <si>
-    <t>verify add Tax label text</t>
-  </si>
-  <si>
-    <t>${addTax.LabelText}</t>
-  </si>
-  <si>
-    <t>Add Tax</t>
-  </si>
-  <si>
-    <t>verify save button</t>
-  </si>
-  <si>
-    <t>${specification.saveButton}</t>
-  </si>
-  <si>
-    <t>Enter the value in Category name</t>
-  </si>
-  <si>
-    <t>TestCategory[NUMBER(${num})=&gt;randomDigits(2)]</t>
-  </si>
-  <si>
-    <t>select parent category</t>
-  </si>
-  <si>
-    <t>${select.ParentCategory}</t>
-  </si>
-  <si>
-    <t>verify specification heading in Add specification table</t>
-  </si>
-  <si>
-    <t>${Specification.table.heading}</t>
-  </si>
-  <si>
-    <t>Specification</t>
-  </si>
-  <si>
-    <t>verify title heading in add specification table</t>
-  </si>
-  <si>
-    <t>${specification.table.title}</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>${specification.table.addDelete}</t>
-  </si>
-  <si>
-    <t>${specification.table.row.xpath}</t>
-  </si>
-  <si>
-    <t>specification</t>
-  </si>
-  <si>
-    <t>${specification.table.row.xpath}[${counter}]${table.specification.values}</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>${specification.table.row.xpath}[${counter}]${table.title.values}</t>
-  </si>
-  <si>
-    <t>${specification.table.row.xpath}[${counter}]${table.addDelete.values}</t>
-  </si>
-  <si>
-    <t>${specification}</t>
-  </si>
-  <si>
-    <t>${title}</t>
-  </si>
-  <si>
-    <t>Select Text in Specification Table</t>
-  </si>
-  <si>
-    <t>${ac.specification.value}</t>
-  </si>
-  <si>
-    <t>Type Title value in Specification Table</t>
-  </si>
-  <si>
-    <t>${ac.title.value}</t>
-  </si>
-  <si>
-    <t>CategoryTest</t>
+    <t>Type IGST Value in Tax Table</t>
+  </si>
+  <si>
+    <t>${add.Tax.IGST}</t>
+  </si>
+  <si>
+    <t>Type CESS Value in Tax Table</t>
+  </si>
+  <si>
+    <t>${add.Tax.CESS}</t>
+  </si>
+  <si>
+    <t>Type CVAT Value in Tax Table</t>
+  </si>
+  <si>
+    <t>${add.Tax.CVAT}</t>
+  </si>
+  <si>
+    <t>Type VAT Value in Tax Table</t>
+  </si>
+  <si>
+    <t>${add.Tax.VAT}</t>
+  </si>
+  <si>
+    <t>Select state Value in Tax Table</t>
+  </si>
+  <si>
+    <t>${add.Select.state}</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Delete Selection functionality</t>
+  </si>
+  <si>
+    <t>click on delete selection button</t>
+  </si>
+  <si>
+    <t>${add.deleteSelection}</t>
+  </si>
+  <si>
+    <t>Type state value in Tax button</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
   </si>
   <si>
     <t>${save.button.AddCategory}</t>
@@ -2706,7 +2592,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2760,6 +2646,18 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -3295,135 +3193,135 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3533,16 +3431,21 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3566,7 +3469,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3574,62 +3477,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3637,6 +3495,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3647,11 +3513,23 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6740,14 +6618,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="37"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6761,12 +6639,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6778,7 +6656,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="40"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6813,10 +6691,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="44" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6831,7 +6709,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="50" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6846,69 +6724,69 @@
       <c r="E5" s="32" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="51" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="49"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="53"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="53"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="44"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="49"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="53"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="65"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="44"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6920,7 +6798,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="47"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6937,7 +6815,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="47"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6954,7 +6832,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="47"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6971,7 +6849,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="47"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6988,7 +6866,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="47"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7005,7 +6883,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="47"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7022,7 +6900,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="47"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7031,7 +6909,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="66"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -7039,7 +6917,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="47"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7056,7 +6934,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="47"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7073,7 +6951,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="47"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7090,7 +6968,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="47"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7107,7 +6985,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="47"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7124,7 +7002,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="47"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7141,7 +7019,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="47"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7158,7 +7036,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="47"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7175,7 +7053,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="47"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7192,7 +7070,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="47"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7209,7 +7087,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="47"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7226,7 +7104,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="47"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7243,7 +7121,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="47"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7260,7 +7138,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="47"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7277,7 +7155,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="47"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7294,7 +7172,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="47"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7311,7 +7189,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="47"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7328,7 +7206,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="47"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7345,7 +7223,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="47"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7362,7 +7240,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="47"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7379,7 +7257,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="47"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7396,7 +7274,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="47"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7413,7 +7291,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="47"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7430,7 +7308,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="47"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7447,7 +7325,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="47"/>
+      <c r="J40" s="37"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7464,7 +7342,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="47"/>
+      <c r="J41" s="37"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7481,7 +7359,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="47"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7498,7 +7376,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="47"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7515,7 +7393,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="47"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7532,7 +7410,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="47"/>
+      <c r="J45" s="37"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7549,7 +7427,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="47"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7566,7 +7444,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="47"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7583,7 +7461,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="47"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7600,7 +7478,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="47"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7617,7 +7495,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="47"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7634,7 +7512,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="47"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7651,7 +7529,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="47"/>
+      <c r="J52" s="37"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7668,7 +7546,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="47"/>
+      <c r="J53" s="37"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7685,7 +7563,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="47"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7702,7 +7580,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="47"/>
+      <c r="J55" s="37"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7719,7 +7597,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="47"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7736,7 +7614,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="47"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7753,7 +7631,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="47"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7770,7 +7648,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="47"/>
+      <c r="J59" s="37"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7787,7 +7665,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="47"/>
+      <c r="J60" s="37"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7804,7 +7682,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="47"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7821,7 +7699,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="47"/>
+      <c r="J62" s="37"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7838,7 +7716,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="47"/>
+      <c r="J63" s="37"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7855,7 +7733,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="47"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7872,7 +7750,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="47"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7889,7 +7767,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="47"/>
+      <c r="J66" s="37"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7906,7 +7784,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="47"/>
+      <c r="J67" s="37"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7923,7 +7801,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="47"/>
+      <c r="J68" s="37"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7940,7 +7818,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="47"/>
+      <c r="J69" s="37"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7957,7 +7835,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="47"/>
+      <c r="J70" s="37"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7974,7 +7852,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="47"/>
+      <c r="J71" s="37"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7991,7 +7869,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="47"/>
+      <c r="J72" s="37"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8008,7 +7886,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="47"/>
+      <c r="J73" s="37"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8025,7 +7903,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="47"/>
+      <c r="J74" s="37"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8042,7 +7920,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="47"/>
+      <c r="J75" s="37"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8059,7 +7937,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="47"/>
+      <c r="J76" s="37"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8076,7 +7954,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="47"/>
+      <c r="J77" s="37"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8093,7 +7971,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="47"/>
+      <c r="J78" s="37"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8110,7 +7988,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="47"/>
+      <c r="J79" s="37"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8127,7 +8005,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="47"/>
+      <c r="J80" s="37"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8144,7 +8022,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="47"/>
+      <c r="J81" s="37"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8161,7 +8039,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="47"/>
+      <c r="J82" s="37"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8178,7 +8056,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="47"/>
+      <c r="J83" s="37"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8195,7 +8073,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="47"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8212,7 +8090,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="47"/>
+      <c r="J85" s="37"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8229,7 +8107,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="47"/>
+      <c r="J86" s="37"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8246,7 +8124,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="47"/>
+      <c r="J87" s="37"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8263,7 +8141,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="47"/>
+      <c r="J88" s="37"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8280,7 +8158,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="47"/>
+      <c r="J89" s="37"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8297,7 +8175,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="47"/>
+      <c r="J90" s="37"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8314,7 +8192,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="47"/>
+      <c r="J91" s="37"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8331,7 +8209,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="47"/>
+      <c r="J92" s="37"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8348,7 +8226,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="47"/>
+      <c r="J93" s="37"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8365,7 +8243,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="47"/>
+      <c r="J94" s="37"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8382,7 +8260,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="47"/>
+      <c r="J95" s="37"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8399,7 +8277,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="47"/>
+      <c r="J96" s="37"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8416,7 +8294,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="47"/>
+      <c r="J97" s="37"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8433,7 +8311,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="47"/>
+      <c r="J98" s="37"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8450,7 +8328,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="47"/>
+      <c r="J99" s="37"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8467,7 +8345,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="47"/>
+      <c r="J100" s="37"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8484,7 +8362,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="47"/>
+      <c r="J101" s="37"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8501,7 +8379,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="47"/>
+      <c r="J102" s="37"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8518,7 +8396,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="47"/>
+      <c r="J103" s="37"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8535,7 +8413,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="47"/>
+      <c r="J104" s="37"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8552,7 +8430,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="47"/>
+      <c r="J105" s="37"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8569,7 +8447,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="47"/>
+      <c r="J106" s="37"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8586,7 +8464,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="47"/>
+      <c r="J107" s="37"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8603,7 +8481,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="47"/>
+      <c r="J108" s="37"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8620,7 +8498,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="47"/>
+      <c r="J109" s="37"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8637,7 +8515,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="47"/>
+      <c r="J110" s="37"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8654,7 +8532,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="47"/>
+      <c r="J111" s="37"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8671,7 +8549,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="47"/>
+      <c r="J112" s="37"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8688,7 +8566,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="47"/>
+      <c r="J113" s="37"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8705,7 +8583,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="47"/>
+      <c r="J114" s="37"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8722,7 +8600,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="47"/>
+      <c r="J115" s="37"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8739,7 +8617,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="47"/>
+      <c r="J116" s="37"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8756,7 +8634,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="47"/>
+      <c r="J117" s="37"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8773,7 +8651,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="47"/>
+      <c r="J118" s="37"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8790,7 +8668,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="47"/>
+      <c r="J119" s="37"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8807,7 +8685,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="47"/>
+      <c r="J120" s="37"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8824,7 +8702,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="47"/>
+      <c r="J121" s="37"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8841,7 +8719,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="47"/>
+      <c r="J122" s="37"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8858,7 +8736,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="47"/>
+      <c r="J123" s="37"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8875,7 +8753,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="47"/>
+      <c r="J124" s="37"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8892,7 +8770,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="47"/>
+      <c r="J125" s="37"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8909,7 +8787,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="47"/>
+      <c r="J126" s="37"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8926,7 +8804,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="47"/>
+      <c r="J127" s="37"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8943,7 +8821,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="47"/>
+      <c r="J128" s="37"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8960,7 +8838,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="47"/>
+      <c r="J129" s="37"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8977,7 +8855,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="47"/>
+      <c r="J130" s="37"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8994,7 +8872,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="47"/>
+      <c r="J131" s="37"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9011,7 +8889,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="47"/>
+      <c r="J132" s="37"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9028,7 +8906,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="47"/>
+      <c r="J133" s="37"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9045,7 +8923,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="47"/>
+      <c r="J134" s="37"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9062,7 +8940,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="47"/>
+      <c r="J135" s="37"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9079,7 +8957,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="47"/>
+      <c r="J136" s="37"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9096,7 +8974,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="47"/>
+      <c r="J137" s="37"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9113,7 +8991,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="47"/>
+      <c r="J138" s="37"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9130,7 +9008,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="47"/>
+      <c r="J139" s="37"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9147,7 +9025,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="47"/>
+      <c r="J140" s="37"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9164,7 +9042,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="47"/>
+      <c r="J141" s="37"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9181,7 +9059,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="47"/>
+      <c r="J142" s="37"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9198,7 +9076,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="47"/>
+      <c r="J143" s="37"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9215,7 +9093,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="47"/>
+      <c r="J144" s="37"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9232,7 +9110,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="47"/>
+      <c r="J145" s="37"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9249,7 +9127,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="47"/>
+      <c r="J146" s="37"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9266,7 +9144,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="47"/>
+      <c r="J147" s="37"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9283,7 +9161,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="47"/>
+      <c r="J148" s="37"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9300,7 +9178,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="47"/>
+      <c r="J149" s="37"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9317,7 +9195,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="47"/>
+      <c r="J150" s="37"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9334,7 +9212,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="47"/>
+      <c r="J151" s="37"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9351,7 +9229,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="47"/>
+      <c r="J152" s="37"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9368,7 +9246,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="47"/>
+      <c r="J153" s="37"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9385,7 +9263,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="47"/>
+      <c r="J154" s="37"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9402,7 +9280,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="47"/>
+      <c r="J155" s="37"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9419,7 +9297,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="47"/>
+      <c r="J156" s="37"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9436,7 +9314,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="47"/>
+      <c r="J157" s="37"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9453,7 +9331,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="47"/>
+      <c r="J158" s="37"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9470,7 +9348,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="47"/>
+      <c r="J159" s="37"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9487,7 +9365,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="47"/>
+      <c r="J160" s="37"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9504,7 +9382,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="47"/>
+      <c r="J161" s="37"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9521,7 +9399,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="47"/>
+      <c r="J162" s="37"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9538,7 +9416,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="47"/>
+      <c r="J163" s="37"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9555,7 +9433,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="47"/>
+      <c r="J164" s="37"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9572,7 +9450,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="47"/>
+      <c r="J165" s="37"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9589,7 +9467,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="47"/>
+      <c r="J166" s="37"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9606,7 +9484,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="47"/>
+      <c r="J167" s="37"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9623,7 +9501,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="47"/>
+      <c r="J168" s="37"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9640,7 +9518,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="47"/>
+      <c r="J169" s="37"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9657,7 +9535,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="47"/>
+      <c r="J170" s="37"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9674,7 +9552,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="47"/>
+      <c r="J171" s="37"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9691,7 +9569,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="47"/>
+      <c r="J172" s="37"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9708,7 +9586,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="47"/>
+      <c r="J173" s="37"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9725,7 +9603,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="47"/>
+      <c r="J174" s="37"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9742,7 +9620,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="47"/>
+      <c r="J175" s="37"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9759,7 +9637,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="47"/>
+      <c r="J176" s="37"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9776,7 +9654,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="47"/>
+      <c r="J177" s="37"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9793,7 +9671,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="47"/>
+      <c r="J178" s="37"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9810,7 +9688,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="47"/>
+      <c r="J179" s="37"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9827,7 +9705,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="47"/>
+      <c r="J180" s="37"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9844,7 +9722,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="47"/>
+      <c r="J181" s="37"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9861,7 +9739,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="47"/>
+      <c r="J182" s="37"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9878,7 +9756,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="47"/>
+      <c r="J183" s="37"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9895,7 +9773,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="47"/>
+      <c r="J184" s="37"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9912,7 +9790,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="47"/>
+      <c r="J185" s="37"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9929,7 +9807,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="47"/>
+      <c r="J186" s="37"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9946,7 +9824,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="47"/>
+      <c r="J187" s="37"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9963,7 +9841,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="47"/>
+      <c r="J188" s="37"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -10026,10 +9904,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O191"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10073,14 +9951,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="37"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -10094,12 +9972,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -10111,7 +9989,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="40"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10146,10 +10024,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="44" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10185,12 +10063,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10210,12 +10088,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10237,7 +10115,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="47"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10262,7 +10140,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="47"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10278,16 +10156,18 @@
         <v>30</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>763</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>764</v>
+      </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="47"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10295,24 +10175,28 @@
       <c r="O9" s="22"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>765</v>
+      </c>
       <c r="B10" s="30" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F10" s="27"/>
+        <v>767</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>768</v>
+      </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="47"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10322,22 +10206,22 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>766</v>
+      <c r="C11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>770</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="47"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10345,24 +10229,28 @@
       <c r="O11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="19" t="s">
+        <v>771</v>
+      </c>
       <c r="B12" s="30" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F12" s="27"/>
+        <v>773</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>759</v>
+      </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="47"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10372,24 +10260,22 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>771</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="47"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10399,24 +10285,22 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>774</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="47"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10426,22 +10310,24 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>253</v>
+        <v>692</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>776</v>
-      </c>
-      <c r="F15" s="27"/>
+        <v>779</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>780</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="47"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10450,23 +10336,25 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>781</v>
+      </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>483</v>
+        <v>707</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>777</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>778</v>
+        <v>782</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>783</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="47"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10475,23 +10363,23 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>780</v>
-      </c>
+      <c r="B17" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="47"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10499,24 +10387,26 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>782</v>
-      </c>
+      <c r="A18" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="47"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10525,23 +10415,23 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>784</v>
-      </c>
+      <c r="B19" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="47"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10551,24 +10441,22 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>786</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="47"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10577,23 +10465,25 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="30" t="s">
+        <v>792</v>
+      </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>493</v>
+        <v>576</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>788</v>
+        <v>793</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>759</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="47"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10602,23 +10492,21 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>794</v>
+      </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>789</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>790</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="47"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10626,24 +10514,26 @@
       <c r="O22" s="22"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>791</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>792</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="47"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10652,23 +10542,23 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>788</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>793</v>
-      </c>
+      <c r="D24" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="47"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10677,23 +10567,25 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>790</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>794</v>
+      <c r="D25" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>768</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="47"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10704,21 +10596,21 @@
       <c r="A26" s="19"/>
       <c r="B26" s="30"/>
       <c r="C26" s="31" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>792</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>795</v>
+        <v>656</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>770</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="47"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10728,21 +10620,22 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="C27" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>797</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="F27" s="35"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="47"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10752,24 +10645,22 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>759</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="F28" s="35"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="47"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10778,25 +10669,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="47"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10806,22 +10697,24 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="F30" s="27"/>
+        <v>807</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>808</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="47"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10831,24 +10724,24 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>806</v>
+        <v>810</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>811</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="47"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10858,7 +10751,7 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
@@ -10867,40 +10760,40 @@
         <v>707</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>809</v>
+        <v>764</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="47"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
       <c r="N32" s="23"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C33" s="26" t="s">
+    <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B33" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="D33" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>780</v>
+      </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="47"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10909,23 +10802,25 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="F34" s="27"/>
+      <c r="D34" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>818</v>
+      </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="47"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10933,22 +10828,26 @@
       <c r="O34" s="22"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A35" s="19"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="26" t="s">
+      <c r="A35" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="F35" s="27"/>
+      <c r="E35" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="F35" s="28"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="47"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10957,23 +10856,25 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="F36" s="27"/>
+      <c r="D36" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="F36" s="28">
+        <v>1</v>
+      </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="47"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10982,25 +10883,25 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>817</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>759</v>
+      <c r="D37" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="F37" s="28">
+        <v>1</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="47"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -11009,21 +10910,25 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="30" t="s">
-        <v>818</v>
-      </c>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="D38" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="F38" s="28">
+        <v>1</v>
+      </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="47"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -11032,23 +10937,25 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>820</v>
-      </c>
-      <c r="F39" s="27"/>
+      <c r="D39" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="F39" s="28">
+        <v>1</v>
+      </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="47"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -11057,21 +10964,25 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="F40" s="27"/>
+      <c r="D40" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>832</v>
+      </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="47"/>
+      <c r="J40" s="37"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -11080,23 +10991,23 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F41" s="27"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>770</v>
+      </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="47"/>
+      <c r="J41" s="37"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -11104,26 +11015,28 @@
       <c r="O41" s="22"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A42" s="19"/>
-      <c r="B42" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="A42" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>834</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>823</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>771</v>
+      <c r="D42" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="F42" s="28">
+        <v>3000</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="47"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -11132,25 +11045,25 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>825</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>774</v>
+      <c r="D43" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>837</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="47"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11159,23 +11072,23 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="F44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>770</v>
+      </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="47"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11183,26 +11096,21 @@
       <c r="O44" s="22"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E45" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F45" s="27"/>
+      <c r="E45" s="1" t="s">
+        <v>838</v>
+      </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="47"/>
+      <c r="J45" s="37"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11211,25 +11119,15 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>831</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>832</v>
-      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="47"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11238,25 +11136,15 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>834</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>835</v>
-      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="47"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11265,23 +11153,15 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="30" t="s">
-        <v>836</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>837</v>
-      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="47"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11290,25 +11170,15 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="30" t="s">
-        <v>838</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>774</v>
-      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="47"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11317,23 +11187,15 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="30" t="s">
-        <v>840</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>841</v>
-      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="47"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11342,25 +11204,15 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="30" t="s">
-        <v>842</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>844</v>
-      </c>
+      <c r="B51" s="37"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="47"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11369,23 +11221,15 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="30" t="s">
-        <v>845</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>846</v>
-      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="47"/>
+      <c r="J52" s="37"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11394,25 +11238,15 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="30" t="s">
-        <v>847</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>849</v>
-      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="47"/>
+      <c r="J53" s="37"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11421,23 +11255,15 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>851</v>
-      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="47"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11446,25 +11272,15 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="30" t="s">
-        <v>852</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>853</v>
-      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="47"/>
+      <c r="J55" s="37"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11473,25 +11289,15 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="30" t="s">
-        <v>854</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>766</v>
-      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="47"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11500,25 +11306,15 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>858</v>
-      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="47"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11527,25 +11323,15 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>861</v>
-      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="47"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11553,20 +11339,16 @@
       <c r="O58" s="22"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A59" s="30"/>
-      <c r="C59" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>862</v>
-      </c>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="47"/>
+      <c r="J59" s="37"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11574,22 +11356,16 @@
       <c r="O59" s="22"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="30"/>
-      <c r="C60" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>777</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>863</v>
-      </c>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="47"/>
+      <c r="J60" s="37"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11597,22 +11373,16 @@
       <c r="O60" s="22"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="30"/>
-      <c r="C61" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>780</v>
-      </c>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="47"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11620,22 +11390,16 @@
       <c r="O61" s="22"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A62" s="30"/>
-      <c r="C62" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>782</v>
-      </c>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="47"/>
+      <c r="J62" s="37"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11643,22 +11407,16 @@
       <c r="O62" s="22"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A63" s="30"/>
-      <c r="C63" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>784</v>
-      </c>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="47"/>
+      <c r="J63" s="37"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11666,25 +11424,16 @@
       <c r="O63" s="22"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>786</v>
-      </c>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="47"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11692,22 +11441,16 @@
       <c r="O64" s="22"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A65" s="30"/>
-      <c r="C65" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>864</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>865</v>
-      </c>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="47"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11715,22 +11458,16 @@
       <c r="O65" s="22"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A66" s="30"/>
-      <c r="C66" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>866</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>867</v>
-      </c>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="47"/>
+      <c r="J66" s="37"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11738,22 +11475,16 @@
       <c r="O66" s="22"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A67" s="30"/>
-      <c r="C67" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>791</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>868</v>
-      </c>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="47"/>
+      <c r="J67" s="37"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11761,22 +11492,16 @@
       <c r="O67" s="22"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A68" s="30"/>
-      <c r="C68" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>865</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>869</v>
-      </c>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="47"/>
+      <c r="J68" s="37"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11784,22 +11509,16 @@
       <c r="O68" s="22"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A69" s="30"/>
-      <c r="C69" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>867</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>870</v>
-      </c>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="47"/>
+      <c r="J69" s="37"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11807,47 +11526,33 @@
       <c r="O69" s="22"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A70" s="30"/>
-      <c r="C70" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>868</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>795</v>
-      </c>
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="47"/>
+      <c r="J70" s="37"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
       <c r="N70" s="23"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B71" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>692</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>872</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>806</v>
-      </c>
+    <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="47"/>
+      <c r="J71" s="37"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11856,25 +11561,15 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
-      <c r="B72" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>875</v>
-      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="47"/>
+      <c r="J72" s="37"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11884,19 +11579,14 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
-      <c r="C73" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>876</v>
-      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="47"/>
+      <c r="J73" s="37"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11904,16 +11594,16 @@
       <c r="O73" s="22"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="52"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="47"/>
+      <c r="J74" s="37"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11921,16 +11611,16 @@
       <c r="O74" s="22"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="49"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="47"/>
+      <c r="J75" s="37"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11938,16 +11628,16 @@
       <c r="O75" s="22"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A76" s="49"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="47"/>
+      <c r="J76" s="37"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11955,16 +11645,16 @@
       <c r="O76" s="22"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="49"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="47"/>
+      <c r="J77" s="37"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11972,16 +11662,16 @@
       <c r="O77" s="22"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A78" s="49"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="47"/>
+      <c r="J78" s="37"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11989,16 +11679,16 @@
       <c r="O78" s="22"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A79" s="49"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="47"/>
+      <c r="J79" s="37"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -12006,16 +11696,16 @@
       <c r="O79" s="22"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="49"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="56"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="47"/>
+      <c r="J80" s="37"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -12023,16 +11713,16 @@
       <c r="O80" s="22"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A81" s="49"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="56"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="47"/>
+      <c r="J81" s="37"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -12040,16 +11730,16 @@
       <c r="O81" s="22"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="49"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="47"/>
+      <c r="J82" s="37"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -12057,16 +11747,16 @@
       <c r="O82" s="22"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A83" s="49"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="47"/>
+      <c r="J83" s="37"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -12074,16 +11764,16 @@
       <c r="O83" s="22"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="49"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="47"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -12091,16 +11781,16 @@
       <c r="O84" s="22"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="49"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="47"/>
+      <c r="J85" s="37"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -12108,16 +11798,16 @@
       <c r="O85" s="22"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="49"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="47"/>
+      <c r="J86" s="37"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -12126,15 +11816,15 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="47"/>
+      <c r="J87" s="37"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12143,15 +11833,15 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="48"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="47"/>
+      <c r="J88" s="37"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -12160,7 +11850,7 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
-      <c r="B89" s="47"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="26"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -12168,7 +11858,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="47"/>
+      <c r="J89" s="37"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12177,7 +11867,7 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
-      <c r="B90" s="47"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="26"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
@@ -12185,7 +11875,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="47"/>
+      <c r="J90" s="37"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12194,7 +11884,7 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
-      <c r="B91" s="47"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="26"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
@@ -12202,7 +11892,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="47"/>
+      <c r="J91" s="37"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -12211,7 +11901,7 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
-      <c r="B92" s="47"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="26"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
@@ -12219,7 +11909,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="47"/>
+      <c r="J92" s="37"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12228,15 +11918,15 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="59"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="47"/>
+      <c r="J93" s="37"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12245,15 +11935,15 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="59"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="47"/>
+      <c r="J94" s="37"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12262,7 +11952,7 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
-      <c r="B95" s="47"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="26"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
@@ -12270,7 +11960,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="47"/>
+      <c r="J95" s="37"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12279,7 +11969,7 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
-      <c r="B96" s="47"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="26"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
@@ -12287,7 +11977,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="47"/>
+      <c r="J96" s="37"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12304,7 +11994,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="47"/>
+      <c r="J97" s="37"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12321,7 +12011,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="47"/>
+      <c r="J98" s="37"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12338,7 +12028,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="47"/>
+      <c r="J99" s="37"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12355,7 +12045,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="47"/>
+      <c r="J100" s="37"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12372,7 +12062,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="47"/>
+      <c r="J101" s="37"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12389,7 +12079,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="47"/>
+      <c r="J102" s="37"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12406,7 +12096,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="47"/>
+      <c r="J103" s="37"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12423,7 +12113,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="47"/>
+      <c r="J104" s="37"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12440,7 +12130,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="47"/>
+      <c r="J105" s="37"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12457,7 +12147,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="47"/>
+      <c r="J106" s="37"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12474,7 +12164,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="47"/>
+      <c r="J107" s="37"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12491,7 +12181,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="47"/>
+      <c r="J108" s="37"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12508,7 +12198,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="47"/>
+      <c r="J109" s="37"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12525,7 +12215,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="47"/>
+      <c r="J110" s="37"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12542,7 +12232,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="47"/>
+      <c r="J111" s="37"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12559,7 +12249,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="47"/>
+      <c r="J112" s="37"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12576,7 +12266,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="47"/>
+      <c r="J113" s="37"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12593,7 +12283,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="47"/>
+      <c r="J114" s="37"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12610,7 +12300,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="47"/>
+      <c r="J115" s="37"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12627,7 +12317,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="47"/>
+      <c r="J116" s="37"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12644,7 +12334,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="47"/>
+      <c r="J117" s="37"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12661,7 +12351,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="47"/>
+      <c r="J118" s="37"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12678,7 +12368,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="47"/>
+      <c r="J119" s="37"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12695,7 +12385,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="47"/>
+      <c r="J120" s="37"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12712,7 +12402,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="47"/>
+      <c r="J121" s="37"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12729,7 +12419,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="47"/>
+      <c r="J122" s="37"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12746,7 +12436,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="47"/>
+      <c r="J123" s="37"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12763,7 +12453,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="47"/>
+      <c r="J124" s="37"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12780,7 +12470,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="47"/>
+      <c r="J125" s="37"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12797,7 +12487,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="47"/>
+      <c r="J126" s="37"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12814,7 +12504,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="47"/>
+      <c r="J127" s="37"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12831,7 +12521,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="47"/>
+      <c r="J128" s="37"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12848,7 +12538,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="47"/>
+      <c r="J129" s="37"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12865,7 +12555,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="47"/>
+      <c r="J130" s="37"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12882,7 +12572,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="47"/>
+      <c r="J131" s="37"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12899,7 +12589,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="47"/>
+      <c r="J132" s="37"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12916,7 +12606,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="47"/>
+      <c r="J133" s="37"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12933,7 +12623,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="47"/>
+      <c r="J134" s="37"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12950,7 +12640,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="47"/>
+      <c r="J135" s="37"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12967,7 +12657,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="47"/>
+      <c r="J136" s="37"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12984,7 +12674,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="47"/>
+      <c r="J137" s="37"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -13001,7 +12691,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="47"/>
+      <c r="J138" s="37"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -13018,7 +12708,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="47"/>
+      <c r="J139" s="37"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -13035,7 +12725,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="47"/>
+      <c r="J140" s="37"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -13052,7 +12742,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="47"/>
+      <c r="J141" s="37"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -13069,7 +12759,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="47"/>
+      <c r="J142" s="37"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -13086,7 +12776,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="47"/>
+      <c r="J143" s="37"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -13103,7 +12793,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="47"/>
+      <c r="J144" s="37"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -13120,7 +12810,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="47"/>
+      <c r="J145" s="37"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13137,7 +12827,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="47"/>
+      <c r="J146" s="37"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13154,760 +12844,12 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="47"/>
+      <c r="J147" s="37"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
       <c r="N147" s="23"/>
       <c r="O147" s="22"/>
-    </row>
-    <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="47"/>
-      <c r="K148" s="22"/>
-      <c r="L148" s="23"/>
-      <c r="M148" s="21"/>
-      <c r="N148" s="23"/>
-      <c r="O148" s="22"/>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="47"/>
-      <c r="K149" s="22"/>
-      <c r="L149" s="23"/>
-      <c r="M149" s="21"/>
-      <c r="N149" s="23"/>
-      <c r="O149" s="22"/>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="47"/>
-      <c r="K150" s="22"/>
-      <c r="L150" s="23"/>
-      <c r="M150" s="21"/>
-      <c r="N150" s="23"/>
-      <c r="O150" s="22"/>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="47"/>
-      <c r="K151" s="22"/>
-      <c r="L151" s="23"/>
-      <c r="M151" s="21"/>
-      <c r="N151" s="23"/>
-      <c r="O151" s="22"/>
-    </row>
-    <row r="152" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="19"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="47"/>
-      <c r="K152" s="22"/>
-      <c r="L152" s="23"/>
-      <c r="M152" s="21"/>
-      <c r="N152" s="23"/>
-      <c r="O152" s="22"/>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="47"/>
-      <c r="K153" s="22"/>
-      <c r="L153" s="23"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="23"/>
-      <c r="O153" s="22"/>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="19"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="47"/>
-      <c r="K154" s="22"/>
-      <c r="L154" s="23"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="23"/>
-      <c r="O154" s="22"/>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="47"/>
-      <c r="K155" s="22"/>
-      <c r="L155" s="23"/>
-      <c r="M155" s="21"/>
-      <c r="N155" s="23"/>
-      <c r="O155" s="22"/>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="47"/>
-      <c r="K156" s="22"/>
-      <c r="L156" s="23"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="23"/>
-      <c r="O156" s="22"/>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="47"/>
-      <c r="K157" s="22"/>
-      <c r="L157" s="23"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="23"/>
-      <c r="O157" s="22"/>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="19"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="47"/>
-      <c r="K158" s="22"/>
-      <c r="L158" s="23"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="23"/>
-      <c r="O158" s="22"/>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="47"/>
-      <c r="K159" s="22"/>
-      <c r="L159" s="23"/>
-      <c r="M159" s="21"/>
-      <c r="N159" s="23"/>
-      <c r="O159" s="22"/>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="47"/>
-      <c r="K160" s="22"/>
-      <c r="L160" s="23"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="23"/>
-      <c r="O160" s="22"/>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="47"/>
-      <c r="K161" s="22"/>
-      <c r="L161" s="23"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="23"/>
-      <c r="O161" s="22"/>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="47"/>
-      <c r="K162" s="22"/>
-      <c r="L162" s="23"/>
-      <c r="M162" s="21"/>
-      <c r="N162" s="23"/>
-      <c r="O162" s="22"/>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="47"/>
-      <c r="K163" s="22"/>
-      <c r="L163" s="23"/>
-      <c r="M163" s="21"/>
-      <c r="N163" s="23"/>
-      <c r="O163" s="22"/>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="47"/>
-      <c r="K164" s="22"/>
-      <c r="L164" s="23"/>
-      <c r="M164" s="21"/>
-      <c r="N164" s="23"/>
-      <c r="O164" s="22"/>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="47"/>
-      <c r="K165" s="22"/>
-      <c r="L165" s="23"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="23"/>
-      <c r="O165" s="22"/>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A166" s="19"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="47"/>
-      <c r="K166" s="22"/>
-      <c r="L166" s="23"/>
-      <c r="M166" s="21"/>
-      <c r="N166" s="23"/>
-      <c r="O166" s="22"/>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="47"/>
-      <c r="K167" s="22"/>
-      <c r="L167" s="23"/>
-      <c r="M167" s="21"/>
-      <c r="N167" s="23"/>
-      <c r="O167" s="22"/>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A168" s="19"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="47"/>
-      <c r="K168" s="22"/>
-      <c r="L168" s="23"/>
-      <c r="M168" s="21"/>
-      <c r="N168" s="23"/>
-      <c r="O168" s="22"/>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="47"/>
-      <c r="K169" s="22"/>
-      <c r="L169" s="23"/>
-      <c r="M169" s="21"/>
-      <c r="N169" s="23"/>
-      <c r="O169" s="22"/>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="47"/>
-      <c r="K170" s="22"/>
-      <c r="L170" s="23"/>
-      <c r="M170" s="21"/>
-      <c r="N170" s="23"/>
-      <c r="O170" s="22"/>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="47"/>
-      <c r="K171" s="22"/>
-      <c r="L171" s="23"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="23"/>
-      <c r="O171" s="22"/>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="47"/>
-      <c r="K172" s="22"/>
-      <c r="L172" s="23"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="23"/>
-      <c r="O172" s="22"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="47"/>
-      <c r="K173" s="22"/>
-      <c r="L173" s="23"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="23"/>
-      <c r="O173" s="22"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="47"/>
-      <c r="K174" s="22"/>
-      <c r="L174" s="23"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="23"/>
-      <c r="O174" s="22"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="47"/>
-      <c r="K175" s="22"/>
-      <c r="L175" s="23"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="23"/>
-      <c r="O175" s="22"/>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="47"/>
-      <c r="K176" s="22"/>
-      <c r="L176" s="23"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="23"/>
-      <c r="O176" s="22"/>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="47"/>
-      <c r="K177" s="22"/>
-      <c r="L177" s="23"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="23"/>
-      <c r="O177" s="22"/>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="47"/>
-      <c r="K178" s="22"/>
-      <c r="L178" s="23"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="23"/>
-      <c r="O178" s="22"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="47"/>
-      <c r="K179" s="22"/>
-      <c r="L179" s="23"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="23"/>
-      <c r="O179" s="22"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="47"/>
-      <c r="K180" s="22"/>
-      <c r="L180" s="23"/>
-      <c r="M180" s="21"/>
-      <c r="N180" s="23"/>
-      <c r="O180" s="22"/>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="47"/>
-      <c r="K181" s="22"/>
-      <c r="L181" s="23"/>
-      <c r="M181" s="21"/>
-      <c r="N181" s="23"/>
-      <c r="O181" s="22"/>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="47"/>
-      <c r="K182" s="22"/>
-      <c r="L182" s="23"/>
-      <c r="M182" s="21"/>
-      <c r="N182" s="23"/>
-      <c r="O182" s="22"/>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="47"/>
-      <c r="K183" s="22"/>
-      <c r="L183" s="23"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="23"/>
-      <c r="O183" s="22"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="47"/>
-      <c r="K184" s="22"/>
-      <c r="L184" s="23"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="22"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="47"/>
-      <c r="K185" s="22"/>
-      <c r="L185" s="23"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="23"/>
-      <c r="O185" s="22"/>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="47"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="23"/>
-      <c r="O186" s="22"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="47"/>
-      <c r="K187" s="22"/>
-      <c r="L187" s="23"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="23"/>
-      <c r="O187" s="22"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="47"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="23"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="22"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="47"/>
-      <c r="K189" s="22"/>
-      <c r="L189" s="23"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="22"/>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="47"/>
-      <c r="K190" s="22"/>
-      <c r="L190" s="23"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="22"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="47"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="23"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13916,18 +12858,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N92:N191">
+  <conditionalFormatting sqref="N48:N147">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N92,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N48,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N92,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N48,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N92,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N48,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N91">
+  <conditionalFormatting sqref="N1 N3:N47">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13939,10 +12881,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C11 C12 C13 C14 C15 C16 C17 C20 C21 C22 C23 C24 C25 C26 C27 C33 C34 C35 C38 C55 C56 C57 C58 C59 C60 C61 C64 C65 C66 C67 C68 C69 C70 C71 C72 C74 C75 C76 C77 C81 C82 C83 C84 C85 C86 C87 C89 C90 C91 C92 C8:C10 C18:C19 C28:C32 C36:C37 C39:C40 C41:C42 C43:C49 C50:C54 C62:C63 C95:C191">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C17 C18 C19 C22 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C40 C41 C42 C43 C44 C46 C47 C48 C12:C16 C20:C21 C23:C24 C35:C39 C51:C147">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D11 D12 D13 D14 D15 D16 D17 D20 D21 D22 D23 D24 D25 D26 D27 D33 D34 D35 D38 D55 D56 D57 D58 D59 D60 D61 D64 D65 D66 D67 D68 D69 D70 D71 D72 D74 D75 D76 D77 D84 D8:D10 D18:D19 D28:D32 D36:D37 D39:D40 D41:D42 D43:D49 D50:D54 D62:D63 D82:D83 D85:D191">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D17 D18 D19 D22 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D40 D41 D42 D43 D44 D12:D16 D20:D21 D23:D24 D35:D39 D46:D147">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="906">
   <si>
     <t>target</t>
   </si>
@@ -2345,6 +2345,9 @@
     <t>3000</t>
   </si>
   <si>
+    <t>How it will verify the user has landed on the Category page&gt;</t>
+  </si>
+  <si>
     <t>click on Categories in Inventroy</t>
   </si>
   <si>
@@ -2621,6 +2624,9 @@
     <t>Search the created Category</t>
   </si>
   <si>
+    <t>Rework on the edit functionality and ask aditi how to verify edit functionality</t>
+  </si>
+  <si>
     <t>click on Edit button</t>
   </si>
   <si>
@@ -2736,6 +2742,9 @@
   </si>
   <si>
     <t>${ec.delete.tax.row.xpath}[${edittaxrowcount}]${ec.delete.spec.tax.button}</t>
+  </si>
+  <si>
+    <t>I see only element is being verified. Where is the message verification? The data is successfully deleted? Use expected and actual here</t>
   </si>
   <si>
     <t>Checking with Same Category name is creating or not</t>
@@ -2842,6 +2851,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -2849,13 +2865,6 @@
     <font>
       <sz val="11"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3639,15 +3648,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3665,10 +3678,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3700,7 +3709,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3792,7 +3801,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6978,13 +6987,13 @@
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>749</v>
       </c>
       <c r="F5" s="63" t="s">
@@ -10169,8 +10178,8 @@
   <sheetPr/>
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10386,9 +10395,11 @@
       <c r="O7" s="22"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="31" t="s">
+        <v>760</v>
+      </c>
       <c r="B8" s="30" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
@@ -10397,7 +10408,7 @@
         <v>363</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -10412,22 +10423,22 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -10442,7 +10453,7 @@
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="30" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
@@ -10451,10 +10462,10 @@
         <v>483</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -10469,19 +10480,19 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="C11" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>770</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="36" t="s">
         <v>771</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>772</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10496,17 +10507,17 @@
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>772</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="36" t="s">
         <v>773</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>774</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10521,17 +10532,17 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>774</v>
+      <c r="E13" s="36" t="s">
+        <v>775</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -10546,19 +10557,19 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="C14" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>770</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>777</v>
+      <c r="E14" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>778</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -10573,7 +10584,7 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
@@ -10582,10 +10593,10 @@
         <v>493</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -10600,19 +10611,19 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>780</v>
-      </c>
       <c r="F16" s="28" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10627,7 +10638,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>30</v>
@@ -10648,11 +10659,11 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="38" t="s">
-        <v>784</v>
+      <c r="A18" s="31" t="s">
+        <v>785</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>30</v>
@@ -10661,7 +10672,7 @@
         <v>253</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="27"/>
@@ -10675,9 +10686,9 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="38"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="39" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>30</v>
@@ -10686,7 +10697,7 @@
         <v>363</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="27"/>
@@ -10700,7 +10711,7 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="38"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="39"/>
       <c r="C20" s="43" t="s">
         <v>8</v>
@@ -10709,10 +10720,10 @@
         <v>656</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -10727,7 +10738,7 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
@@ -10751,10 +10762,10 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10763,7 +10774,7 @@
         <v>363</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
@@ -10778,17 +10789,17 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
-      <c r="B23" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="32" t="s">
+        <v>795</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>795</v>
+      <c r="E23" s="34" t="s">
+        <v>796</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="27"/>
@@ -10803,20 +10814,20 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>797</v>
+      <c r="E24" s="34" t="s">
+        <v>798</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -10830,20 +10841,20 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="32" t="s">
+        <v>800</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>707</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>800</v>
+      <c r="E25" s="34" t="s">
+        <v>801</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10881,7 +10892,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10890,10 +10901,10 @@
         <v>707</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -10908,19 +10919,19 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C28" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>806</v>
+      <c r="E28" s="34" t="s">
+        <v>807</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -10935,19 +10946,19 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C29" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>767</v>
+      <c r="E29" s="34" t="s">
+        <v>768</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -10962,19 +10973,19 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C30" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10989,19 +11000,19 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="C31" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -11016,19 +11027,19 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C32" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>817</v>
+      <c r="E32" s="34" t="s">
+        <v>818</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -11043,19 +11054,19 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="C33" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>820</v>
+      <c r="E33" s="34" t="s">
+        <v>821</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -11070,19 +11081,19 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="C34" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -11097,17 +11108,17 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="36" t="s">
         <v>656</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -11122,19 +11133,19 @@
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
       <c r="B36" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="C36" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -11149,7 +11160,7 @@
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="30" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>30</v>
@@ -11158,7 +11169,7 @@
         <v>363</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -11173,17 +11184,17 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="31" t="s">
-        <v>829</v>
-      </c>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="34" t="s">
         <v>253</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="27"/>
@@ -11198,22 +11209,22 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A39" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="C39" s="32" t="s">
+        <v>832</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>832</v>
+      <c r="E39" s="34" t="s">
+        <v>833</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -11226,20 +11237,20 @@
       <c r="O39" s="22"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
-      <c r="B40" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="32" t="s">
+        <v>800</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="34" t="s">
         <v>707</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>800</v>
+      <c r="E40" s="34" t="s">
+        <v>801</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -11253,17 +11264,17 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="31" t="s">
-        <v>834</v>
-      </c>
-      <c r="C41" s="32" t="s">
+      <c r="B41" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="34" t="s">
         <v>363</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="27"/>
@@ -11278,17 +11289,17 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="34" t="s">
         <v>363</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="27"/>
@@ -11304,19 +11315,19 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C43" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E43" s="33" t="s">
-        <v>838</v>
+      <c r="E43" s="34" t="s">
+        <v>839</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -11331,19 +11342,19 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C44" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E44" s="33" t="s">
-        <v>839</v>
+      <c r="E44" s="34" t="s">
+        <v>840</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -11358,19 +11369,19 @@
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C45" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="C45" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
@@ -11385,19 +11396,19 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="C46" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="C46" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
@@ -11412,19 +11423,19 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C47" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E47" s="33" t="s">
-        <v>843</v>
+      <c r="E47" s="34" t="s">
+        <v>844</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -11439,19 +11450,19 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="C48" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E48" s="33" t="s">
-        <v>844</v>
+      <c r="E48" s="34" t="s">
+        <v>845</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
@@ -11466,19 +11477,19 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="C49" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
@@ -11493,17 +11504,17 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="36" t="s">
         <v>656</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -11518,19 +11529,19 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="C51" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -11545,7 +11556,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>30</v>
@@ -11554,7 +11565,7 @@
         <v>363</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
@@ -11569,17 +11580,17 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="31" t="s">
-        <v>829</v>
-      </c>
-      <c r="C53" s="32" t="s">
+      <c r="B53" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="34" t="s">
         <v>253</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -11594,7 +11605,7 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B54" s="30" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>30</v>
@@ -11616,10 +11627,10 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
@@ -11628,10 +11639,10 @@
         <v>707</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -11644,9 +11655,11 @@
       <c r="O55" s="22"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A56" s="19"/>
+      <c r="A56" s="31" t="s">
+        <v>853</v>
+      </c>
       <c r="B56" s="30" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
@@ -11655,10 +11668,10 @@
         <v>576</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -11673,19 +11686,19 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C57" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>855</v>
+      <c r="E57" s="34" t="s">
+        <v>857</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -11700,19 +11713,19 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C58" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E58" s="33" t="s">
-        <v>856</v>
+      <c r="E58" s="34" t="s">
+        <v>858</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -11727,7 +11740,7 @@
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="30" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>30</v>
@@ -11736,7 +11749,7 @@
         <v>363</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F59" s="47"/>
       <c r="G59" s="27"/>
@@ -11752,19 +11765,19 @@
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C60" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="C60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E60" s="33" t="s">
-        <v>860</v>
+      <c r="E60" s="34" t="s">
+        <v>862</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
@@ -11779,19 +11792,19 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C61" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="C61" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E61" s="33" t="s">
-        <v>861</v>
+      <c r="E61" s="34" t="s">
+        <v>863</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -11806,19 +11819,19 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C62" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -11833,19 +11846,19 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="C63" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="C63" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -11860,19 +11873,19 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C64" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="C64" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E64" s="33" t="s">
-        <v>865</v>
+      <c r="E64" s="34" t="s">
+        <v>867</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -11887,19 +11900,19 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="C65" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="C65" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E65" s="33" t="s">
-        <v>866</v>
+      <c r="E65" s="34" t="s">
+        <v>868</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
@@ -11914,7 +11927,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="30" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>30</v>
@@ -11923,7 +11936,7 @@
         <v>363</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -11939,19 +11952,19 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C67" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="C67" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E67" s="33" t="s">
-        <v>870</v>
+      <c r="E67" s="34" t="s">
+        <v>872</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
@@ -11966,19 +11979,19 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="C68" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="C68" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E68" s="33" t="s">
-        <v>871</v>
+      <c r="E68" s="34" t="s">
+        <v>873</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
@@ -11993,19 +12006,19 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="C69" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="C69" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
@@ -12020,17 +12033,17 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
       <c r="B70" s="30"/>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="36" t="s">
         <v>656</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -12045,19 +12058,19 @@
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
       <c r="B71" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="C71" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -12072,7 +12085,7 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="30" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>30</v>
@@ -12081,7 +12094,7 @@
         <v>363</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
@@ -12097,7 +12110,7 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="30" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>30</v>
@@ -12106,7 +12119,7 @@
         <v>253</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -12121,16 +12134,16 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
-      <c r="B74" s="31" t="s">
-        <v>879</v>
-      </c>
-      <c r="C74" s="32" t="s">
+      <c r="B74" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="E74" s="33"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="47"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
@@ -12144,10 +12157,10 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>30</v>
@@ -12156,10 +12169,10 @@
         <v>707</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -12174,7 +12187,7 @@
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="19"/>
       <c r="B76" s="30" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>30</v>
@@ -12183,7 +12196,7 @@
         <v>363</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
@@ -12199,19 +12212,19 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C77" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="C77" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E77" s="33" t="s">
-        <v>881</v>
+      <c r="E77" s="34" t="s">
+        <v>883</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -12226,19 +12239,19 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
       <c r="B78" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C78" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="C78" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E78" s="33" t="s">
-        <v>882</v>
+      <c r="E78" s="34" t="s">
+        <v>884</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
@@ -12253,7 +12266,7 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
       <c r="B79" s="30" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>30</v>
@@ -12262,7 +12275,7 @@
         <v>363</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
@@ -12278,19 +12291,19 @@
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
       <c r="B80" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C80" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E80" s="33" t="s">
-        <v>886</v>
+      <c r="E80" s="34" t="s">
+        <v>888</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
@@ -12305,19 +12318,19 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
       <c r="B81" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="C81" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="C81" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E81" s="33" t="s">
-        <v>887</v>
+      <c r="E81" s="34" t="s">
+        <v>889</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
@@ -12332,7 +12345,7 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="19"/>
       <c r="B82" s="30" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>30</v>
@@ -12341,7 +12354,7 @@
         <v>363</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
@@ -12357,7 +12370,7 @@
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
       <c r="B83" s="30" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>30</v>
@@ -12366,7 +12379,7 @@
         <v>363</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
@@ -12380,9 +12393,11 @@
       <c r="O83" s="22"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="19"/>
+      <c r="A84" s="31" t="s">
+        <v>893</v>
+      </c>
       <c r="B84" s="30" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>30</v>
@@ -12391,7 +12406,7 @@
         <v>253</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -12406,16 +12421,16 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="19"/>
-      <c r="B85" s="31" t="s">
-        <v>879</v>
-      </c>
-      <c r="C85" s="32" t="s">
+      <c r="B85" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="C85" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="E85" s="33"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="47"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
@@ -12429,10 +12444,10 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A86" s="19" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>30</v>
@@ -12441,7 +12456,7 @@
         <v>363</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F86" s="47"/>
       <c r="G86" s="27"/>
@@ -12456,20 +12471,20 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
-      <c r="B87" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="C87" s="32" t="s">
+      <c r="B87" s="32" t="s">
+        <v>800</v>
+      </c>
+      <c r="C87" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="34" t="s">
         <v>707</v>
       </c>
-      <c r="E87" s="33" t="s">
-        <v>800</v>
+      <c r="E87" s="34" t="s">
+        <v>801</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
@@ -12483,17 +12498,17 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
-      <c r="B88" s="31" t="s">
-        <v>834</v>
-      </c>
-      <c r="C88" s="32" t="s">
+      <c r="B88" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="C88" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="34" t="s">
         <v>363</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F88" s="47"/>
       <c r="G88" s="27"/>
@@ -12508,17 +12523,17 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
-      <c r="B89" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="C89" s="32" t="s">
+      <c r="B89" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="C89" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="34" t="s">
         <v>363</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="27"/>
@@ -12534,19 +12549,19 @@
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
       <c r="B90" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C90" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="C90" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E90" s="33" t="s">
-        <v>838</v>
+      <c r="E90" s="34" t="s">
+        <v>839</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
@@ -12561,19 +12576,19 @@
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
       <c r="B91" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C91" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="C91" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E91" s="33" t="s">
-        <v>839</v>
+      <c r="E91" s="34" t="s">
+        <v>840</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
@@ -12588,19 +12603,19 @@
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
       <c r="B92" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C92" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="C92" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
@@ -12615,19 +12630,19 @@
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="C93" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="C93" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
@@ -12642,19 +12657,19 @@
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
       <c r="B94" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C94" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="C94" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="33" t="s">
+      <c r="D94" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="E94" s="33" t="s">
-        <v>843</v>
+      <c r="E94" s="34" t="s">
+        <v>844</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
@@ -12669,19 +12684,19 @@
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
       <c r="B95" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="C95" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="C95" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="33" t="s">
+      <c r="D95" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E95" s="33" t="s">
-        <v>844</v>
+      <c r="E95" s="34" t="s">
+        <v>845</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
@@ -12696,19 +12711,19 @@
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
       <c r="B96" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="C96" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="C96" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="33" t="s">
+      <c r="D96" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
@@ -12723,17 +12738,17 @@
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
       <c r="B97" s="30"/>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="36" t="s">
         <v>656</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F97" s="49" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
@@ -12748,19 +12763,19 @@
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
       <c r="B98" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="C98" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="C98" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="34" t="s">
         <v>707</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F98" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
@@ -12775,7 +12790,7 @@
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
       <c r="B99" s="30" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>30</v>
@@ -12784,7 +12799,7 @@
         <v>363</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
@@ -12798,18 +12813,20 @@
       <c r="O99" s="22"/>
     </row>
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="19"/>
-      <c r="B100" s="31" t="s">
-        <v>829</v>
-      </c>
-      <c r="C100" s="32" t="s">
+      <c r="A100" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="C100" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D100" s="34" t="s">
         <v>253</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
@@ -12824,7 +12841,7 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B101" s="30" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>30</v>
@@ -12846,22 +12863,22 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="19" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="C102" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C102" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="34" t="s">
         <v>707</v>
       </c>
-      <c r="E102" s="33" t="s">
-        <v>764</v>
+      <c r="E102" s="34" t="s">
+        <v>765</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
@@ -12876,7 +12893,7 @@
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="19"/>
       <c r="B103" s="30" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>30</v>
@@ -12885,7 +12902,7 @@
         <v>600</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
@@ -12901,7 +12918,7 @@
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
       <c r="B104" s="30" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>30</v>
@@ -12910,7 +12927,7 @@
         <v>253</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
@@ -12926,7 +12943,7 @@
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
       <c r="B105" s="30" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>30</v>
@@ -12935,7 +12952,7 @@
         <v>363</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -12951,7 +12968,7 @@
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="19"/>
       <c r="B106" s="30" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>30</v>
@@ -12960,7 +12977,7 @@
         <v>363</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -12974,9 +12991,11 @@
       <c r="O106" s="22"/>
     </row>
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A107" s="19"/>
+      <c r="A107" s="31" t="s">
+        <v>893</v>
+      </c>
       <c r="B107" s="30" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>30</v>
@@ -12985,7 +13004,7 @@
         <v>253</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -13001,7 +13020,7 @@
     <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A108" s="19"/>
       <c r="B108" s="30" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>30</v>

--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -10176,10 +10176,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10394,7 +10394,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="8" s="1" customFormat="1" ht="68" customHeight="1" spans="1:15">
       <c r="A8" s="31" t="s">
         <v>760</v>
       </c>
@@ -10422,24 +10422,12 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A9" s="19" t="s">
-        <v>763</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>764</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>766</v>
-      </c>
+      <c r="A9" s="19"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -10451,21 +10439,23 @@
       <c r="O9" s="22"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>483</v>
+      <c r="D10" s="34" t="s">
+        <v>707</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>769</v>
+        <v>765</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>766</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -10480,19 +10470,19 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>772</v>
+        <v>767</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>769</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10506,18 +10496,20 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>770</v>
+      </c>
       <c r="C12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10535,14 +10527,14 @@
       <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>49</v>
+      <c r="D13" s="36" t="s">
+        <v>465</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>775</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>776</v>
+        <v>773</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>774</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -10556,20 +10548,18 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="30" t="s">
-        <v>777</v>
-      </c>
+      <c r="B14" s="30"/>
       <c r="C14" s="35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>778</v>
+        <v>775</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>776</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -10584,19 +10574,19 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>781</v>
+        <v>777</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>778</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -10611,19 +10601,19 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="C16" s="35" t="s">
+        <v>779</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>781</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>783</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10638,16 +10628,20 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="C17" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
+      <c r="D17" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>783</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -10659,22 +10653,18 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>786</v>
-      </c>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>787</v>
-      </c>
-      <c r="F18" s="42"/>
+      <c r="D18" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -10686,15 +10676,17 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="31"/>
+      <c r="A19" s="31" t="s">
+        <v>785</v>
+      </c>
       <c r="B19" s="39" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>787</v>
@@ -10712,19 +10704,19 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="31"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>656</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>789</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>790</v>
-      </c>
+      <c r="B20" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>787</v>
+      </c>
+      <c r="F20" s="42"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -10736,20 +10728,20 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>759</v>
-      </c>
-      <c r="F21" s="46"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>656</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>789</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>790</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -10761,22 +10753,20 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="19" t="s">
-        <v>792</v>
-      </c>
+      <c r="A22" s="19"/>
       <c r="B22" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="F22" s="27"/>
+        <v>715</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="F22" s="46"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -10788,20 +10778,22 @@
       <c r="O22" s="22"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="32" t="s">
-        <v>795</v>
-      </c>
-      <c r="C23" s="33" t="s">
+      <c r="A23" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>796</v>
-      </c>
-      <c r="F23" s="47"/>
+      <c r="D23" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -10815,20 +10807,18 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="32" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>798</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>799</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="F24" s="47"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -10842,19 +10832,19 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>707</v>
+        <v>471</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10868,17 +10858,21 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="32" t="s">
+        <v>800</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>759</v>
-      </c>
-      <c r="F26" s="27"/>
+      <c r="D26" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>802</v>
+      </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -10891,21 +10885,17 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="30" t="s">
-        <v>803</v>
-      </c>
+      <c r="B27" s="30"/>
       <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>804</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>805</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -10919,19 +10909,19 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="C28" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>807</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>808</v>
+      <c r="D28" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>805</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -10946,19 +10936,19 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>768</v>
+        <v>807</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -10973,19 +10963,19 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>813</v>
+        <v>471</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>768</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>810</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -11000,7 +10990,7 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>30</v>
@@ -11009,10 +10999,10 @@
         <v>707</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -11027,19 +11017,19 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>818</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>819</v>
+        <v>707</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>816</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -11054,19 +11044,19 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -11081,19 +11071,19 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>824</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>825</v>
+        <v>471</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>822</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -11107,18 +11097,20 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>789</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>790</v>
+      <c r="B35" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>825</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -11132,20 +11124,18 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>827</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>778</v>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>790</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -11160,18 +11150,20 @@
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="C37" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="F37" s="27"/>
+      <c r="D37" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>778</v>
+      </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -11182,21 +11174,21 @@
       <c r="N37" s="23"/>
       <c r="O37" s="22"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
+    <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="B38" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>253</v>
+      <c r="D38" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>831</v>
-      </c>
-      <c r="F38" s="47"/>
+        <v>829</v>
+      </c>
+      <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -11207,25 +11199,21 @@
       <c r="N38" s="23"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A39" s="19" t="s">
-        <v>832</v>
-      </c>
+    <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
+      <c r="A39" s="19"/>
       <c r="B39" s="32" t="s">
-        <v>797</v>
+        <v>830</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>833</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>799</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="F39" s="47"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -11236,21 +11224,24 @@
       <c r="N39" s="23"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
+    <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A40" s="19" t="s">
+        <v>832</v>
+      </c>
       <c r="B40" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>707</v>
+        <v>471</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -11262,21 +11253,22 @@
       <c r="N40" s="23"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A41" s="19"/>
+    <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B41" s="32" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="F41" s="47"/>
+        <v>707</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>834</v>
+      </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -11290,7 +11282,7 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>30</v>
@@ -11299,7 +11291,7 @@
         <v>363</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="27"/>
@@ -11314,21 +11306,19 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="30" t="s">
-        <v>806</v>
+      <c r="B43" s="32" t="s">
+        <v>837</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>839</v>
-      </c>
-      <c r="F43" s="47" t="s">
-        <v>808</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="F43" s="47"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
@@ -11342,19 +11332,19 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -11369,19 +11359,19 @@
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>813</v>
+        <v>471</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>841</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
@@ -11396,7 +11386,7 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>30</v>
@@ -11405,10 +11395,10 @@
         <v>707</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
@@ -11423,19 +11413,19 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>844</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>819</v>
+        <v>707</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>816</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -11450,19 +11440,19 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
@@ -11477,19 +11467,19 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>847</v>
+        <v>471</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>822</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
@@ -11503,18 +11493,20 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>789</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>790</v>
+      <c r="B50" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>847</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -11528,20 +11520,18 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>778</v>
+      <c r="B51" s="30"/>
+      <c r="C51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>790</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -11556,18 +11546,20 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="C52" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="F52" s="27"/>
+      <c r="D52" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>778</v>
+      </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -11580,17 +11572,17 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="C53" s="33" t="s">
+      <c r="B53" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="C53" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="34" t="s">
-        <v>253</v>
+      <c r="D53" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -11603,17 +11595,20 @@
       <c r="N53" s="23"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B54" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="C54" s="26" t="s">
+    <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="C54" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="E54" s="27"/>
+      <c r="D54" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>849</v>
+      </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
@@ -11625,25 +11620,18 @@
       <c r="N54" s="23"/>
       <c r="O54" s="22"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A55" s="19" t="s">
-        <v>851</v>
-      </c>
+    <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B55" s="30" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>802</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -11655,23 +11643,23 @@
       <c r="O55" s="22"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A56" s="31" t="s">
-        <v>853</v>
+      <c r="A56" s="19" t="s">
+        <v>851</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>855</v>
+        <v>765</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>856</v>
+        <v>802</v>
       </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -11683,22 +11671,24 @@
       <c r="N56" s="23"/>
       <c r="O56" s="22"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="19"/>
+    <row r="57" s="1" customFormat="1" ht="46" customHeight="1" spans="1:15">
+      <c r="A57" s="31" t="s">
+        <v>853</v>
+      </c>
       <c r="B57" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="C57" s="33" t="s">
+        <v>854</v>
+      </c>
+      <c r="C57" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>857</v>
-      </c>
-      <c r="F57" s="47" t="s">
-        <v>808</v>
+      <c r="D57" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>856</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -11713,19 +11703,19 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>859</v>
+        <v>808</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -11740,18 +11730,20 @@
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="30" t="s">
-        <v>860</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>861</v>
-      </c>
-      <c r="F59" s="47"/>
+        <v>809</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>859</v>
+      </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
@@ -11765,20 +11757,18 @@
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="C60" s="33" t="s">
+        <v>860</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>862</v>
-      </c>
-      <c r="F60" s="47" t="s">
-        <v>808</v>
-      </c>
+      <c r="D60" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>861</v>
+      </c>
+      <c r="F60" s="47"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
@@ -11792,19 +11782,19 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>864</v>
+        <v>808</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -11819,19 +11809,19 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>865</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>813</v>
+        <v>471</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>863</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>864</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -11846,7 +11836,7 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>30</v>
@@ -11855,10 +11845,10 @@
         <v>707</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -11873,19 +11863,19 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>867</v>
-      </c>
-      <c r="F64" s="47" t="s">
-        <v>819</v>
+        <v>707</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>816</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -11900,19 +11890,19 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>869</v>
+        <v>819</v>
       </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
@@ -11927,18 +11917,20 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>871</v>
-      </c>
-      <c r="F66" s="27"/>
+        <v>820</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>869</v>
+      </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
@@ -11952,20 +11944,18 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="C67" s="33" t="s">
+        <v>870</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>872</v>
-      </c>
-      <c r="F67" s="47" t="s">
-        <v>819</v>
-      </c>
+      <c r="D67" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
@@ -11979,19 +11969,19 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>874</v>
+        <v>819</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
@@ -12006,19 +11996,19 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="30" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>875</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>847</v>
+        <v>471</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>873</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>874</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
@@ -12032,18 +12022,20 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>789</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>790</v>
+      <c r="B70" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>875</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>847</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -12057,20 +12049,18 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
-      <c r="B71" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>876</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>778</v>
+      <c r="B71" s="30"/>
+      <c r="C71" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>790</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -12085,18 +12075,20 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="30" t="s">
-        <v>877</v>
-      </c>
-      <c r="C72" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="C72" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>878</v>
-      </c>
-      <c r="F72" s="27"/>
+      <c r="D72" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>778</v>
+      </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
@@ -12110,16 +12102,16 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -12134,17 +12126,19 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
-      <c r="B74" s="32" t="s">
-        <v>881</v>
-      </c>
-      <c r="C74" s="33" t="s">
+      <c r="B74" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="C74" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="47"/>
+      <c r="D74" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
@@ -12156,24 +12150,18 @@
       <c r="O74" s="22"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="19" t="s">
-        <v>882</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>852</v>
-      </c>
-      <c r="C75" s="26" t="s">
+      <c r="A75" s="19"/>
+      <c r="B75" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="C75" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>802</v>
-      </c>
+      <c r="D75" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
@@ -12184,21 +12172,25 @@
       <c r="N75" s="23"/>
       <c r="O75" s="22"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A76" s="19"/>
+    <row r="76" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
+      <c r="A76" s="19" t="s">
+        <v>882</v>
+      </c>
       <c r="B76" s="30" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="F76" s="27"/>
+        <v>765</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>802</v>
+      </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
@@ -12212,20 +12204,18 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="C77" s="33" t="s">
+        <v>854</v>
+      </c>
+      <c r="C77" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>883</v>
-      </c>
-      <c r="F77" s="47" t="s">
-        <v>808</v>
-      </c>
+      <c r="D77" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
@@ -12239,19 +12229,19 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
       <c r="B78" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D78" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>885</v>
+        <v>808</v>
       </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
@@ -12266,18 +12256,20 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
       <c r="B79" s="30" t="s">
-        <v>886</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>887</v>
-      </c>
-      <c r="F79" s="27"/>
+        <v>809</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>884</v>
+      </c>
+      <c r="F79" s="47" t="s">
+        <v>885</v>
+      </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
@@ -12291,20 +12283,18 @@
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
       <c r="B80" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="C80" s="33" t="s">
+        <v>886</v>
+      </c>
+      <c r="C80" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>888</v>
-      </c>
-      <c r="F80" s="47" t="s">
-        <v>819</v>
-      </c>
+      <c r="D80" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>887</v>
+      </c>
+      <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
@@ -12318,19 +12308,19 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
       <c r="B81" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>890</v>
+        <v>819</v>
       </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
@@ -12345,18 +12335,20 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="19"/>
       <c r="B82" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="F82" s="27"/>
+        <v>820</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="F82" s="47" t="s">
+        <v>890</v>
+      </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
@@ -12370,7 +12362,7 @@
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
       <c r="B83" s="30" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>30</v>
@@ -12379,7 +12371,7 @@
         <v>363</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
@@ -12393,20 +12385,18 @@
       <c r="O83" s="22"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="31" t="s">
-        <v>893</v>
-      </c>
+      <c r="A84" s="19"/>
       <c r="B84" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -12419,19 +12409,23 @@
       <c r="N84" s="23"/>
       <c r="O84" s="22"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="19"/>
-      <c r="B85" s="32" t="s">
-        <v>881</v>
-      </c>
-      <c r="C85" s="33" t="s">
+    <row r="85" s="1" customFormat="1" ht="68" customHeight="1" spans="1:15">
+      <c r="A85" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D85" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="47"/>
+      <c r="D85" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
@@ -12442,22 +12436,18 @@
       <c r="N85" s="23"/>
       <c r="O85" s="22"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
-      <c r="A86" s="19" t="s">
-        <v>894</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="C86" s="26" t="s">
+    <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A86" s="19"/>
+      <c r="B86" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="C86" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>794</v>
-      </c>
+      <c r="D86" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="E86" s="34"/>
       <c r="F86" s="47"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
@@ -12469,23 +12459,23 @@
       <c r="N86" s="23"/>
       <c r="O86" s="22"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="19"/>
-      <c r="B87" s="32" t="s">
-        <v>800</v>
-      </c>
-      <c r="C87" s="33" t="s">
+    <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A87" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C87" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>801</v>
-      </c>
-      <c r="F87" s="47" t="s">
-        <v>802</v>
-      </c>
+      <c r="D87" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="F87" s="47"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
@@ -12499,18 +12489,20 @@
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
       <c r="B88" s="32" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="F88" s="47"/>
+        <v>707</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="F88" s="47" t="s">
+        <v>802</v>
+      </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
@@ -12524,7 +12516,7 @@
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
       <c r="B89" s="32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>30</v>
@@ -12533,7 +12525,7 @@
         <v>363</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="27"/>
@@ -12548,21 +12540,19 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
-      <c r="B90" s="30" t="s">
-        <v>806</v>
+      <c r="B90" s="32" t="s">
+        <v>837</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>839</v>
-      </c>
-      <c r="F90" s="47" t="s">
-        <v>808</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="F90" s="47"/>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
@@ -12576,19 +12566,19 @@
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
       <c r="B91" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D91" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
@@ -12603,19 +12593,19 @@
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
       <c r="B92" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E92" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="F92" s="27" t="s">
-        <v>813</v>
+        <v>471</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="F92" s="47" t="s">
+        <v>841</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
@@ -12630,7 +12620,7 @@
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>30</v>
@@ -12639,10 +12629,10 @@
         <v>707</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
@@ -12657,19 +12647,19 @@
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
       <c r="B94" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>844</v>
-      </c>
-      <c r="F94" s="47" t="s">
-        <v>819</v>
+        <v>707</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>816</v>
       </c>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
@@ -12684,19 +12674,19 @@
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
       <c r="B95" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
@@ -12711,19 +12701,19 @@
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
       <c r="B96" s="30" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="F96" s="27" t="s">
-        <v>847</v>
+        <v>471</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="F96" s="47" t="s">
+        <v>822</v>
       </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
@@ -12737,18 +12727,20 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E97" s="48" t="s">
-        <v>789</v>
-      </c>
-      <c r="F97" s="49" t="s">
-        <v>790</v>
+      <c r="B97" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>847</v>
       </c>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
@@ -12762,20 +12754,18 @@
     </row>
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
-      <c r="B98" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E98" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>778</v>
+      <c r="B98" s="30"/>
+      <c r="C98" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="F98" s="49" t="s">
+        <v>790</v>
       </c>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
@@ -12790,18 +12780,20 @@
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
       <c r="B99" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="C99" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D99" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="F99" s="27"/>
+      <c r="D99" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>778</v>
+      </c>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
@@ -12813,20 +12805,18 @@
       <c r="O99" s="22"/>
     </row>
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="31" t="s">
-        <v>893</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="C100" s="33" t="s">
+      <c r="A100" s="19"/>
+      <c r="B100" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="C100" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="34" t="s">
-        <v>253</v>
+      <c r="D100" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>895</v>
+        <v>829</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
@@ -12839,17 +12829,22 @@
       <c r="N100" s="23"/>
       <c r="O100" s="22"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B101" s="30" t="s">
-        <v>881</v>
-      </c>
-      <c r="C101" s="26" t="s">
+    <row r="101" s="1" customFormat="1" ht="86" customHeight="1" spans="1:15">
+      <c r="A101" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="C101" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="E101" s="27"/>
+      <c r="D101" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>895</v>
+      </c>
       <c r="F101" s="27"/>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
@@ -12861,25 +12856,18 @@
       <c r="N101" s="23"/>
       <c r="O101" s="22"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A102" s="19" t="s">
-        <v>896</v>
-      </c>
+    <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B102" s="30" t="s">
-        <v>852</v>
-      </c>
-      <c r="C102" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="C102" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="F102" s="47" t="s">
-        <v>802</v>
-      </c>
+      <c r="D102" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
@@ -12891,20 +12879,24 @@
       <c r="O102" s="22"/>
     </row>
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A103" s="19"/>
+      <c r="A103" s="19" t="s">
+        <v>896</v>
+      </c>
       <c r="B103" s="30" t="s">
-        <v>897</v>
-      </c>
-      <c r="C103" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="C103" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D103" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>898</v>
-      </c>
-      <c r="F103" s="27"/>
+      <c r="D103" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="F103" s="47" t="s">
+        <v>802</v>
+      </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
@@ -12918,16 +12910,16 @@
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
       <c r="B104" s="30" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>253</v>
+        <v>600</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
@@ -12943,16 +12935,16 @@
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
       <c r="B105" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -12968,7 +12960,7 @@
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="19"/>
       <c r="B106" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>30</v>
@@ -12977,7 +12969,7 @@
         <v>363</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -12991,20 +12983,18 @@
       <c r="O106" s="22"/>
     </row>
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A107" s="31" t="s">
-        <v>893</v>
-      </c>
+      <c r="A107" s="19"/>
       <c r="B107" s="30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -13017,18 +13007,22 @@
       <c r="N107" s="23"/>
       <c r="O107" s="22"/>
     </row>
-    <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A108" s="19"/>
+    <row r="108" s="1" customFormat="1" ht="71" customHeight="1" spans="1:15">
+      <c r="A108" s="31" t="s">
+        <v>893</v>
+      </c>
       <c r="B108" s="30" t="s">
-        <v>784</v>
+        <v>904</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>638</v>
-      </c>
-      <c r="E108" s="27"/>
+        <v>253</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>905</v>
+      </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
@@ -13042,9 +13036,15 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A109" s="19"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="27"/>
+      <c r="B109" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>638</v>
+      </c>
       <c r="E109" s="27"/>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
@@ -13110,7 +13110,7 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="26"/>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
@@ -14604,6 +14604,23 @@
       <c r="N200" s="23"/>
       <c r="O200" s="22"/>
     </row>
+    <row r="201" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="61"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="23"/>
+      <c r="M201" s="21"/>
+      <c r="N201" s="23"/>
+      <c r="O201" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -14611,18 +14628,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N113:N200">
+  <conditionalFormatting sqref="N114:N201">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N113,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N114,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N113,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N114,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N113,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N114,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N112">
+  <conditionalFormatting sqref="N1 N3:N113">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -14634,10 +14651,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C74 C75 C76 C77 C78 C79 C80 C81 C82 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C105 C106 C12:C13 C18:C19 C72:C73 C83:C84 C103:C104 C107:C108 C109:C112 C113:C200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C15 C16 C17 C18 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C75 C76 C77 C78 C79 C80 C81 C82 C83 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C106 C107 C13:C14 C19:C20 C73:C74 C84:C85 C104:C105 C108:C109 C110:C113 C114:C201">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D14 D15 D16 D17 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D74 D75 D76 D77 D78 D79 D80 D81 D82 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D105 D106 D12:D13 D18:D19 D72:D73 D83:D84 D103:D104 D107:D108 D109:D112 D113:D200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D16 D17 D18 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D75 D76 D77 D78 D79 D80 D81 D82 D83 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D106 D107 D13:D14 D19:D20 D73:D74 D84:D85 D104:D105 D108:D109 D110:D113 D114:D201">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -10178,8 +10178,8 @@
   <sheetPr/>
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -12409,7 +12409,7 @@
       <c r="N84" s="23"/>
       <c r="O84" s="22"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="68" customHeight="1" spans="1:15">
+    <row r="85" s="1" customFormat="1" ht="92" customHeight="1" spans="1:15">
       <c r="A85" s="31" t="s">
         <v>893</v>
       </c>

--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -10,6 +10,7 @@
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Token" sheetId="6" r:id="rId2"/>
     <sheet name="AddCategory" sheetId="7" r:id="rId3"/>
+    <sheet name="AddCategory (2)" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="967">
   <si>
     <t>target</t>
   </si>
@@ -2354,6 +2355,12 @@
     <t>${Inventory.Category}</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify the Add Categories </t>
+  </si>
+  <si>
+    <t>${addCategory.Button}</t>
+  </si>
+  <si>
     <t>Search Functionality</t>
   </si>
   <si>
@@ -2447,9 +2454,6 @@
     <t>Click on add Category button</t>
   </si>
   <si>
-    <t>${addCategory.Button}</t>
-  </si>
-  <si>
     <t>Verify the Heading of Add category</t>
   </si>
   <si>
@@ -2474,313 +2478,493 @@
     <t>${Categoryname}</t>
   </si>
   <si>
+    <t>parentname</t>
+  </si>
+  <si>
+    <t>${parentCategory.enter.values}</t>
+  </si>
+  <si>
+    <t>${parentname}</t>
+  </si>
+  <si>
     <t>select parent category</t>
   </si>
   <si>
     <t>${select.ParentCategory}</t>
   </si>
   <si>
+    <t>Save the row count</t>
+  </si>
+  <si>
+    <t>tablerow</t>
+  </si>
+  <si>
+    <t>${select.Specification.row.xpath}</t>
+  </si>
+  <si>
+    <t>Save the count values in variable</t>
+  </si>
+  <si>
+    <t>${tablerow}</t>
+  </si>
+  <si>
+    <t>Enter the values in Specification box</t>
+  </si>
+  <si>
+    <t>${select.Specification.row.xpath}[${rowcount}]${table.specification.values}${Specification.option.selection}</t>
+  </si>
+  <si>
+    <t>${values.Specification}</t>
+  </si>
+  <si>
+    <t>Enter the values in Title box</t>
+  </si>
+  <si>
+    <t>${select.Specification.row.xpath}[${rowcount}]${table.title.values}${spec.title.value}</t>
+  </si>
+  <si>
+    <t>${values.SpecTitle}</t>
+  </si>
+  <si>
+    <t>Save the Tax row count</t>
+  </si>
+  <si>
+    <t>taxtablerow</t>
+  </si>
+  <si>
+    <t>${Tax.table.row.xpath}</t>
+  </si>
+  <si>
+    <t>Save the Tax row count in variable</t>
+  </si>
+  <si>
+    <t>taxrowcount</t>
+  </si>
+  <si>
+    <t>${taxtablerow}</t>
+  </si>
+  <si>
+    <t>Enter the values in State Box</t>
+  </si>
+  <si>
+    <t>${Tax.table.row.xpath}[${taxrowcount}]${table.title.values}${tax.state.values}</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Enter the values in Rate box</t>
+  </si>
+  <si>
+    <t>${Tax.table.row.xpath}[${taxrowcount}]${table.rate.values}${spec.title.value}</t>
+  </si>
+  <si>
+    <t>click on save button</t>
+  </si>
+  <si>
+    <t>${Addcategory.save.Button}</t>
+  </si>
+  <si>
+    <t>Save the text which are present in POP up Message</t>
+  </si>
+  <si>
+    <t>varname</t>
+  </si>
+  <si>
+    <t>${popup.message.xpath}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the expected value </t>
+  </si>
+  <si>
+    <t>expectedvalue</t>
+  </si>
+  <si>
+    <t>Category ${Categoryname} created!</t>
+  </si>
+  <si>
+    <t>Compare Expected and Actual values.</t>
+  </si>
+  <si>
+    <t>${expectedvalue}</t>
+  </si>
+  <si>
+    <t>${varname}</t>
+  </si>
+  <si>
+    <t>Create Add Category without selecting Parent Category</t>
+  </si>
+  <si>
+    <t>addCategoryname</t>
+  </si>
+  <si>
+    <t>${addCategoryname}</t>
+  </si>
+  <si>
+    <t>Click on Specification checkbox button</t>
+  </si>
+  <si>
+    <t>${addSpecifiction.switchbox}</t>
+  </si>
+  <si>
+    <t>click on Add Tax checkbox button</t>
+  </si>
+  <si>
+    <t>${addTax.switchbox}</t>
+  </si>
+  <si>
+    <t>specificationtablerow</t>
+  </si>
+  <si>
+    <t>specificationrowcount</t>
+  </si>
+  <si>
+    <t>${specificationtablerow}</t>
+  </si>
+  <si>
+    <t>${select.Specification.row.xpath}[${specificationrowcount}]${table.specification.values}${Specification.option.selection}</t>
+  </si>
+  <si>
+    <t>${select.Specification.row.xpath}[${specificationrowcount}]${table.title.values}${spec.title.value}</t>
+  </si>
+  <si>
+    <t>addtaxtablerow</t>
+  </si>
+  <si>
+    <t>addtaxrowcount</t>
+  </si>
+  <si>
+    <t>${addtaxtablerow}</t>
+  </si>
+  <si>
+    <t>${Tax.table.row.xpath}[${addtaxrowcount}]${table.title.values}${tax.state.values}</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>${Tax.table.row.xpath}[${addtaxrowcount}]${table.rate.values}${spec.title.value}</t>
+  </si>
+  <si>
+    <t>createcategory</t>
+  </si>
+  <si>
+    <t>expvalue</t>
+  </si>
+  <si>
+    <t>Category ${addCategoryname} created!</t>
+  </si>
+  <si>
+    <t>${expvalue}</t>
+  </si>
+  <si>
+    <t>${createcategory}</t>
+  </si>
+  <si>
+    <t>go back to the previous page</t>
+  </si>
+  <si>
+    <t>Edit Functionality (Adding the Data's}</t>
+  </si>
+  <si>
+    <t>Search the created Category</t>
+  </si>
+  <si>
+    <t>click on Edit button</t>
+  </si>
+  <si>
+    <t>${ac.list.click.edit.button}</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>editaddspectablerow</t>
+  </si>
+  <si>
+    <t>editaddspecrowcount</t>
+  </si>
+  <si>
+    <t>${editaddspectablerow}</t>
+  </si>
+  <si>
+    <t>click on add button in specification added row</t>
+  </si>
+  <si>
+    <t>${select.Specification.row.xpath}[${editaddspecrowcount}]${click.add.specification}</t>
+  </si>
+  <si>
+    <t>editspecificationtablerow</t>
+  </si>
+  <si>
+    <t>editspecificationrowcount</t>
+  </si>
+  <si>
+    <t>${editspecificationtablerow}</t>
+  </si>
+  <si>
+    <t>${select.Specification.row.xpath}[${editspecificationrowcount}]${table.specification.values}${Specification.option.selection}</t>
+  </si>
+  <si>
+    <t>specvalue</t>
+  </si>
+  <si>
+    <t>${select.Specification.row.xpath}[${editspecificationrowcount}]${table.title.values}${spec.title.value}</t>
+  </si>
+  <si>
+    <t>${specvalue}</t>
+  </si>
+  <si>
+    <t>-------${specvalue}</t>
+  </si>
+  <si>
+    <t>editaddtaxtablerow</t>
+  </si>
+  <si>
+    <t>editaddtaxrowcount</t>
+  </si>
+  <si>
+    <t>${editaddtaxtablerow}</t>
+  </si>
+  <si>
+    <t>click on add button in Tax added row</t>
+  </si>
+  <si>
+    <t>${Tax.table.row.xpath}[${editaddtaxrowcount}]${tax.add.delete.button}</t>
+  </si>
+  <si>
+    <t>editcattaxtablerow</t>
+  </si>
+  <si>
+    <t>editcattaxrowcount</t>
+  </si>
+  <si>
+    <t>${editcattaxtablerow}</t>
+  </si>
+  <si>
+    <t>${Tax.table.row.xpath}[${editcattaxrowcount}]${table.title.values}${tax.state.values}</t>
+  </si>
+  <si>
+    <t>${Tax.table.row.xpath}[${editcattaxrowcount}]${table.rate.values}${spec.title.value}</t>
+  </si>
+  <si>
+    <t>click on update button</t>
+  </si>
+  <si>
+    <t>${editCategory.UpdateButton}</t>
+  </si>
+  <si>
+    <t>updatecategory</t>
+  </si>
+  <si>
+    <t>updatedexpvalue</t>
+  </si>
+  <si>
+    <t>Category ${Categoryname} Updated!</t>
+  </si>
+  <si>
+    <t>${updatedexpvalue}</t>
+  </si>
+  <si>
+    <t>${updatecategory}</t>
+  </si>
+  <si>
+    <t>go back the previous page</t>
+  </si>
+  <si>
+    <t>Edit Functionality (Deleting the Data's}</t>
+  </si>
+  <si>
+    <t>Saving the table row count in variable</t>
+  </si>
+  <si>
+    <t>rowcountvalue</t>
+  </si>
+  <si>
+    <t>${specification.title.values.xpath}</t>
+  </si>
+  <si>
+    <t>Store the counter value as 0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>${rowcountvalue}</t>
+  </si>
+  <si>
+    <t>Increase the Counter value as 1</t>
+  </si>
+  <si>
+    <t>specificationvalue</t>
+  </si>
+  <si>
+    <t>document.getElementById('__BVID__8106').value</t>
+  </si>
+  <si>
+    <t>${specificationvalue}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the created transfer note value </t>
+  </si>
+  <si>
+    <t>spectitlevalue</t>
+  </si>
+  <si>
+    <t>(${specification.title.values.xpath})[${counter}]</t>
+  </si>
+  <si>
+    <t>Compare Expected and Actual values</t>
+  </si>
+  <si>
+    <t>${spectitlevalue}</t>
+  </si>
+  <si>
+    <t>click on that created transfer note</t>
+  </si>
+  <si>
+    <t>(${specification.button.xpath})[${counter}]${delete.specification.button}</t>
+  </si>
+  <si>
+    <t>Using End loop If, the Actal and Expected values are matching then it will stop the loop</t>
+  </si>
+  <si>
+    <t>${specTitlevalue}</t>
+  </si>
+  <si>
+    <t>EndLoopIf(${specvalue} = ${specTitlevalue})</t>
+  </si>
+  <si>
+    <t>editspectablerow</t>
+  </si>
+  <si>
+    <t>editspecrowcount</t>
+  </si>
+  <si>
+    <t>${editspectablerow}</t>
+  </si>
+  <si>
+    <t>click on delete button in specification added row</t>
+  </si>
+  <si>
+    <t>${ec.delete.spec.row.xpath}[${editspecrowcount}]${spec.add.delete.button}</t>
+  </si>
+  <si>
+    <t>edittaxtablerow</t>
+  </si>
+  <si>
+    <t>edittaxrowcount</t>
+  </si>
+  <si>
+    <t>${edittaxtablerow}</t>
+  </si>
+  <si>
+    <t>click on delete button in Tax added row</t>
+  </si>
+  <si>
+    <t>${ec.delete.tax.row.xpath}[${edittaxrowcount}]${ec.delete.spec.tax.button}</t>
+  </si>
+  <si>
+    <t>verify the Pop up message after Editing the category</t>
+  </si>
+  <si>
+    <t>${editCategory.Popup.Message}</t>
+  </si>
+  <si>
+    <t>updaedittecategory</t>
+  </si>
+  <si>
+    <t>updatedvalueexpected</t>
+  </si>
+  <si>
+    <t>${updatedvalueexpected}</t>
+  </si>
+  <si>
+    <t>${updaedittecategory}</t>
+  </si>
+  <si>
+    <t>Checking with Same Category name is creating or not</t>
+  </si>
+  <si>
+    <t>verify the Pop up message after creating the add category</t>
+  </si>
+  <si>
+    <t>${ac.duplicateEntry.Popup.Message}</t>
+  </si>
+  <si>
+    <t>deplicatecategory</t>
+  </si>
+  <si>
+    <t>duplicatevalueexpected</t>
+  </si>
+  <si>
+    <t>Duplicate Category not allowed</t>
+  </si>
+  <si>
+    <t>${duplicatevalueexpected}</t>
+  </si>
+  <si>
+    <t>${deplicatecategory}</t>
+  </si>
+  <si>
+    <t>delete the created Category</t>
+  </si>
+  <si>
+    <t>click on delete button in list table</t>
+  </si>
+  <si>
+    <t>${ac.list.click.delete.button}</t>
+  </si>
+  <si>
+    <t>verify the Names which we have choosen for deleting</t>
+  </si>
+  <si>
+    <t>${Popup.Table.name}</t>
+  </si>
+  <si>
+    <t>Again click on delete button in list table</t>
+  </si>
+  <si>
+    <t>Now click on ok button</t>
+  </si>
+  <si>
+    <t>${click.ok.button}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Delete Pop Up Message </t>
+  </si>
+  <si>
+    <t>${delete.Popup.Message}</t>
+  </si>
+  <si>
+    <t>deletecategory</t>
+  </si>
+  <si>
+    <t>deleteexpectedvalue</t>
+  </si>
+  <si>
+    <t>Category "${Categoryname}" was successfully deleted!</t>
+  </si>
+  <si>
+    <t>${deleteexpectedvalue}</t>
+  </si>
+  <si>
+    <t>${deletecategory}</t>
+  </si>
+  <si>
     <t>Category12</t>
   </si>
   <si>
-    <t>Save the row count</t>
-  </si>
-  <si>
-    <t>tablerow</t>
-  </si>
-  <si>
-    <t>${select.Specification.row.xpath}</t>
-  </si>
-  <si>
-    <t>Save the count values in variable</t>
-  </si>
-  <si>
-    <t>${tablerow}</t>
-  </si>
-  <si>
-    <t>Enter the values in Specification box</t>
-  </si>
-  <si>
-    <t>${select.Specification.row.xpath}[${rowcount}]${table.specification.values}${Specification.option.selection}</t>
-  </si>
-  <si>
-    <t>${values.Specification}</t>
-  </si>
-  <si>
-    <t>Enter the values in Title box</t>
-  </si>
-  <si>
-    <t>${select.Specification.row.xpath}[${rowcount}]${table.title.values}${spec.title.value}</t>
-  </si>
-  <si>
-    <t>${values.SpecTitle}</t>
-  </si>
-  <si>
-    <t>Save the Tax row count</t>
-  </si>
-  <si>
-    <t>taxtablerow</t>
-  </si>
-  <si>
-    <t>${Tax.table.row.xpath}</t>
-  </si>
-  <si>
-    <t>Save the Tax row count in variable</t>
-  </si>
-  <si>
-    <t>taxrowcount</t>
-  </si>
-  <si>
-    <t>${taxtablerow}</t>
-  </si>
-  <si>
-    <t>Enter the values in State Box</t>
-  </si>
-  <si>
-    <t>${Tax.table.row.xpath}[${taxrowcount}]${table.title.values}${tax.state.values}</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Enter the values in Rate box</t>
-  </si>
-  <si>
-    <t>${Tax.table.row.xpath}[${taxrowcount}]${table.rate.values}${spec.title.value}</t>
-  </si>
-  <si>
-    <t>click on save button</t>
-  </si>
-  <si>
-    <t>${Addcategory.save.Button}</t>
-  </si>
-  <si>
-    <t>verify the Pop up message after creating the add category</t>
-  </si>
-  <si>
     <t>${addcategory.Popup.Message}</t>
   </si>
   <si>
-    <t>Create Add Category without selecting Parent Category</t>
-  </si>
-  <si>
-    <t>addCategoryname</t>
-  </si>
-  <si>
-    <t>${addCategoryname}</t>
-  </si>
-  <si>
-    <t>Click on Specification checkbox button</t>
-  </si>
-  <si>
-    <t>${addSpecifiction.switchbox}</t>
-  </si>
-  <si>
-    <t>click on Add Tax checkbox button</t>
-  </si>
-  <si>
-    <t>${addTax.switchbox}</t>
-  </si>
-  <si>
-    <t>specificationtablerow</t>
-  </si>
-  <si>
-    <t>specificationrowcount</t>
-  </si>
-  <si>
-    <t>${specificationtablerow}</t>
-  </si>
-  <si>
-    <t>${select.Specification.row.xpath}[${specificationrowcount}]${table.specification.values}${Specification.option.selection}</t>
-  </si>
-  <si>
-    <t>${select.Specification.row.xpath}[${specificationrowcount}]${table.title.values}${spec.title.value}</t>
-  </si>
-  <si>
-    <t>addtaxtablerow</t>
-  </si>
-  <si>
-    <t>addtaxrowcount</t>
-  </si>
-  <si>
-    <t>${Tax.table.row.xpath}[${addtaxrowcount}]${table.title.values}${tax.state.values}</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>${Tax.table.row.xpath}[${addtaxrowcount}]${table.rate.values}${spec.title.value}</t>
-  </si>
-  <si>
     <t>${category.Popup.Message}</t>
   </si>
   <si>
-    <t>go back to the previous page</t>
-  </si>
-  <si>
-    <t>Edit Functionality (Adding the Data's}</t>
-  </si>
-  <si>
-    <t>Search the created Category</t>
-  </si>
-  <si>
     <t>Rework on the edit functionality and ask aditi how to verify edit functionality</t>
   </si>
   <si>
-    <t>click on Edit button</t>
-  </si>
-  <si>
-    <t>${ac.list.click.edit.button}</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>editaddspectablerow</t>
-  </si>
-  <si>
-    <t>editaddspecrowcount</t>
-  </si>
-  <si>
-    <t>${editaddspectablerow}</t>
-  </si>
-  <si>
-    <t>click on add button in specification added row</t>
-  </si>
-  <si>
-    <t>${select.Specification.row.xpath}[${editaddspecrowcount}]${click.add.specification}</t>
-  </si>
-  <si>
-    <t>editspecificationtablerow</t>
-  </si>
-  <si>
-    <t>editspecificationrowcount</t>
-  </si>
-  <si>
-    <t>${editspecificationtablerow}</t>
-  </si>
-  <si>
-    <t>${select.Specification.row.xpath}[${editspecificationrowcount}]${table.specification.values}${Specification.option.selection}</t>
-  </si>
-  <si>
-    <t>${select.Specification.row.xpath}[${editspecificationrowcount}]${table.title.values}${spec.title.value}</t>
-  </si>
-  <si>
-    <t>editaddtaxtablerow</t>
-  </si>
-  <si>
-    <t>editaddtaxrowcount</t>
-  </si>
-  <si>
-    <t>${editaddtaxtablerow}</t>
-  </si>
-  <si>
-    <t>click on add button in Tax added row</t>
-  </si>
-  <si>
-    <t>${Tax.table.row.xpath}[${editaddtaxrowcount}]${tax.add.delete.button}</t>
-  </si>
-  <si>
-    <t>editcattaxtablerow</t>
-  </si>
-  <si>
-    <t>editcattaxrowcount</t>
-  </si>
-  <si>
-    <t>${editcattaxtablerow}</t>
-  </si>
-  <si>
-    <t>${Tax.table.row.xpath}[${editcattaxrowcount}]${table.title.values}${tax.state.values}</t>
-  </si>
-  <si>
-    <t>${Tax.table.row.xpath}[${editcattaxrowcount}]${table.rate.values}${spec.title.value}</t>
-  </si>
-  <si>
-    <t>click on update button</t>
-  </si>
-  <si>
-    <t>${editCategory.UpdateButton}</t>
-  </si>
-  <si>
-    <t>verify the Pop up message after Editing the category</t>
-  </si>
-  <si>
-    <t>${editCategory.Popup.Message}</t>
-  </si>
-  <si>
-    <t>go back the previous page</t>
-  </si>
-  <si>
-    <t>Edit Functionality (Deleting the Data's}</t>
-  </si>
-  <si>
-    <t>editspectablerow</t>
-  </si>
-  <si>
-    <t>editspecrowcount</t>
-  </si>
-  <si>
-    <t>${editspectablerow}</t>
-  </si>
-  <si>
-    <t>click on delete button in specification added row</t>
-  </si>
-  <si>
-    <t>${ec.delete.spec.row.xpath}[${editspecrowcount}]${spec.add.delete.button}</t>
-  </si>
-  <si>
-    <t>edittaxtablerow</t>
-  </si>
-  <si>
-    <t>edittaxrowcount</t>
-  </si>
-  <si>
-    <t>${edittaxtablerow}</t>
-  </si>
-  <si>
-    <t>click on delete button in Tax added row</t>
-  </si>
-  <si>
-    <t>${ec.delete.tax.row.xpath}[${edittaxrowcount}]${ec.delete.spec.tax.button}</t>
-  </si>
-  <si>
     <t>I see only element is being verified. Where is the message verification? The data is successfully deleted? Use expected and actual here</t>
-  </si>
-  <si>
-    <t>Checking with Same Category name is creating or not</t>
-  </si>
-  <si>
-    <t>${ac.duplicateEntry.Popup.Message}</t>
-  </si>
-  <si>
-    <t>delete the created Category</t>
-  </si>
-  <si>
-    <t>click on delete button in list table</t>
-  </si>
-  <si>
-    <t>${ac.list.click.delete.button}</t>
-  </si>
-  <si>
-    <t>verify the Names which we have choosen for deleting</t>
-  </si>
-  <si>
-    <t>${Popup.Table.name}</t>
-  </si>
-  <si>
-    <t>Again click on delete button in list table</t>
-  </si>
-  <si>
-    <t>Now click on ok button</t>
-  </si>
-  <si>
-    <t>${click.ok.button}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the Delete Pop Up Message </t>
-  </si>
-  <si>
-    <t>${delete.Popup.Message}</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2977,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2852,6 +3036,7 @@
     </font>
     <font>
       <b/>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -2868,12 +3053,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
@@ -2903,6 +3090,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3418,135 +3629,135 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3761,6 +3972,58 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3768,7 +4031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3784,10 +4047,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -6981,7 +7240,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="75" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6996,7 +7255,7 @@
       <c r="E5" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="76" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
@@ -7010,13 +7269,13 @@
       <c r="O5" s="58"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="57"/>
@@ -7027,9 +7286,9 @@
       <c r="O6" s="58"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="69"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -7044,12 +7303,12 @@
       <c r="O7" s="58"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -7181,7 +7440,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="73"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -10176,10 +10435,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10423,10 +10682,18 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>764</v>
+      </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -10440,10 +10707,10 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>30</v>
@@ -10452,10 +10719,10 @@
         <v>707</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -10470,7 +10737,7 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
@@ -10479,10 +10746,10 @@
         <v>483</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10497,7 +10764,7 @@
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="30" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>5</v>
@@ -10506,10 +10773,10 @@
         <v>471</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10531,10 +10798,10 @@
         <v>465</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -10556,10 +10823,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -10574,7 +10841,7 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>20</v>
@@ -10583,10 +10850,10 @@
         <v>302</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -10601,7 +10868,7 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
@@ -10610,10 +10877,10 @@
         <v>493</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10628,7 +10895,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>30</v>
@@ -10637,10 +10904,10 @@
         <v>530</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -10655,7 +10922,7 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10677,10 +10944,10 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="31" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>30</v>
@@ -10689,7 +10956,7 @@
         <v>253</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="27"/>
@@ -10705,7 +10972,7 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="31"/>
       <c r="B20" s="39" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>30</v>
@@ -10714,7 +10981,7 @@
         <v>363</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="27"/>
@@ -10737,10 +11004,10 @@
         <v>656</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -10755,7 +11022,7 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
       <c r="B22" s="30" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10777,12 +11044,12 @@
       <c r="N22" s="23"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="23" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A23" s="19" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10791,7 +11058,7 @@
         <v>363</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -10807,7 +11074,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="32" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>30</v>
@@ -10816,7 +11083,7 @@
         <v>253</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="27"/>
@@ -10832,7 +11099,7 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="32" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>5</v>
@@ -10841,10 +11108,10 @@
         <v>471</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10859,7 +11126,7 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="32" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>30</v>
@@ -10868,10 +11135,10 @@
         <v>707</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -10908,14 +11175,12 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="30" t="s">
-        <v>803</v>
-      </c>
+      <c r="B28" s="30"/>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>707</v>
+        <v>493</v>
       </c>
       <c r="E28" s="27" t="s">
         <v>804</v>
@@ -10935,21 +11200,17 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="C29" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>807</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>808</v>
-      </c>
+      <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -10963,19 +11224,19 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>768</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>810</v>
+        <v>807</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>806</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10990,19 +11251,19 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>813</v>
+        <v>483</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>811</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -11017,19 +11278,19 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>815</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>816</v>
+        <v>471</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>813</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -11044,19 +11305,19 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>818</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>819</v>
+        <v>707</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>816</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -11071,19 +11332,19 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>821</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>822</v>
+        <v>707</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>819</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -11098,19 +11359,19 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>824</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>825</v>
+        <v>483</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>822</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -11124,18 +11385,20 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>789</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>790</v>
+      <c r="B36" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>825</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -11162,7 +11425,7 @@
         <v>827</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>778</v>
+        <v>828</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -11176,8 +11439,5447 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="22"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="22"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A40" s="19"/>
+      <c r="B40" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="22"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>835</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="22"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>837</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>838</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="22"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>840</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>841</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="22"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A44" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>798</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>843</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="22"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
+      <c r="B45" s="32" t="s">
+        <v>801</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>802</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="22"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="F46" s="47"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="22"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A47" s="19"/>
+      <c r="B47" s="32" t="s">
+        <v>847</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="22"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="22"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A49" s="19"/>
+      <c r="B49" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>850</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="22"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="22"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="22"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="22"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A53" s="19"/>
+      <c r="B53" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="22"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="22"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A55" s="19"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="22"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A56" s="19"/>
+      <c r="B56" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="22"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="22"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B58" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>860</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>835</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="22"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B59" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C59" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E59" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="F59" s="64" t="s">
+        <v>862</v>
+      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="22"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B60" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C60" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="F60" s="64" t="s">
+        <v>864</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="22"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B61" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="22"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A62" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="22"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="46" customHeight="1" spans="1:15">
+      <c r="A63" s="31"/>
+      <c r="B63" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>870</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="22"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="19"/>
+      <c r="B64" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="22"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="22"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A66" s="19"/>
+      <c r="B66" s="30" t="s">
+        <v>874</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>875</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="22"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A67" s="19"/>
+      <c r="B67" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="22"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A68" s="19"/>
+      <c r="B68" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>877</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>878</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="22"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A69" s="19"/>
+      <c r="B69" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>879</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="22"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A70" s="19"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>880</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>819</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="22"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A71" s="19"/>
+      <c r="B71" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="22"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A72" s="19"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="F72" s="47"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="22"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A73" s="19"/>
+      <c r="B73" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>884</v>
+      </c>
+      <c r="F73" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="22"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A74" s="19"/>
+      <c r="B74" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="F74" s="47" t="s">
+        <v>886</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="22"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A75" s="19"/>
+      <c r="B75" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="22"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A76" s="19"/>
+      <c r="B76" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="F76" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="22"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A77" s="19"/>
+      <c r="B77" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>890</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>891</v>
+      </c>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="22"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="19"/>
+      <c r="B78" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="22"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A79" s="19"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="F79" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="22"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A80" s="19"/>
+      <c r="B80" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="22"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A81" s="19"/>
+      <c r="B81" s="30" t="s">
+        <v>894</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="22"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="19"/>
+      <c r="B82" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C82" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E82" s="64" t="s">
+        <v>896</v>
+      </c>
+      <c r="F82" s="65" t="s">
+        <v>835</v>
+      </c>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="22"/>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A83" s="19"/>
+      <c r="B83" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E83" s="64" t="s">
+        <v>897</v>
+      </c>
+      <c r="F83" s="64" t="s">
+        <v>898</v>
+      </c>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="22"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="19"/>
+      <c r="B84" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C84" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="64" t="s">
+        <v>899</v>
+      </c>
+      <c r="F84" s="64" t="s">
+        <v>900</v>
+      </c>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="22"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="19"/>
+      <c r="B85" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="E85" s="34"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="22"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
+      <c r="A86" s="19" t="s">
+        <v>902</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="22"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A87" s="19"/>
+      <c r="B87" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="22"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B88" s="62" t="s">
+        <v>903</v>
+      </c>
+      <c r="C88" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="E88" s="64" t="s">
+        <v>904</v>
+      </c>
+      <c r="F88" s="64" t="s">
+        <v>905</v>
+      </c>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="22"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B89" s="62" t="s">
+        <v>906</v>
+      </c>
+      <c r="C89" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="E89" s="67" t="s">
+        <v>773</v>
+      </c>
+      <c r="F89" s="68" t="s">
+        <v>774</v>
+      </c>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="22"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B90" s="62"/>
+      <c r="C90" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="67" t="s">
+        <v>465</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="F90" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="22"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B91" s="62"/>
+      <c r="C91" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="67" t="s">
+        <v>777</v>
+      </c>
+      <c r="F91" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="22"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B92" s="62" t="s">
+        <v>909</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92" s="67" t="s">
+        <v>773</v>
+      </c>
+      <c r="F92" s="68" t="s">
+        <v>780</v>
+      </c>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="22"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B93" s="62"/>
+      <c r="C93" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>614</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="F93" s="64" t="s">
+        <v>911</v>
+      </c>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="22"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B94" s="62"/>
+      <c r="C94" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>912</v>
+      </c>
+      <c r="F94" s="64"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="22"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B95" s="62" t="s">
+        <v>913</v>
+      </c>
+      <c r="C95" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E95" s="64" t="s">
+        <v>914</v>
+      </c>
+      <c r="F95" s="64" t="s">
+        <v>915</v>
+      </c>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="22"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B96" s="62" t="s">
+        <v>916</v>
+      </c>
+      <c r="C96" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>882</v>
+      </c>
+      <c r="F96" s="64" t="s">
+        <v>917</v>
+      </c>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="22"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B97" s="62" t="s">
+        <v>918</v>
+      </c>
+      <c r="C97" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E97" s="64" t="s">
+        <v>919</v>
+      </c>
+      <c r="F97" s="64"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="22"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="37" customHeight="1" spans="2:15">
+      <c r="B98" s="62" t="s">
+        <v>920</v>
+      </c>
+      <c r="C98" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>921</v>
+      </c>
+      <c r="F98" s="64"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="K98" s="22"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="22"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A99" s="19"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="22"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A100" s="19"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="22"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A101" s="19"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="22"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A102" s="19"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="61"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="22"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A103" s="19"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="22"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A104" s="19"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="22"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A105" s="19"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="23"/>
+      <c r="O105" s="22"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A106" s="19"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="61"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="22"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A107" s="19"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="22"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A108" s="19"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="23"/>
+      <c r="O108" s="22"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A109" s="19"/>
+      <c r="B109" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>923</v>
+      </c>
+      <c r="F109" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="23"/>
+      <c r="O109" s="22"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A110" s="19"/>
+      <c r="B110" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E110" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="F110" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="22"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A111" s="19"/>
+      <c r="B111" s="30" t="s">
+        <v>926</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="22"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A112" s="19"/>
+      <c r="B112" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="F112" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="22"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A113" s="19"/>
+      <c r="B113" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>929</v>
+      </c>
+      <c r="F113" s="47" t="s">
+        <v>930</v>
+      </c>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="22"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A114" s="19"/>
+      <c r="B114" s="30" t="s">
+        <v>931</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="23"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="22"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A115" s="19"/>
+      <c r="B115" s="30" t="s">
+        <v>894</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="22"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="68" customHeight="1" spans="1:15">
+      <c r="A116" s="31"/>
+      <c r="B116" s="70" t="s">
+        <v>933</v>
+      </c>
+      <c r="C116" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="23"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="23"/>
+      <c r="O116" s="22"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A117" s="19"/>
+      <c r="B117" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C117" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E117" s="64" t="s">
+        <v>935</v>
+      </c>
+      <c r="F117" s="65" t="s">
+        <v>835</v>
+      </c>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="61"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="23"/>
+      <c r="O117" s="22"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A118" s="19"/>
+      <c r="B118" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C118" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E118" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="F118" s="64" t="s">
+        <v>898</v>
+      </c>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="61"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="22"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A119" s="19"/>
+      <c r="B119" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C119" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" s="64" t="s">
+        <v>937</v>
+      </c>
+      <c r="F119" s="64" t="s">
+        <v>938</v>
+      </c>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="61"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="22"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A120" s="19"/>
+      <c r="B120" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="E120" s="27"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="61"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="23"/>
+      <c r="O120" s="22"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A121" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="F121" s="47"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="22"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A122" s="19"/>
+      <c r="B122" s="32" t="s">
+        <v>801</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E122" s="34" t="s">
+        <v>802</v>
+      </c>
+      <c r="F122" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="61"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="23"/>
+      <c r="O122" s="22"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A123" s="19"/>
+      <c r="B123" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="F123" s="47"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="23"/>
+      <c r="O123" s="22"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A124" s="19"/>
+      <c r="B124" s="32" t="s">
+        <v>847</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="F124" s="47"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="23"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="22"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A125" s="19"/>
+      <c r="B125" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E125" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="F125" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="23"/>
+      <c r="O125" s="22"/>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A126" s="19"/>
+      <c r="B126" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>850</v>
+      </c>
+      <c r="F126" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="23"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="23"/>
+      <c r="O126" s="22"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A127" s="19"/>
+      <c r="B127" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="23"/>
+      <c r="O127" s="22"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A128" s="19"/>
+      <c r="B128" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="22"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A129" s="19"/>
+      <c r="B129" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="F129" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="61"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="23"/>
+      <c r="O129" s="22"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A130" s="19"/>
+      <c r="B130" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E130" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="F130" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="61"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="21"/>
+      <c r="N130" s="23"/>
+      <c r="O130" s="22"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A131" s="19"/>
+      <c r="B131" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="61"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="23"/>
+      <c r="O131" s="22"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A132" s="19"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E132" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="F132" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="61"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="21"/>
+      <c r="N132" s="23"/>
+      <c r="O132" s="22"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A133" s="19"/>
+      <c r="B133" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="61"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="23"/>
+      <c r="O133" s="22"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A134" s="19"/>
+      <c r="B134" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="61"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="23"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="23"/>
+      <c r="O134" s="22"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="86" customHeight="1" spans="1:15">
+      <c r="A135" s="31"/>
+      <c r="B135" s="72" t="s">
+        <v>940</v>
+      </c>
+      <c r="C135" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>941</v>
+      </c>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="61"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="23"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="23"/>
+      <c r="O135" s="22"/>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B136" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C136" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E136" s="64" t="s">
+        <v>942</v>
+      </c>
+      <c r="F136" s="65" t="s">
+        <v>835</v>
+      </c>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="61"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="23"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="23"/>
+      <c r="O136" s="22"/>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B137" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C137" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E137" s="64" t="s">
+        <v>943</v>
+      </c>
+      <c r="F137" s="64" t="s">
+        <v>944</v>
+      </c>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="61"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="23"/>
+      <c r="O137" s="22"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B138" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C138" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E138" s="64" t="s">
+        <v>945</v>
+      </c>
+      <c r="F138" s="64" t="s">
+        <v>946</v>
+      </c>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="61"/>
+      <c r="K138" s="22"/>
+      <c r="L138" s="23"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="23"/>
+      <c r="O138" s="22"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B139" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="61"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="23"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="23"/>
+      <c r="O139" s="22"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A140" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="F140" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="61"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="23"/>
+      <c r="M140" s="21"/>
+      <c r="N140" s="23"/>
+      <c r="O140" s="22"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A141" s="19"/>
+      <c r="B141" s="30" t="s">
+        <v>948</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>949</v>
+      </c>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="61"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="23"/>
+      <c r="M141" s="21"/>
+      <c r="N141" s="23"/>
+      <c r="O141" s="22"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A142" s="19"/>
+      <c r="B142" s="30" t="s">
+        <v>950</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="61"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="23"/>
+      <c r="M142" s="21"/>
+      <c r="N142" s="23"/>
+      <c r="O142" s="22"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A143" s="19"/>
+      <c r="B143" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>949</v>
+      </c>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="23"/>
+      <c r="M143" s="21"/>
+      <c r="N143" s="23"/>
+      <c r="O143" s="22"/>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A144" s="19"/>
+      <c r="B144" s="30" t="s">
+        <v>953</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="61"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="23"/>
+      <c r="M144" s="21"/>
+      <c r="N144" s="23"/>
+      <c r="O144" s="22"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="71" customHeight="1" spans="1:15">
+      <c r="A145" s="31"/>
+      <c r="B145" s="30" t="s">
+        <v>955</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>956</v>
+      </c>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="61"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="23"/>
+      <c r="M145" s="21"/>
+      <c r="N145" s="23"/>
+      <c r="O145" s="22"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A146" s="19"/>
+      <c r="B146" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C146" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E146" s="64" t="s">
+        <v>957</v>
+      </c>
+      <c r="F146" s="65" t="s">
+        <v>835</v>
+      </c>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="61"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="23"/>
+      <c r="O146" s="22"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A147" s="19"/>
+      <c r="B147" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C147" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E147" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="F147" s="64" t="s">
+        <v>959</v>
+      </c>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="61"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="23"/>
+      <c r="M147" s="21"/>
+      <c r="N147" s="23"/>
+      <c r="O147" s="22"/>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A148" s="19"/>
+      <c r="B148" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C148" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E148" s="64" t="s">
+        <v>960</v>
+      </c>
+      <c r="F148" s="64" t="s">
+        <v>961</v>
+      </c>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="61"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="23"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="23"/>
+      <c r="O148" s="22"/>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A149" s="19"/>
+      <c r="B149" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="61"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="23"/>
+      <c r="M149" s="21"/>
+      <c r="N149" s="23"/>
+      <c r="O149" s="22"/>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A150" s="19"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="61"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="23"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="23"/>
+      <c r="O150" s="22"/>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A151" s="19"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="61"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="23"/>
+      <c r="M151" s="21"/>
+      <c r="N151" s="23"/>
+      <c r="O151" s="22"/>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A152" s="19"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="61"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="23"/>
+      <c r="M152" s="21"/>
+      <c r="N152" s="23"/>
+      <c r="O152" s="22"/>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A153" s="19"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="61"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="23"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="23"/>
+      <c r="O153" s="22"/>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="61"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="23"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="23"/>
+      <c r="O154" s="22"/>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="61"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="23"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="23"/>
+      <c r="O155" s="22"/>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="61"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="23"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="23"/>
+      <c r="O156" s="22"/>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="61"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="23"/>
+      <c r="M157" s="21"/>
+      <c r="N157" s="23"/>
+      <c r="O157" s="22"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="61"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="23"/>
+      <c r="O158" s="22"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="61"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="23"/>
+      <c r="M159" s="21"/>
+      <c r="N159" s="23"/>
+      <c r="O159" s="22"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="61"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="23"/>
+      <c r="M160" s="21"/>
+      <c r="N160" s="23"/>
+      <c r="O160" s="22"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="61"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="23"/>
+      <c r="M161" s="21"/>
+      <c r="N161" s="23"/>
+      <c r="O161" s="22"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="61"/>
+      <c r="K162" s="22"/>
+      <c r="L162" s="23"/>
+      <c r="M162" s="21"/>
+      <c r="N162" s="23"/>
+      <c r="O162" s="22"/>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="61"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="23"/>
+      <c r="M163" s="21"/>
+      <c r="N163" s="23"/>
+      <c r="O163" s="22"/>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="61"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="23"/>
+      <c r="M164" s="21"/>
+      <c r="N164" s="23"/>
+      <c r="O164" s="22"/>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="61"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="23"/>
+      <c r="M165" s="21"/>
+      <c r="N165" s="23"/>
+      <c r="O165" s="22"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="61"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="23"/>
+      <c r="M166" s="21"/>
+      <c r="N166" s="23"/>
+      <c r="O166" s="22"/>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="23"/>
+      <c r="M167" s="21"/>
+      <c r="N167" s="23"/>
+      <c r="O167" s="22"/>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="61"/>
+      <c r="K168" s="22"/>
+      <c r="L168" s="23"/>
+      <c r="M168" s="21"/>
+      <c r="N168" s="23"/>
+      <c r="O168" s="22"/>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="61"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="23"/>
+      <c r="M169" s="21"/>
+      <c r="N169" s="23"/>
+      <c r="O169" s="22"/>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="61"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="23"/>
+      <c r="M170" s="21"/>
+      <c r="N170" s="23"/>
+      <c r="O170" s="22"/>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="61"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="23"/>
+      <c r="M171" s="21"/>
+      <c r="N171" s="23"/>
+      <c r="O171" s="22"/>
+    </row>
+    <row r="172" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="61"/>
+      <c r="K172" s="22"/>
+      <c r="L172" s="23"/>
+      <c r="M172" s="21"/>
+      <c r="N172" s="23"/>
+      <c r="O172" s="22"/>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="61"/>
+      <c r="K173" s="22"/>
+      <c r="L173" s="23"/>
+      <c r="M173" s="21"/>
+      <c r="N173" s="23"/>
+      <c r="O173" s="22"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="61"/>
+      <c r="K174" s="22"/>
+      <c r="L174" s="23"/>
+      <c r="M174" s="21"/>
+      <c r="N174" s="23"/>
+      <c r="O174" s="22"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="22"/>
+      <c r="L175" s="23"/>
+      <c r="M175" s="21"/>
+      <c r="N175" s="23"/>
+      <c r="O175" s="22"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="61"/>
+      <c r="K176" s="22"/>
+      <c r="L176" s="23"/>
+      <c r="M176" s="21"/>
+      <c r="N176" s="23"/>
+      <c r="O176" s="22"/>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="61"/>
+      <c r="K177" s="22"/>
+      <c r="L177" s="23"/>
+      <c r="M177" s="21"/>
+      <c r="N177" s="23"/>
+      <c r="O177" s="22"/>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="61"/>
+      <c r="K178" s="22"/>
+      <c r="L178" s="23"/>
+      <c r="M178" s="21"/>
+      <c r="N178" s="23"/>
+      <c r="O178" s="22"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="61"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="23"/>
+      <c r="M179" s="21"/>
+      <c r="N179" s="23"/>
+      <c r="O179" s="22"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="61"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="23"/>
+      <c r="O180" s="22"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="61"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="23"/>
+      <c r="O181" s="22"/>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="61"/>
+      <c r="K182" s="22"/>
+      <c r="L182" s="23"/>
+      <c r="M182" s="21"/>
+      <c r="N182" s="23"/>
+      <c r="O182" s="22"/>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="61"/>
+      <c r="K183" s="22"/>
+      <c r="L183" s="23"/>
+      <c r="M183" s="21"/>
+      <c r="N183" s="23"/>
+      <c r="O183" s="22"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="61"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="23"/>
+      <c r="M184" s="21"/>
+      <c r="N184" s="23"/>
+      <c r="O184" s="22"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="61"/>
+      <c r="K185" s="22"/>
+      <c r="L185" s="23"/>
+      <c r="M185" s="21"/>
+      <c r="N185" s="23"/>
+      <c r="O185" s="22"/>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="61"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="23"/>
+      <c r="M186" s="21"/>
+      <c r="N186" s="23"/>
+      <c r="O186" s="22"/>
+    </row>
+    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="61"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="23"/>
+      <c r="M187" s="21"/>
+      <c r="N187" s="23"/>
+      <c r="O187" s="22"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="61"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="23"/>
+      <c r="M188" s="21"/>
+      <c r="N188" s="23"/>
+      <c r="O188" s="22"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="61"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="23"/>
+      <c r="M189" s="21"/>
+      <c r="N189" s="23"/>
+      <c r="O189" s="22"/>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="61"/>
+      <c r="K190" s="22"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="21"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="22"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="61"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="23"/>
+      <c r="M191" s="21"/>
+      <c r="N191" s="23"/>
+      <c r="O191" s="22"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="61"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="23"/>
+      <c r="M192" s="21"/>
+      <c r="N192" s="23"/>
+      <c r="O192" s="22"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="61"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="23"/>
+      <c r="O193" s="22"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="61"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="21"/>
+      <c r="N194" s="23"/>
+      <c r="O194" s="22"/>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="61"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="22"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="61"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="21"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="22"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="61"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="21"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="22"/>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="61"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="23"/>
+      <c r="M198" s="21"/>
+      <c r="N198" s="23"/>
+      <c r="O198" s="22"/>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="61"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="23"/>
+      <c r="M199" s="21"/>
+      <c r="N199" s="23"/>
+      <c r="O199" s="22"/>
+    </row>
+    <row r="200" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="61"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="23"/>
+      <c r="M200" s="21"/>
+      <c r="N200" s="23"/>
+      <c r="O200" s="22"/>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="61"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="23"/>
+      <c r="M201" s="21"/>
+      <c r="N201" s="23"/>
+      <c r="O201" s="22"/>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="61"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="23"/>
+      <c r="M202" s="21"/>
+      <c r="N202" s="23"/>
+      <c r="O202" s="22"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A203" s="19"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="61"/>
+      <c r="K203" s="22"/>
+      <c r="L203" s="23"/>
+      <c r="M203" s="21"/>
+      <c r="N203" s="23"/>
+      <c r="O203" s="22"/>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="61"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="23"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="23"/>
+      <c r="O204" s="22"/>
+    </row>
+    <row r="205" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="61"/>
+      <c r="K205" s="22"/>
+      <c r="L205" s="23"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="23"/>
+      <c r="O205" s="22"/>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="61"/>
+      <c r="K206" s="22"/>
+      <c r="L206" s="23"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="23"/>
+      <c r="O206" s="22"/>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="61"/>
+      <c r="K207" s="22"/>
+      <c r="L207" s="23"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="23"/>
+      <c r="O207" s="22"/>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="61"/>
+      <c r="K208" s="22"/>
+      <c r="L208" s="23"/>
+      <c r="M208" s="21"/>
+      <c r="N208" s="23"/>
+      <c r="O208" s="22"/>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="61"/>
+      <c r="K209" s="22"/>
+      <c r="L209" s="23"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="23"/>
+      <c r="O209" s="22"/>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A210" s="19"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="61"/>
+      <c r="K210" s="22"/>
+      <c r="L210" s="23"/>
+      <c r="M210" s="21"/>
+      <c r="N210" s="23"/>
+      <c r="O210" s="22"/>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A211" s="19"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="61"/>
+      <c r="K211" s="22"/>
+      <c r="L211" s="23"/>
+      <c r="M211" s="21"/>
+      <c r="N211" s="23"/>
+      <c r="O211" s="22"/>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="27"/>
+      <c r="J212" s="61"/>
+      <c r="K212" s="22"/>
+      <c r="L212" s="23"/>
+      <c r="M212" s="21"/>
+      <c r="N212" s="23"/>
+      <c r="O212" s="22"/>
+    </row>
+    <row r="213" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="61"/>
+      <c r="K213" s="22"/>
+      <c r="L213" s="23"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="23"/>
+      <c r="O213" s="22"/>
+    </row>
+    <row r="214" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="61"/>
+      <c r="K214" s="22"/>
+      <c r="L214" s="23"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="23"/>
+      <c r="O214" s="22"/>
+    </row>
+    <row r="215" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A215" s="19"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="61"/>
+      <c r="K215" s="22"/>
+      <c r="L215" s="23"/>
+      <c r="M215" s="21"/>
+      <c r="N215" s="23"/>
+      <c r="O215" s="22"/>
+    </row>
+    <row r="216" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A216" s="19"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27"/>
+      <c r="I216" s="27"/>
+      <c r="J216" s="61"/>
+      <c r="K216" s="22"/>
+      <c r="L216" s="23"/>
+      <c r="M216" s="21"/>
+      <c r="N216" s="23"/>
+      <c r="O216" s="22"/>
+    </row>
+    <row r="217" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A217" s="19"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
+      <c r="J217" s="61"/>
+      <c r="K217" s="22"/>
+      <c r="L217" s="23"/>
+      <c r="M217" s="21"/>
+      <c r="N217" s="23"/>
+      <c r="O217" s="22"/>
+    </row>
+    <row r="218" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A218" s="19"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="27"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
+      <c r="J218" s="61"/>
+      <c r="K218" s="22"/>
+      <c r="L218" s="23"/>
+      <c r="M218" s="21"/>
+      <c r="N218" s="23"/>
+      <c r="O218" s="22"/>
+    </row>
+    <row r="219" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A219" s="19"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
+      <c r="F219" s="27"/>
+      <c r="G219" s="27"/>
+      <c r="H219" s="27"/>
+      <c r="I219" s="27"/>
+      <c r="J219" s="61"/>
+      <c r="K219" s="22"/>
+      <c r="L219" s="23"/>
+      <c r="M219" s="21"/>
+      <c r="N219" s="23"/>
+      <c r="O219" s="22"/>
+    </row>
+    <row r="220" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A220" s="19"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="26"/>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="27"/>
+      <c r="G220" s="27"/>
+      <c r="H220" s="27"/>
+      <c r="I220" s="27"/>
+      <c r="J220" s="61"/>
+      <c r="K220" s="22"/>
+      <c r="L220" s="23"/>
+      <c r="M220" s="21"/>
+      <c r="N220" s="23"/>
+      <c r="O220" s="22"/>
+    </row>
+    <row r="221" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A221" s="19"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="27"/>
+      <c r="E221" s="27"/>
+      <c r="F221" s="27"/>
+      <c r="G221" s="27"/>
+      <c r="H221" s="27"/>
+      <c r="I221" s="27"/>
+      <c r="J221" s="61"/>
+      <c r="K221" s="22"/>
+      <c r="L221" s="23"/>
+      <c r="M221" s="21"/>
+      <c r="N221" s="23"/>
+      <c r="O221" s="22"/>
+    </row>
+    <row r="222" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A222" s="19"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="27"/>
+      <c r="E222" s="27"/>
+      <c r="F222" s="27"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="27"/>
+      <c r="I222" s="27"/>
+      <c r="J222" s="61"/>
+      <c r="K222" s="22"/>
+      <c r="L222" s="23"/>
+      <c r="M222" s="21"/>
+      <c r="N222" s="23"/>
+      <c r="O222" s="22"/>
+    </row>
+    <row r="223" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A223" s="19"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="27"/>
+      <c r="G223" s="27"/>
+      <c r="H223" s="27"/>
+      <c r="I223" s="27"/>
+      <c r="J223" s="61"/>
+      <c r="K223" s="22"/>
+      <c r="L223" s="23"/>
+      <c r="M223" s="21"/>
+      <c r="N223" s="23"/>
+      <c r="O223" s="22"/>
+    </row>
+    <row r="224" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A224" s="19"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="26"/>
+      <c r="D224" s="27"/>
+      <c r="E224" s="27"/>
+      <c r="F224" s="27"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="27"/>
+      <c r="I224" s="27"/>
+      <c r="J224" s="61"/>
+      <c r="K224" s="22"/>
+      <c r="L224" s="23"/>
+      <c r="M224" s="21"/>
+      <c r="N224" s="23"/>
+      <c r="O224" s="22"/>
+    </row>
+    <row r="225" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A225" s="19"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
+      <c r="F225" s="27"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="27"/>
+      <c r="J225" s="61"/>
+      <c r="K225" s="22"/>
+      <c r="L225" s="23"/>
+      <c r="M225" s="21"/>
+      <c r="N225" s="23"/>
+      <c r="O225" s="22"/>
+    </row>
+    <row r="226" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A226" s="19"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
+      <c r="G226" s="27"/>
+      <c r="H226" s="27"/>
+      <c r="I226" s="27"/>
+      <c r="J226" s="61"/>
+      <c r="K226" s="22"/>
+      <c r="L226" s="23"/>
+      <c r="M226" s="21"/>
+      <c r="N226" s="23"/>
+      <c r="O226" s="22"/>
+    </row>
+    <row r="227" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A227" s="19"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="27"/>
+      <c r="E227" s="27"/>
+      <c r="F227" s="27"/>
+      <c r="G227" s="27"/>
+      <c r="H227" s="27"/>
+      <c r="I227" s="27"/>
+      <c r="J227" s="61"/>
+      <c r="K227" s="22"/>
+      <c r="L227" s="23"/>
+      <c r="M227" s="21"/>
+      <c r="N227" s="23"/>
+      <c r="O227" s="22"/>
+    </row>
+    <row r="228" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A228" s="19"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="27"/>
+      <c r="G228" s="27"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="27"/>
+      <c r="J228" s="61"/>
+      <c r="K228" s="22"/>
+      <c r="L228" s="23"/>
+      <c r="M228" s="21"/>
+      <c r="N228" s="23"/>
+      <c r="O228" s="22"/>
+    </row>
+    <row r="229" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A229" s="19"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="27"/>
+      <c r="G229" s="27"/>
+      <c r="H229" s="27"/>
+      <c r="I229" s="27"/>
+      <c r="J229" s="61"/>
+      <c r="K229" s="22"/>
+      <c r="L229" s="23"/>
+      <c r="M229" s="21"/>
+      <c r="N229" s="23"/>
+      <c r="O229" s="22"/>
+    </row>
+    <row r="230" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A230" s="19"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
+      <c r="F230" s="27"/>
+      <c r="G230" s="27"/>
+      <c r="H230" s="27"/>
+      <c r="I230" s="27"/>
+      <c r="J230" s="61"/>
+      <c r="K230" s="22"/>
+      <c r="L230" s="23"/>
+      <c r="M230" s="21"/>
+      <c r="N230" s="23"/>
+      <c r="O230" s="22"/>
+    </row>
+    <row r="231" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A231" s="19"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="27"/>
+      <c r="J231" s="61"/>
+      <c r="K231" s="22"/>
+      <c r="L231" s="23"/>
+      <c r="M231" s="21"/>
+      <c r="N231" s="23"/>
+      <c r="O231" s="22"/>
+    </row>
+    <row r="232" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A232" s="19"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="27"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="27"/>
+      <c r="J232" s="61"/>
+      <c r="K232" s="22"/>
+      <c r="L232" s="23"/>
+      <c r="M232" s="21"/>
+      <c r="N232" s="23"/>
+      <c r="O232" s="22"/>
+    </row>
+    <row r="233" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A233" s="19"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="27"/>
+      <c r="G233" s="27"/>
+      <c r="H233" s="27"/>
+      <c r="I233" s="27"/>
+      <c r="J233" s="61"/>
+      <c r="K233" s="22"/>
+      <c r="L233" s="23"/>
+      <c r="M233" s="21"/>
+      <c r="N233" s="23"/>
+      <c r="O233" s="22"/>
+    </row>
+    <row r="234" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A234" s="19"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="27"/>
+      <c r="E234" s="27"/>
+      <c r="F234" s="27"/>
+      <c r="G234" s="27"/>
+      <c r="H234" s="27"/>
+      <c r="I234" s="27"/>
+      <c r="J234" s="61"/>
+      <c r="K234" s="22"/>
+      <c r="L234" s="23"/>
+      <c r="M234" s="21"/>
+      <c r="N234" s="23"/>
+      <c r="O234" s="22"/>
+    </row>
+    <row r="235" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A235" s="19"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="27"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="27"/>
+      <c r="G235" s="27"/>
+      <c r="H235" s="27"/>
+      <c r="I235" s="27"/>
+      <c r="J235" s="61"/>
+      <c r="K235" s="22"/>
+      <c r="L235" s="23"/>
+      <c r="M235" s="21"/>
+      <c r="N235" s="23"/>
+      <c r="O235" s="22"/>
+    </row>
+    <row r="236" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A236" s="19"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="27"/>
+      <c r="J236" s="61"/>
+      <c r="K236" s="22"/>
+      <c r="L236" s="23"/>
+      <c r="M236" s="21"/>
+      <c r="N236" s="23"/>
+      <c r="O236" s="22"/>
+    </row>
+    <row r="237" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A237" s="19"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
+      <c r="F237" s="27"/>
+      <c r="G237" s="27"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="27"/>
+      <c r="J237" s="61"/>
+      <c r="K237" s="22"/>
+      <c r="L237" s="23"/>
+      <c r="M237" s="21"/>
+      <c r="N237" s="23"/>
+      <c r="O237" s="22"/>
+    </row>
+    <row r="238" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A238" s="19"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27"/>
+      <c r="F238" s="27"/>
+      <c r="G238" s="27"/>
+      <c r="H238" s="27"/>
+      <c r="I238" s="27"/>
+      <c r="J238" s="61"/>
+      <c r="K238" s="22"/>
+      <c r="L238" s="23"/>
+      <c r="M238" s="21"/>
+      <c r="N238" s="23"/>
+      <c r="O238" s="22"/>
+    </row>
+    <row r="239" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A239" s="19"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="27"/>
+      <c r="E239" s="27"/>
+      <c r="F239" s="27"/>
+      <c r="G239" s="27"/>
+      <c r="H239" s="27"/>
+      <c r="I239" s="27"/>
+      <c r="J239" s="61"/>
+      <c r="K239" s="22"/>
+      <c r="L239" s="23"/>
+      <c r="M239" s="21"/>
+      <c r="N239" s="23"/>
+      <c r="O239" s="22"/>
+    </row>
+    <row r="240" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A240" s="19"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
+      <c r="F240" s="27"/>
+      <c r="G240" s="27"/>
+      <c r="H240" s="27"/>
+      <c r="I240" s="27"/>
+      <c r="J240" s="61"/>
+      <c r="K240" s="22"/>
+      <c r="L240" s="23"/>
+      <c r="M240" s="21"/>
+      <c r="N240" s="23"/>
+      <c r="O240" s="22"/>
+    </row>
+    <row r="241" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A241" s="19"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="27"/>
+      <c r="E241" s="27"/>
+      <c r="F241" s="27"/>
+      <c r="G241" s="27"/>
+      <c r="H241" s="27"/>
+      <c r="I241" s="27"/>
+      <c r="J241" s="61"/>
+      <c r="K241" s="22"/>
+      <c r="L241" s="23"/>
+      <c r="M241" s="21"/>
+      <c r="N241" s="23"/>
+      <c r="O241" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N154:N241">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N154,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N154,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N154,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N153">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C15 C16 C17 C18 C21 C22 C23 C24 C25 C26 C27 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C98 C99 C109 C110 C111 C112 C113 C114 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C143 C144 C145 C146 C147 C148 C149 C13:C14 C19:C20 C28:C29 C96:C97 C100:C108 C115:C116 C141:C142 C150:C153 C154:C241">
+      <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D16 D17 D18 D21 D22 D23 D24 D25 D26 D27 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D98 D99 D109 D110 D111 D112 D113 D114 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D143 D144 D145 D146 D147 D148 D149 D13:D14 D19:D20 D28:D29 D96:D97 D100:D108 D115:D116 D141:D142 D150:D153 D154:D241">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O201"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="5" max="5" width="81.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="75.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="38.3333333333333" style="8" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="19" style="10" customWidth="1"/>
+    <col min="15" max="15" width="49.8333333333333" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="10.8333333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="J1" s="50"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="51"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A2" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A4" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>742</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A5" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1500</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="58"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="58"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>758</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="68" customHeight="1" spans="1:15">
+      <c r="A8" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="22"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="22"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>785</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>789</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="31"/>
+      <c r="B20" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>789</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A21" s="31"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>656</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>791</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>792</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="32" t="s">
+        <v>796</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>797</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="32" t="s">
+        <v>798</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>799</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="32" t="s">
+        <v>801</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>802</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A28" s="19"/>
+      <c r="B28" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="22"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="22"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="22"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A33" s="19"/>
+      <c r="B33" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="22"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
@@ -11186,7 +16888,7 @@
         <v>363</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -11202,7 +16904,7 @@
     <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
       <c r="B39" s="32" t="s">
-        <v>830</v>
+        <v>940</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>30</v>
@@ -11211,7 +16913,7 @@
         <v>253</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>831</v>
+        <v>963</v>
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="27"/>
@@ -11226,10 +16928,10 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A40" s="19" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>5</v>
@@ -11238,10 +16940,10 @@
         <v>471</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -11255,7 +16957,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B41" s="32" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>30</v>
@@ -11264,10 +16966,10 @@
         <v>707</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -11282,7 +16984,7 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="32" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>30</v>
@@ -11291,7 +16993,7 @@
         <v>363</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="27"/>
@@ -11307,7 +17009,7 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="32" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>30</v>
@@ -11316,7 +17018,7 @@
         <v>363</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="F43" s="47"/>
       <c r="G43" s="27"/>
@@ -11332,7 +17034,7 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>30</v>
@@ -11341,10 +17043,10 @@
         <v>483</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -11359,7 +17061,7 @@
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="30" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>5</v>
@@ -11368,10 +17070,10 @@
         <v>471</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
@@ -11386,7 +17088,7 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>30</v>
@@ -11395,10 +17097,10 @@
         <v>707</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
@@ -11413,7 +17115,7 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>30</v>
@@ -11422,10 +17124,10 @@
         <v>707</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -11440,7 +17142,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>30</v>
@@ -11449,10 +17151,10 @@
         <v>483</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
@@ -11467,7 +17169,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>5</v>
@@ -11476,10 +17178,10 @@
         <v>471</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
@@ -11494,7 +17196,7 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="30" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>30</v>
@@ -11503,10 +17205,10 @@
         <v>707</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -11528,10 +17230,10 @@
         <v>656</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -11546,7 +17248,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>30</v>
@@ -11555,10 +17257,10 @@
         <v>707</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
@@ -11573,7 +17275,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="30" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>30</v>
@@ -11582,7 +17284,7 @@
         <v>363</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -11598,7 +17300,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="32" t="s">
-        <v>830</v>
+        <v>940</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>30</v>
@@ -11607,7 +17309,7 @@
         <v>253</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>849</v>
+        <v>964</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
@@ -11622,7 +17324,7 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B55" s="30" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
@@ -11644,10 +17346,10 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
@@ -11656,10 +17358,10 @@
         <v>707</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -11673,10 +17375,10 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="46" customHeight="1" spans="1:15">
       <c r="A57" s="31" t="s">
-        <v>853</v>
+        <v>965</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>30</v>
@@ -11685,10 +17387,10 @@
         <v>576</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -11703,7 +17405,7 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="30" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>30</v>
@@ -11712,10 +17414,10 @@
         <v>483</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -11730,7 +17432,7 @@
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="30" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>5</v>
@@ -11739,10 +17441,10 @@
         <v>471</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
@@ -11757,7 +17459,7 @@
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="30" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>30</v>
@@ -11766,7 +17468,7 @@
         <v>363</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="F60" s="47"/>
       <c r="G60" s="27"/>
@@ -11782,7 +17484,7 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="30" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>30</v>
@@ -11791,10 +17493,10 @@
         <v>483</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -11809,7 +17511,7 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="30" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>5</v>
@@ -11818,10 +17520,10 @@
         <v>471</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -11836,7 +17538,7 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="30" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>30</v>
@@ -11845,10 +17547,10 @@
         <v>707</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -11863,7 +17565,7 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="30" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>30</v>
@@ -11872,10 +17574,10 @@
         <v>707</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -11890,7 +17592,7 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="30" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>30</v>
@@ -11899,10 +17601,10 @@
         <v>483</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
@@ -11917,7 +17619,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="30" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>5</v>
@@ -11926,10 +17628,10 @@
         <v>471</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
@@ -11944,7 +17646,7 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="30" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>30</v>
@@ -11953,7 +17655,7 @@
         <v>363</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -11969,7 +17671,7 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="30" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>30</v>
@@ -11978,10 +17680,10 @@
         <v>483</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
@@ -11996,7 +17698,7 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="30" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>5</v>
@@ -12005,10 +17707,10 @@
         <v>471</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>874</v>
+        <v>891</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
@@ -12023,7 +17725,7 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
       <c r="B70" s="30" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>30</v>
@@ -12032,10 +17734,10 @@
         <v>707</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -12057,10 +17759,10 @@
         <v>656</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -12075,7 +17777,7 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="30" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>30</v>
@@ -12084,10 +17786,10 @@
         <v>707</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
@@ -12102,7 +17804,7 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="30" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>30</v>
@@ -12111,7 +17813,7 @@
         <v>363</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -12127,7 +17829,7 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
       <c r="B74" s="30" t="s">
-        <v>879</v>
+        <v>933</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>30</v>
@@ -12136,7 +17838,7 @@
         <v>253</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>880</v>
+        <v>934</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
@@ -12152,7 +17854,7 @@
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
       <c r="B75" s="32" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>30</v>
@@ -12174,10 +17876,10 @@
     </row>
     <row r="76" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
       <c r="A76" s="19" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>30</v>
@@ -12186,10 +17888,10 @@
         <v>707</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
@@ -12204,7 +17906,7 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="30" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>30</v>
@@ -12213,7 +17915,7 @@
         <v>363</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
@@ -12229,7 +17931,7 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
       <c r="B78" s="30" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>30</v>
@@ -12238,10 +17940,10 @@
         <v>483</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
@@ -12256,7 +17958,7 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
       <c r="B79" s="30" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>5</v>
@@ -12265,10 +17967,10 @@
         <v>471</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
@@ -12283,7 +17985,7 @@
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
       <c r="B80" s="30" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>30</v>
@@ -12292,7 +17994,7 @@
         <v>363</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
@@ -12308,7 +18010,7 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
       <c r="B81" s="30" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>30</v>
@@ -12317,10 +18019,10 @@
         <v>483</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
@@ -12335,7 +18037,7 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="19"/>
       <c r="B82" s="30" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>5</v>
@@ -12344,10 +18046,10 @@
         <v>471</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
       <c r="F82" s="47" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
@@ -12362,7 +18064,7 @@
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
       <c r="B83" s="30" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>30</v>
@@ -12371,7 +18073,7 @@
         <v>363</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>892</v>
+        <v>932</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
@@ -12387,7 +18089,7 @@
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="19"/>
       <c r="B84" s="30" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>30</v>
@@ -12396,7 +18098,7 @@
         <v>363</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -12409,12 +18111,12 @@
       <c r="N84" s="23"/>
       <c r="O84" s="22"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="92" customHeight="1" spans="1:15">
+    <row r="85" s="1" customFormat="1" ht="68" customHeight="1" spans="1:15">
       <c r="A85" s="31" t="s">
-        <v>893</v>
+        <v>966</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>879</v>
+        <v>933</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>30</v>
@@ -12423,7 +18125,7 @@
         <v>253</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>880</v>
+        <v>934</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
@@ -12439,7 +18141,7 @@
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="19"/>
       <c r="B86" s="32" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>30</v>
@@ -12461,10 +18163,10 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A87" s="19" t="s">
-        <v>894</v>
+        <v>939</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>30</v>
@@ -12473,7 +18175,7 @@
         <v>363</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
       <c r="F87" s="47"/>
       <c r="G87" s="27"/>
@@ -12489,7 +18191,7 @@
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
       <c r="B88" s="32" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>30</v>
@@ -12498,10 +18200,10 @@
         <v>707</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
@@ -12516,7 +18218,7 @@
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
       <c r="B89" s="32" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>30</v>
@@ -12525,7 +18227,7 @@
         <v>363</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="27"/>
@@ -12541,7 +18243,7 @@
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
       <c r="B90" s="32" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>30</v>
@@ -12550,7 +18252,7 @@
         <v>363</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="F90" s="47"/>
       <c r="G90" s="27"/>
@@ -12566,7 +18268,7 @@
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
       <c r="B91" s="30" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>30</v>
@@ -12575,10 +18277,10 @@
         <v>483</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
@@ -12593,7 +18295,7 @@
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
       <c r="B92" s="30" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>5</v>
@@ -12602,10 +18304,10 @@
         <v>471</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
@@ -12620,7 +18322,7 @@
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="30" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>30</v>
@@ -12629,10 +18331,10 @@
         <v>707</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
@@ -12647,7 +18349,7 @@
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
       <c r="B94" s="30" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>30</v>
@@ -12656,10 +18358,10 @@
         <v>707</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="F94" s="27" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
@@ -12674,7 +18376,7 @@
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
       <c r="B95" s="30" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>30</v>
@@ -12683,10 +18385,10 @@
         <v>483</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
@@ -12701,7 +18403,7 @@
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
       <c r="B96" s="30" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>5</v>
@@ -12710,10 +18412,10 @@
         <v>471</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
@@ -12728,7 +18430,7 @@
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
       <c r="B97" s="30" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>30</v>
@@ -12737,10 +18439,10 @@
         <v>707</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
@@ -12762,10 +18464,10 @@
         <v>656</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F98" s="49" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
@@ -12780,7 +18482,7 @@
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
       <c r="B99" s="30" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>30</v>
@@ -12789,10 +18491,10 @@
         <v>707</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
@@ -12807,7 +18509,7 @@
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="19"/>
       <c r="B100" s="30" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>30</v>
@@ -12816,7 +18518,7 @@
         <v>363</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
@@ -12831,10 +18533,10 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="86" customHeight="1" spans="1:15">
       <c r="A101" s="31" t="s">
-        <v>893</v>
+        <v>966</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>830</v>
+        <v>940</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>30</v>
@@ -12843,7 +18545,7 @@
         <v>253</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>895</v>
+        <v>941</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="27"/>
@@ -12858,7 +18560,7 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B102" s="30" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>30</v>
@@ -12880,10 +18582,10 @@
     </row>
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="19" t="s">
-        <v>896</v>
+        <v>947</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>30</v>
@@ -12892,10 +18594,10 @@
         <v>707</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
@@ -12910,7 +18612,7 @@
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
       <c r="B104" s="30" t="s">
-        <v>897</v>
+        <v>948</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>30</v>
@@ -12919,7 +18621,7 @@
         <v>600</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>898</v>
+        <v>949</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
@@ -12935,7 +18637,7 @@
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
       <c r="B105" s="30" t="s">
-        <v>899</v>
+        <v>950</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>30</v>
@@ -12944,7 +18646,7 @@
         <v>253</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>900</v>
+        <v>951</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -12960,7 +18662,7 @@
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="19"/>
       <c r="B106" s="30" t="s">
-        <v>901</v>
+        <v>952</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>30</v>
@@ -12969,7 +18671,7 @@
         <v>363</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>898</v>
+        <v>949</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -12985,7 +18687,7 @@
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="19"/>
       <c r="B107" s="30" t="s">
-        <v>902</v>
+        <v>953</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>30</v>
@@ -12994,7 +18696,7 @@
         <v>363</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>903</v>
+        <v>954</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -13009,10 +18711,10 @@
     </row>
     <row r="108" s="1" customFormat="1" ht="71" customHeight="1" spans="1:15">
       <c r="A108" s="31" t="s">
-        <v>893</v>
+        <v>966</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>904</v>
+        <v>955</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>30</v>
@@ -13021,7 +18723,7 @@
         <v>253</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>905</v>
+        <v>956</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -13037,7 +18739,7 @@
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A109" s="19"/>
       <c r="B109" s="30" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>30</v>
@@ -14629,25 +20331,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N114:N201">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N114,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N114,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N114,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N114,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N114,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N113">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="967">
   <si>
     <t>target</t>
   </si>
@@ -2784,15 +2784,15 @@
     <t>${specification.title.values.xpath}</t>
   </si>
   <si>
+    <t>${rowcountvalue}</t>
+  </si>
+  <si>
     <t>Store the counter value as 0</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>${rowcountvalue}</t>
-  </si>
-  <si>
     <t>Increase the Counter value as 1</t>
   </si>
   <si>
@@ -2811,7 +2811,7 @@
     <t>spectitlevalue</t>
   </si>
   <si>
-    <t>(${specification.title.values.xpath})[${counter}]</t>
+    <t>(${specification.title.values.xpath})[1]</t>
   </si>
   <si>
     <t>Compare Expected and Actual values</t>
@@ -3757,7 +3757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4002,6 +4002,10 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7240,7 +7244,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -7255,7 +7259,7 @@
       <c r="E5" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="77" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
@@ -7269,13 +7273,13 @@
       <c r="O5" s="58"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="80"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="57"/>
@@ -7286,9 +7290,9 @@
       <c r="O6" s="58"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -7303,12 +7307,12 @@
       <c r="O7" s="58"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -7440,7 +7444,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="85"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -10435,10 +10439,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O241"/>
+  <dimension ref="A1:O237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -12779,21 +12783,17 @@
       <c r="O88" s="22"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B89" s="62" t="s">
-        <v>906</v>
-      </c>
+      <c r="B89" s="62"/>
       <c r="C89" s="66" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="67" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="E89" s="67" t="s">
-        <v>773</v>
-      </c>
-      <c r="F89" s="68" t="s">
-        <v>774</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="F89" s="68"/>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
@@ -12805,18 +12805,20 @@
       <c r="O89" s="22"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B90" s="62"/>
+      <c r="B90" s="62" t="s">
+        <v>907</v>
+      </c>
       <c r="C90" s="66" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="67" t="s">
-        <v>465</v>
-      </c>
-      <c r="E90" s="64" t="s">
-        <v>907</v>
-      </c>
-      <c r="F90" s="64" t="s">
-        <v>776</v>
+        <v>471</v>
+      </c>
+      <c r="E90" s="67" t="s">
+        <v>773</v>
+      </c>
+      <c r="F90" s="68" t="s">
+        <v>774</v>
       </c>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
@@ -12833,14 +12835,14 @@
       <c r="C91" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="67" t="s">
-        <v>777</v>
+      <c r="D91" s="67" t="s">
+        <v>465</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>908</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>908</v>
+        <v>776</v>
       </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
@@ -12853,20 +12855,18 @@
       <c r="O91" s="22"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B92" s="62" t="s">
-        <v>909</v>
-      </c>
+      <c r="B92" s="62"/>
       <c r="C92" s="66" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D92" s="69" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="E92" s="67" t="s">
-        <v>773</v>
-      </c>
-      <c r="F92" s="68" t="s">
-        <v>780</v>
+        <v>777</v>
+      </c>
+      <c r="F92" s="64" t="s">
+        <v>775</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
@@ -12879,18 +12879,20 @@
       <c r="O92" s="22"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B93" s="62"/>
-      <c r="C93" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="64" t="s">
-        <v>614</v>
-      </c>
-      <c r="E93" s="64" t="s">
-        <v>910</v>
-      </c>
-      <c r="F93" s="64" t="s">
-        <v>911</v>
+      <c r="B93" s="62" t="s">
+        <v>909</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="E93" s="67" t="s">
+        <v>773</v>
+      </c>
+      <c r="F93" s="68" t="s">
+        <v>780</v>
       </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
@@ -12904,16 +12906,18 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B94" s="62"/>
-      <c r="C94" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="64" t="s">
-        <v>536</v>
-      </c>
-      <c r="E94" s="64" t="s">
-        <v>912</v>
-      </c>
-      <c r="F94" s="64"/>
+      <c r="C94" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>911</v>
+      </c>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
@@ -12925,21 +12929,17 @@
       <c r="O94" s="22"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B95" s="62" t="s">
-        <v>913</v>
-      </c>
-      <c r="C95" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="E95" s="64" t="s">
-        <v>914</v>
-      </c>
-      <c r="F95" s="64" t="s">
-        <v>915</v>
-      </c>
+      <c r="B95" s="62"/>
+      <c r="C95" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="F95" s="41"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
@@ -12952,19 +12952,19 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B96" s="62" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C96" s="63" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D96" s="64" t="s">
-        <v>49</v>
+        <v>493</v>
       </c>
       <c r="E96" s="64" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="F96" s="64" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
@@ -12978,18 +12978,20 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B97" s="62" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C97" s="63" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D97" s="64" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="E97" s="64" t="s">
-        <v>919</v>
-      </c>
-      <c r="F97" s="64"/>
+        <v>882</v>
+      </c>
+      <c r="F97" s="64" t="s">
+        <v>917</v>
+      </c>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
@@ -13000,43 +13002,50 @@
       <c r="N97" s="23"/>
       <c r="O97" s="22"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="37" customHeight="1" spans="2:15">
-      <c r="B98" s="62" t="s">
-        <v>920</v>
-      </c>
-      <c r="C98" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="64" t="s">
-        <v>536</v>
-      </c>
-      <c r="E98" s="64" t="s">
-        <v>921</v>
+    <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B98" s="70" t="s">
+        <v>918</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="E98" s="41" t="s">
+        <v>919</v>
       </c>
       <c r="F98" s="64"/>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="1" t="s">
-        <v>922</v>
-      </c>
+      <c r="J98" s="61"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
       <c r="N98" s="23"/>
       <c r="O98" s="22"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A99" s="19"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="47"/>
+    <row r="99" s="1" customFormat="1" ht="37" customHeight="1" spans="2:15">
+      <c r="B99" s="62" t="s">
+        <v>920</v>
+      </c>
+      <c r="C99" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="E99" s="64" t="s">
+        <v>921</v>
+      </c>
+      <c r="F99" s="64"/>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="61"/>
+      <c r="J99" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -13130,11 +13139,21 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="47"/>
+      <c r="B105" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>923</v>
+      </c>
+      <c r="F105" s="47" t="s">
+        <v>811</v>
+      </c>
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
@@ -13147,11 +13166,21 @@
     </row>
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="19"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="47"/>
+      <c r="B106" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E106" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="F106" s="47" t="s">
+        <v>925</v>
+      </c>
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
@@ -13164,11 +13193,19 @@
     </row>
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="19"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="47"/>
+      <c r="B107" s="30" t="s">
+        <v>926</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="F107" s="27"/>
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
@@ -13181,11 +13218,21 @@
     </row>
     <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A108" s="19"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="47"/>
+      <c r="B108" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="F108" s="47" t="s">
+        <v>822</v>
+      </c>
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
@@ -13199,19 +13246,19 @@
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A109" s="19"/>
       <c r="B109" s="30" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D109" s="34" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>811</v>
+        <v>930</v>
       </c>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
@@ -13226,20 +13273,18 @@
     <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A110" s="19"/>
       <c r="B110" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E110" s="34" t="s">
-        <v>924</v>
-      </c>
-      <c r="F110" s="47" t="s">
-        <v>925</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="F110" s="27"/>
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
@@ -13253,7 +13298,7 @@
     <row r="111" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A111" s="19"/>
       <c r="B111" s="30" t="s">
-        <v>926</v>
+        <v>894</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>30</v>
@@ -13262,7 +13307,7 @@
         <v>363</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
@@ -13275,23 +13320,21 @@
       <c r="N111" s="23"/>
       <c r="O111" s="22"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A112" s="19"/>
-      <c r="B112" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="C112" s="33" t="s">
+    <row r="112" s="1" customFormat="1" ht="68" customHeight="1" spans="1:15">
+      <c r="A112" s="31"/>
+      <c r="B112" s="71" t="s">
+        <v>933</v>
+      </c>
+      <c r="C112" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D112" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E112" s="34" t="s">
-        <v>928</v>
-      </c>
-      <c r="F112" s="47" t="s">
-        <v>822</v>
-      </c>
+      <c r="D112" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="F112" s="27"/>
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
@@ -13302,22 +13345,22 @@
       <c r="N112" s="23"/>
       <c r="O112" s="22"/>
     </row>
-    <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A113" s="19"/>
-      <c r="B113" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E113" s="34" t="s">
-        <v>929</v>
-      </c>
-      <c r="F113" s="47" t="s">
-        <v>930</v>
+      <c r="B113" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C113" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E113" s="64" t="s">
+        <v>935</v>
+      </c>
+      <c r="F113" s="65" t="s">
+        <v>835</v>
       </c>
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
@@ -13329,21 +13372,23 @@
       <c r="N113" s="23"/>
       <c r="O113" s="22"/>
     </row>
-    <row r="114" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A114" s="19"/>
-      <c r="B114" s="30" t="s">
-        <v>931</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>932</v>
-      </c>
-      <c r="F114" s="27"/>
+      <c r="B114" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C114" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E114" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="F114" s="64" t="s">
+        <v>898</v>
+      </c>
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
@@ -13354,21 +13399,23 @@
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
     </row>
-    <row r="115" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="115" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A115" s="19"/>
-      <c r="B115" s="30" t="s">
-        <v>894</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>895</v>
-      </c>
-      <c r="F115" s="27"/>
+      <c r="B115" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C115" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" s="64" t="s">
+        <v>937</v>
+      </c>
+      <c r="F115" s="64" t="s">
+        <v>938</v>
+      </c>
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
@@ -13379,21 +13426,19 @@
       <c r="N115" s="23"/>
       <c r="O115" s="22"/>
     </row>
-    <row r="116" s="1" customFormat="1" ht="68" customHeight="1" spans="1:15">
-      <c r="A116" s="31"/>
-      <c r="B116" s="70" t="s">
-        <v>933</v>
-      </c>
-      <c r="C116" s="71" t="s">
+    <row r="116" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+      <c r="A116" s="19"/>
+      <c r="B116" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C116" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D116" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>934</v>
-      </c>
-      <c r="F116" s="27"/>
+      <c r="D116" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="E116" s="27"/>
+      <c r="F116" s="47"/>
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
@@ -13405,22 +13450,22 @@
       <c r="O116" s="22"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
-      <c r="A117" s="19"/>
-      <c r="B117" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="C117" s="63" t="s">
+      <c r="A117" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C117" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="E117" s="64" t="s">
-        <v>935</v>
-      </c>
-      <c r="F117" s="65" t="s">
-        <v>835</v>
-      </c>
+      <c r="D117" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="F117" s="47"/>
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
@@ -13431,22 +13476,22 @@
       <c r="N117" s="23"/>
       <c r="O117" s="22"/>
     </row>
-    <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+    <row r="118" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A118" s="19"/>
-      <c r="B118" s="62" t="s">
-        <v>836</v>
-      </c>
-      <c r="C118" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="64" t="s">
-        <v>471</v>
-      </c>
-      <c r="E118" s="64" t="s">
-        <v>936</v>
-      </c>
-      <c r="F118" s="64" t="s">
-        <v>898</v>
+      <c r="B118" s="32" t="s">
+        <v>801</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E118" s="34" t="s">
+        <v>802</v>
+      </c>
+      <c r="F118" s="47" t="s">
+        <v>803</v>
       </c>
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
@@ -13458,23 +13503,21 @@
       <c r="N118" s="23"/>
       <c r="O118" s="22"/>
     </row>
-    <row r="119" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+    <row r="119" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A119" s="19"/>
-      <c r="B119" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="C119" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E119" s="64" t="s">
-        <v>937</v>
-      </c>
-      <c r="F119" s="64" t="s">
-        <v>938</v>
-      </c>
+      <c r="B119" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="F119" s="47"/>
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
@@ -13485,18 +13528,20 @@
       <c r="N119" s="23"/>
       <c r="O119" s="22"/>
     </row>
-    <row r="120" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+    <row r="120" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A120" s="19"/>
       <c r="B120" s="32" t="s">
-        <v>901</v>
+        <v>847</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D120" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="E120" s="27"/>
+        <v>363</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>848</v>
+      </c>
       <c r="F120" s="47"/>
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
@@ -13508,23 +13553,23 @@
       <c r="N120" s="23"/>
       <c r="O120" s="22"/>
     </row>
-    <row r="121" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
-      <c r="A121" s="19" t="s">
-        <v>939</v>
-      </c>
+    <row r="121" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A121" s="19"/>
       <c r="B121" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="C121" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="C121" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D121" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E121" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="F121" s="47"/>
+      <c r="D121" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="F121" s="47" t="s">
+        <v>811</v>
+      </c>
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
@@ -13537,20 +13582,20 @@
     </row>
     <row r="122" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A122" s="19"/>
-      <c r="B122" s="32" t="s">
-        <v>801</v>
+      <c r="B122" s="30" t="s">
+        <v>812</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>707</v>
+        <v>471</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>802</v>
+        <v>850</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>803</v>
+        <v>851</v>
       </c>
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
@@ -13564,19 +13609,21 @@
     </row>
     <row r="123" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A123" s="19"/>
-      <c r="B123" s="32" t="s">
-        <v>845</v>
+      <c r="B123" s="30" t="s">
+        <v>814</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D123" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E123" s="27" t="s">
-        <v>846</v>
-      </c>
-      <c r="F123" s="47"/>
+        <v>707</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>816</v>
+      </c>
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
@@ -13589,19 +13636,21 @@
     </row>
     <row r="124" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A124" s="19"/>
-      <c r="B124" s="32" t="s">
-        <v>847</v>
+      <c r="B124" s="30" t="s">
+        <v>817</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E124" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="F124" s="47"/>
+        <v>707</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>819</v>
+      </c>
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
@@ -13615,7 +13664,7 @@
     <row r="125" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A125" s="19"/>
       <c r="B125" s="30" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>30</v>
@@ -13624,10 +13673,10 @@
         <v>483</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
@@ -13642,7 +13691,7 @@
     <row r="126" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A126" s="19"/>
       <c r="B126" s="30" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>5</v>
@@ -13651,10 +13700,10 @@
         <v>471</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
@@ -13669,7 +13718,7 @@
     <row r="127" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A127" s="19"/>
       <c r="B127" s="30" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>30</v>
@@ -13678,10 +13727,10 @@
         <v>707</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
@@ -13695,20 +13744,18 @@
     </row>
     <row r="128" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A128" s="19"/>
-      <c r="B128" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E128" s="28" t="s">
-        <v>853</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>819</v>
+      <c r="B128" s="30"/>
+      <c r="C128" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E128" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="F128" s="49" t="s">
+        <v>792</v>
       </c>
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
@@ -13723,19 +13770,19 @@
     <row r="129" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A129" s="19"/>
       <c r="B129" s="30" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D129" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E129" s="34" t="s">
-        <v>854</v>
-      </c>
-      <c r="F129" s="47" t="s">
-        <v>822</v>
+        <v>707</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>780</v>
       </c>
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
@@ -13750,20 +13797,18 @@
     <row r="130" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A130" s="19"/>
       <c r="B130" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E130" s="34" t="s">
-        <v>855</v>
-      </c>
-      <c r="F130" s="47" t="s">
-        <v>825</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="F130" s="27"/>
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
@@ -13774,23 +13819,21 @@
       <c r="N130" s="23"/>
       <c r="O130" s="22"/>
     </row>
-    <row r="131" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A131" s="19"/>
-      <c r="B131" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C131" s="33" t="s">
+    <row r="131" s="1" customFormat="1" ht="86" customHeight="1" spans="1:15">
+      <c r="A131" s="31"/>
+      <c r="B131" s="73" t="s">
+        <v>940</v>
+      </c>
+      <c r="C131" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>857</v>
-      </c>
-      <c r="F131" s="27" t="s">
-        <v>858</v>
-      </c>
+      <c r="D131" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>941</v>
+      </c>
+      <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
@@ -13801,20 +13844,21 @@
       <c r="N131" s="23"/>
       <c r="O131" s="22"/>
     </row>
-    <row r="132" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A132" s="19"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E132" s="48" t="s">
-        <v>791</v>
-      </c>
-      <c r="F132" s="49" t="s">
-        <v>792</v>
+    <row r="132" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B132" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C132" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E132" s="64" t="s">
+        <v>942</v>
+      </c>
+      <c r="F132" s="65" t="s">
+        <v>835</v>
       </c>
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
@@ -13826,22 +13870,21 @@
       <c r="N132" s="23"/>
       <c r="O132" s="22"/>
     </row>
-    <row r="133" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="19"/>
-      <c r="B133" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D133" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E133" s="28" t="s">
-        <v>859</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>780</v>
+    <row r="133" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B133" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C133" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E133" s="64" t="s">
+        <v>943</v>
+      </c>
+      <c r="F133" s="64" t="s">
+        <v>944</v>
       </c>
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
@@ -13853,21 +13896,22 @@
       <c r="N133" s="23"/>
       <c r="O133" s="22"/>
     </row>
-    <row r="134" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="19"/>
-      <c r="B134" s="30" t="s">
-        <v>831</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E134" s="27" t="s">
-        <v>832</v>
-      </c>
-      <c r="F134" s="27"/>
+    <row r="134" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B134" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C134" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E134" s="64" t="s">
+        <v>945</v>
+      </c>
+      <c r="F134" s="64" t="s">
+        <v>946</v>
+      </c>
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -13878,20 +13922,17 @@
       <c r="N134" s="23"/>
       <c r="O134" s="22"/>
     </row>
-    <row r="135" s="1" customFormat="1" ht="86" customHeight="1" spans="1:15">
-      <c r="A135" s="31"/>
-      <c r="B135" s="72" t="s">
-        <v>940</v>
-      </c>
-      <c r="C135" s="73" t="s">
+    <row r="135" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B135" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="C135" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D135" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>941</v>
-      </c>
+      <c r="D135" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="E135" s="27"/>
       <c r="F135" s="27"/>
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
@@ -13903,21 +13944,24 @@
       <c r="N135" s="23"/>
       <c r="O135" s="22"/>
     </row>
-    <row r="136" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B136" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="C136" s="63" t="s">
+    <row r="136" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A136" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C136" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D136" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="E136" s="64" t="s">
-        <v>942</v>
-      </c>
-      <c r="F136" s="65" t="s">
-        <v>835</v>
+      <c r="D136" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="F136" s="47" t="s">
+        <v>803</v>
       </c>
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
@@ -13929,22 +13973,21 @@
       <c r="N136" s="23"/>
       <c r="O136" s="22"/>
     </row>
-    <row r="137" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B137" s="62" t="s">
-        <v>836</v>
-      </c>
-      <c r="C137" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="64" t="s">
-        <v>471</v>
-      </c>
-      <c r="E137" s="64" t="s">
-        <v>943</v>
-      </c>
-      <c r="F137" s="64" t="s">
-        <v>944</v>
-      </c>
+    <row r="137" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A137" s="19"/>
+      <c r="B137" s="30" t="s">
+        <v>948</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>949</v>
+      </c>
+      <c r="F137" s="27"/>
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -13955,22 +13998,21 @@
       <c r="N137" s="23"/>
       <c r="O137" s="22"/>
     </row>
-    <row r="138" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B138" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="C138" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E138" s="64" t="s">
-        <v>945</v>
-      </c>
-      <c r="F138" s="64" t="s">
-        <v>946</v>
-      </c>
+    <row r="138" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A138" s="19"/>
+      <c r="B138" s="30" t="s">
+        <v>950</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="F138" s="27"/>
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
@@ -13981,17 +14023,20 @@
       <c r="N138" s="23"/>
       <c r="O138" s="22"/>
     </row>
-    <row r="139" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+    <row r="139" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A139" s="19"/>
       <c r="B139" s="30" t="s">
-        <v>901</v>
+        <v>952</v>
       </c>
       <c r="C139" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="E139" s="27"/>
+        <v>363</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>949</v>
+      </c>
       <c r="F139" s="27"/>
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
@@ -14004,24 +14049,20 @@
       <c r="O139" s="22"/>
     </row>
     <row r="140" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="19" t="s">
-        <v>947</v>
-      </c>
+      <c r="A140" s="19"/>
       <c r="B140" s="30" t="s">
-        <v>867</v>
-      </c>
-      <c r="C140" s="33" t="s">
+        <v>953</v>
+      </c>
+      <c r="C140" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D140" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E140" s="34" t="s">
-        <v>767</v>
-      </c>
-      <c r="F140" s="47" t="s">
-        <v>803</v>
-      </c>
+      <c r="D140" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="F140" s="27"/>
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
@@ -14032,19 +14073,19 @@
       <c r="N140" s="23"/>
       <c r="O140" s="22"/>
     </row>
-    <row r="141" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="19"/>
+    <row r="141" s="1" customFormat="1" ht="71" customHeight="1" spans="1:15">
+      <c r="A141" s="31"/>
       <c r="B141" s="30" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="C141" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>600</v>
+        <v>253</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
@@ -14059,19 +14100,21 @@
     </row>
     <row r="142" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A142" s="19"/>
-      <c r="B142" s="30" t="s">
-        <v>950</v>
-      </c>
-      <c r="C142" s="26" t="s">
+      <c r="B142" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="C142" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>951</v>
-      </c>
-      <c r="F142" s="27"/>
+      <c r="D142" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="E142" s="64" t="s">
+        <v>957</v>
+      </c>
+      <c r="F142" s="65" t="s">
+        <v>835</v>
+      </c>
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
@@ -14084,19 +14127,21 @@
     </row>
     <row r="143" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A143" s="19"/>
-      <c r="B143" s="30" t="s">
-        <v>952</v>
-      </c>
-      <c r="C143" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>949</v>
-      </c>
-      <c r="F143" s="27"/>
+      <c r="B143" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="C143" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E143" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="F143" s="64" t="s">
+        <v>959</v>
+      </c>
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
@@ -14109,19 +14154,21 @@
     </row>
     <row r="144" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A144" s="19"/>
-      <c r="B144" s="30" t="s">
-        <v>953</v>
-      </c>
-      <c r="C144" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E144" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="F144" s="27"/>
+      <c r="B144" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C144" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="64" t="s">
+        <v>960</v>
+      </c>
+      <c r="F144" s="64" t="s">
+        <v>961</v>
+      </c>
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
@@ -14132,20 +14179,18 @@
       <c r="N144" s="23"/>
       <c r="O144" s="22"/>
     </row>
-    <row r="145" s="1" customFormat="1" ht="71" customHeight="1" spans="1:15">
-      <c r="A145" s="31"/>
+    <row r="145" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A145" s="19"/>
       <c r="B145" s="30" t="s">
-        <v>955</v>
+        <v>786</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>956</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="E145" s="27"/>
       <c r="F145" s="27"/>
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
@@ -14159,21 +14204,11 @@
     </row>
     <row r="146" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A146" s="19"/>
-      <c r="B146" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="C146" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D146" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="E146" s="64" t="s">
-        <v>957</v>
-      </c>
-      <c r="F146" s="65" t="s">
-        <v>835</v>
-      </c>
+      <c r="B146" s="30"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
@@ -14186,21 +14221,11 @@
     </row>
     <row r="147" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A147" s="19"/>
-      <c r="B147" s="62" t="s">
-        <v>836</v>
-      </c>
-      <c r="C147" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="64" t="s">
-        <v>471</v>
-      </c>
-      <c r="E147" s="64" t="s">
-        <v>958</v>
-      </c>
-      <c r="F147" s="64" t="s">
-        <v>959</v>
-      </c>
+      <c r="B147" s="30"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
@@ -14213,21 +14238,11 @@
     </row>
     <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A148" s="19"/>
-      <c r="B148" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="C148" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E148" s="64" t="s">
-        <v>960</v>
-      </c>
-      <c r="F148" s="64" t="s">
-        <v>961</v>
-      </c>
+      <c r="B148" s="30"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
@@ -14240,15 +14255,9 @@
     </row>
     <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A149" s="19"/>
-      <c r="B149" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D149" s="27" t="s">
-        <v>638</v>
-      </c>
+      <c r="B149" s="30"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="27"/>
       <c r="E149" s="27"/>
       <c r="F149" s="27"/>
       <c r="G149" s="27"/>
@@ -14263,7 +14272,7 @@
     </row>
     <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A150" s="19"/>
-      <c r="B150" s="30"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="26"/>
       <c r="D150" s="27"/>
       <c r="E150" s="27"/>
@@ -14280,7 +14289,7 @@
     </row>
     <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A151" s="19"/>
-      <c r="B151" s="30"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="26"/>
       <c r="D151" s="27"/>
       <c r="E151" s="27"/>
@@ -14297,7 +14306,7 @@
     </row>
     <row r="152" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A152" s="19"/>
-      <c r="B152" s="30"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="26"/>
       <c r="D152" s="27"/>
       <c r="E152" s="27"/>
@@ -14314,7 +14323,7 @@
     </row>
     <row r="153" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A153" s="19"/>
-      <c r="B153" s="30"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="26"/>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
@@ -15757,74 +15766,6 @@
       <c r="N237" s="23"/>
       <c r="O237" s="22"/>
     </row>
-    <row r="238" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A238" s="19"/>
-      <c r="B238" s="20"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
-      <c r="F238" s="27"/>
-      <c r="G238" s="27"/>
-      <c r="H238" s="27"/>
-      <c r="I238" s="27"/>
-      <c r="J238" s="61"/>
-      <c r="K238" s="22"/>
-      <c r="L238" s="23"/>
-      <c r="M238" s="21"/>
-      <c r="N238" s="23"/>
-      <c r="O238" s="22"/>
-    </row>
-    <row r="239" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A239" s="19"/>
-      <c r="B239" s="20"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
-      <c r="F239" s="27"/>
-      <c r="G239" s="27"/>
-      <c r="H239" s="27"/>
-      <c r="I239" s="27"/>
-      <c r="J239" s="61"/>
-      <c r="K239" s="22"/>
-      <c r="L239" s="23"/>
-      <c r="M239" s="21"/>
-      <c r="N239" s="23"/>
-      <c r="O239" s="22"/>
-    </row>
-    <row r="240" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A240" s="19"/>
-      <c r="B240" s="20"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="27"/>
-      <c r="E240" s="27"/>
-      <c r="F240" s="27"/>
-      <c r="G240" s="27"/>
-      <c r="H240" s="27"/>
-      <c r="I240" s="27"/>
-      <c r="J240" s="61"/>
-      <c r="K240" s="22"/>
-      <c r="L240" s="23"/>
-      <c r="M240" s="21"/>
-      <c r="N240" s="23"/>
-      <c r="O240" s="22"/>
-    </row>
-    <row r="241" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A241" s="19"/>
-      <c r="B241" s="20"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="27"/>
-      <c r="E241" s="27"/>
-      <c r="F241" s="27"/>
-      <c r="G241" s="27"/>
-      <c r="H241" s="27"/>
-      <c r="I241" s="27"/>
-      <c r="J241" s="61"/>
-      <c r="K241" s="22"/>
-      <c r="L241" s="23"/>
-      <c r="M241" s="21"/>
-      <c r="N241" s="23"/>
-      <c r="O241" s="22"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -15832,18 +15773,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N154:N241">
+  <conditionalFormatting sqref="N150:N237">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N154,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N150,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N154,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N150,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N154,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N150,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N153">
+  <conditionalFormatting sqref="N1 N3:N149">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -15855,10 +15796,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C15 C16 C17 C18 C21 C22 C23 C24 C25 C26 C27 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C98 C99 C109 C110 C111 C112 C113 C114 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C143 C144 C145 C146 C147 C148 C149 C13:C14 C19:C20 C28:C29 C96:C97 C100:C108 C115:C116 C141:C142 C150:C153 C154:C241">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C15 C16 C17 C18 C21 C22 C23 C24 C25 C26 C27 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C99 C105 C106 C107 C108 C109 C110 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C139 C140 C141 C142 C143 C144 C145 C13:C14 C19:C20 C28:C29 C97:C98 C100:C104 C111:C112 C137:C138 C146:C149 C150:C237">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D16 D17 D18 D21 D22 D23 D24 D25 D26 D27 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D98 D99 D109 D110 D111 D112 D113 D114 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D143 D144 D145 D146 D147 D148 D149 D13:D14 D19:D20 D28:D29 D96:D97 D100:D108 D115:D116 D141:D142 D150:D153 D154:D241">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D16 D17 D18 D21 D22 D23 D24 D25 D26 D27 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D99 D105 D106 D107 D108 D109 D110 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D139 D140 D141 D142 D143 D144 D145 D13:D14 D19:D20 D28:D29 D97:D98 D100:D104 D111:D112 D137:D138 D146:D149 D150:D237">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="947">
   <si>
     <t>target</t>
   </si>
@@ -2351,9 +2351,6 @@
     <t>${Inventory.Category}</t>
   </si>
   <si>
-    <t>How it will verify the user has landed on the Category page&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify the Add Categories </t>
   </si>
   <si>
@@ -2672,9 +2669,6 @@
     <t>Search the created Category</t>
   </si>
   <si>
-    <t>Rework on the edit functionality and ask aditi how to verify edit functionality</t>
-  </si>
-  <si>
     <t>click on Edit button</t>
   </si>
   <si>
@@ -2799,9 +2793,6 @@
   </si>
   <si>
     <t>ProceedIf()</t>
-  </si>
-  <si>
-    <t>I see only element is being verified. Where is the message verification? The data is successfully deleted? Use expected and actual here</t>
   </si>
   <si>
     <t>edittaxtablerow</t>
@@ -10322,8 +10313,8 @@
   <sheetPr/>
   <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10564,11 +10555,9 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" customHeight="1" spans="1:15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33" t="s">
         <v>762</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>763</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>30</v>
@@ -10577,7 +10566,7 @@
         <v>253</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -10592,10 +10581,10 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>765</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>766</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>30</v>
@@ -10604,10 +10593,10 @@
         <v>707</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>767</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>768</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -10622,7 +10611,7 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
@@ -10631,10 +10620,10 @@
         <v>483</v>
       </c>
       <c r="E11" s="27" t="s">
+        <v>769</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>770</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>771</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10649,7 +10638,7 @@
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>5</v>
@@ -10658,10 +10647,10 @@
         <v>471</v>
       </c>
       <c r="E12" s="37" t="s">
+        <v>772</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>773</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>774</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10683,10 +10672,10 @@
         <v>465</v>
       </c>
       <c r="E13" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>775</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>776</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -10708,10 +10697,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>777</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>778</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -10726,7 +10715,7 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>20</v>
@@ -10735,10 +10724,10 @@
         <v>302</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -10753,7 +10742,7 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
@@ -10762,10 +10751,10 @@
         <v>493</v>
       </c>
       <c r="E16" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>782</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>783</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10780,7 +10769,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>30</v>
@@ -10789,10 +10778,10 @@
         <v>530</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -10807,7 +10796,7 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10829,10 +10818,10 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="40" t="s">
+        <v>786</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>787</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>788</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>30</v>
@@ -10841,7 +10830,7 @@
         <v>253</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="27"/>
@@ -10857,7 +10846,7 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="40"/>
       <c r="B20" s="33" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>30</v>
@@ -10866,7 +10855,7 @@
         <v>363</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="27"/>
@@ -10889,10 +10878,10 @@
         <v>656</v>
       </c>
       <c r="E21" s="44" t="s">
+        <v>790</v>
+      </c>
+      <c r="F21" s="44" t="s">
         <v>791</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>792</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -10907,7 +10896,7 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
       <c r="B22" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10931,10 +10920,10 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A23" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>794</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>795</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10943,7 +10932,7 @@
         <v>363</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F23" s="46"/>
       <c r="G23" s="27"/>
@@ -10959,7 +10948,7 @@
     <row r="24" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>30</v>
@@ -10968,7 +10957,7 @@
         <v>253</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F24" s="46"/>
       <c r="G24" s="27"/>
@@ -10983,7 +10972,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B25" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>5</v>
@@ -10992,10 +10981,10 @@
         <v>471</v>
       </c>
       <c r="E25" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="F25" s="41" t="s">
         <v>799</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>800</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -11009,7 +10998,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B26" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>30</v>
@@ -11018,10 +11007,10 @@
         <v>707</v>
       </c>
       <c r="E26" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="F26" s="41" t="s">
         <v>802</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>803</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -11036,7 +11025,7 @@
     <row r="27" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>30</v>
@@ -11045,7 +11034,7 @@
         <v>363</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="27"/>
@@ -11061,7 +11050,7 @@
     <row r="28" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>30</v>
@@ -11070,7 +11059,7 @@
         <v>363</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="27"/>
@@ -11086,7 +11075,7 @@
     <row r="29" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>30</v>
@@ -11095,10 +11084,10 @@
         <v>483</v>
       </c>
       <c r="E29" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="F29" s="41" t="s">
         <v>809</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>810</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -11113,7 +11102,7 @@
     <row r="30" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>5</v>
@@ -11122,10 +11111,10 @@
         <v>471</v>
       </c>
       <c r="E30" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="F30" s="41" t="s">
         <v>812</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>813</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -11140,7 +11129,7 @@
     <row r="31" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>30</v>
@@ -11149,10 +11138,10 @@
         <v>707</v>
       </c>
       <c r="E31" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>815</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>816</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -11167,7 +11156,7 @@
     <row r="32" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>30</v>
@@ -11176,10 +11165,10 @@
         <v>707</v>
       </c>
       <c r="E32" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="F32" s="27" t="s">
         <v>818</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>819</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -11194,7 +11183,7 @@
     <row r="33" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>30</v>
@@ -11203,10 +11192,10 @@
         <v>483</v>
       </c>
       <c r="E33" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="F33" s="41" t="s">
         <v>821</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>822</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -11221,7 +11210,7 @@
     <row r="34" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>5</v>
@@ -11230,10 +11219,10 @@
         <v>471</v>
       </c>
       <c r="E34" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="F34" s="41" t="s">
         <v>824</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>825</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -11248,7 +11237,7 @@
     <row r="35" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>30</v>
@@ -11257,10 +11246,10 @@
         <v>707</v>
       </c>
       <c r="E35" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>827</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>828</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -11282,10 +11271,10 @@
         <v>656</v>
       </c>
       <c r="E36" s="47" t="s">
+        <v>790</v>
+      </c>
+      <c r="F36" s="48" t="s">
         <v>791</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>792</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -11300,7 +11289,7 @@
     <row r="37" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>30</v>
@@ -11309,10 +11298,10 @@
         <v>707</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -11327,7 +11316,7 @@
     <row r="38" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
@@ -11336,7 +11325,7 @@
         <v>363</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -11351,7 +11340,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B39" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>30</v>
@@ -11360,10 +11349,10 @@
         <v>493</v>
       </c>
       <c r="E39" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="F39" s="41" t="s">
         <v>834</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>835</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -11377,7 +11366,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B40" s="49" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>5</v>
@@ -11386,10 +11375,10 @@
         <v>471</v>
       </c>
       <c r="E40" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>837</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>838</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -11403,7 +11392,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B41" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>5</v>
@@ -11412,10 +11401,10 @@
         <v>49</v>
       </c>
       <c r="E41" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="F41" s="35" t="s">
         <v>840</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>841</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -11430,7 +11419,7 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>30</v>
@@ -11439,7 +11428,7 @@
         <v>559</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="27"/>
@@ -11454,10 +11443,10 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>5</v>
@@ -11466,10 +11455,10 @@
         <v>471</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -11484,7 +11473,7 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>30</v>
@@ -11493,10 +11482,10 @@
         <v>707</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -11534,7 +11523,7 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
@@ -11543,10 +11532,10 @@
         <v>692</v>
       </c>
       <c r="E46" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="F46" s="27" t="s">
         <v>847</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>848</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
@@ -11561,7 +11550,7 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>30</v>
@@ -11570,10 +11559,10 @@
         <v>483</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -11588,7 +11577,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>5</v>
@@ -11597,10 +11586,10 @@
         <v>471</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
@@ -11615,7 +11604,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>30</v>
@@ -11624,10 +11613,10 @@
         <v>692</v>
       </c>
       <c r="E49" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="F49" s="27" t="s">
         <v>851</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>852</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
@@ -11642,7 +11631,7 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>30</v>
@@ -11651,10 +11640,10 @@
         <v>707</v>
       </c>
       <c r="E50" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="F50" s="27" t="s">
         <v>853</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>854</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -11669,7 +11658,7 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>30</v>
@@ -11678,10 +11667,10 @@
         <v>483</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -11696,7 +11685,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>5</v>
@@ -11705,10 +11694,10 @@
         <v>471</v>
       </c>
       <c r="E52" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="F52" s="41" t="s">
         <v>856</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>857</v>
       </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
@@ -11723,7 +11712,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>30</v>
@@ -11732,10 +11721,10 @@
         <v>707</v>
       </c>
       <c r="E53" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="F53" s="27" t="s">
         <v>858</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>859</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -11757,10 +11746,10 @@
         <v>656</v>
       </c>
       <c r="E54" s="47" t="s">
+        <v>790</v>
+      </c>
+      <c r="F54" s="48" t="s">
         <v>791</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>792</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
@@ -11775,7 +11764,7 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C55" s="34" t="s">
         <v>30</v>
@@ -11784,10 +11773,10 @@
         <v>707</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -11802,7 +11791,7 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
@@ -11811,7 +11800,7 @@
         <v>363</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -11827,7 +11816,7 @@
     <row r="57" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>30</v>
@@ -11836,10 +11825,10 @@
         <v>493</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -11854,7 +11843,7 @@
     <row r="58" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="49" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>5</v>
@@ -11863,10 +11852,10 @@
         <v>471</v>
       </c>
       <c r="E58" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="F58" s="35" t="s">
         <v>862</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>863</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -11881,7 +11870,7 @@
     <row r="59" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>5</v>
@@ -11890,10 +11879,10 @@
         <v>49</v>
       </c>
       <c r="E59" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="F59" s="35" t="s">
         <v>864</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>865</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
@@ -11908,7 +11897,7 @@
     <row r="60" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>30</v>
@@ -11930,10 +11919,10 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>867</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>868</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>30</v>
@@ -11942,10 +11931,10 @@
         <v>707</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -11958,11 +11947,9 @@
       <c r="O61" s="22"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="46" customHeight="1" spans="1:15">
-      <c r="A62" s="32" t="s">
-        <v>869</v>
-      </c>
+      <c r="A62" s="32"/>
       <c r="B62" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>30</v>
@@ -11971,10 +11958,10 @@
         <v>576</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -11989,7 +11976,7 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>30</v>
@@ -11998,10 +11985,10 @@
         <v>483</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -12016,7 +12003,7 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>5</v>
@@ -12025,10 +12012,10 @@
         <v>471</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -12043,7 +12030,7 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>30</v>
@@ -12052,7 +12039,7 @@
         <v>363</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F65" s="41"/>
       <c r="G65" s="27"/>
@@ -12068,7 +12055,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>30</v>
@@ -12077,10 +12064,10 @@
         <v>483</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
@@ -12095,7 +12082,7 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>5</v>
@@ -12104,10 +12091,10 @@
         <v>471</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
@@ -12122,7 +12109,7 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>30</v>
@@ -12131,10 +12118,10 @@
         <v>692</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
@@ -12149,7 +12136,7 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>30</v>
@@ -12158,10 +12145,10 @@
         <v>707</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F69" s="62" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
@@ -12176,7 +12163,7 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
       <c r="B70" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>30</v>
@@ -12185,10 +12172,10 @@
         <v>483</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -12203,7 +12190,7 @@
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
       <c r="B71" s="33" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C71" s="34" t="s">
         <v>5</v>
@@ -12212,10 +12199,10 @@
         <v>471</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -12230,7 +12217,7 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>30</v>
@@ -12239,7 +12226,7 @@
         <v>363</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="27"/>
@@ -12255,7 +12242,7 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>30</v>
@@ -12264,10 +12251,10 @@
         <v>483</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
@@ -12282,7 +12269,7 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
       <c r="B74" s="33" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>5</v>
@@ -12291,10 +12278,10 @@
         <v>471</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
@@ -12309,7 +12296,7 @@
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
       <c r="B75" s="33" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C75" s="34" t="s">
         <v>30</v>
@@ -12318,10 +12305,10 @@
         <v>707</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -12343,10 +12330,10 @@
         <v>656</v>
       </c>
       <c r="E76" s="47" t="s">
+        <v>790</v>
+      </c>
+      <c r="F76" s="48" t="s">
         <v>791</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>792</v>
       </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
@@ -12361,7 +12348,7 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C77" s="34" t="s">
         <v>30</v>
@@ -12370,10 +12357,10 @@
         <v>707</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -12388,7 +12375,7 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
       <c r="B78" s="30" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>30</v>
@@ -12397,7 +12384,7 @@
         <v>363</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -12413,7 +12400,7 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
       <c r="B79" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C79" s="34" t="s">
         <v>30</v>
@@ -12422,10 +12409,10 @@
         <v>493</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
@@ -12440,7 +12427,7 @@
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
       <c r="B80" s="49" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>5</v>
@@ -12449,10 +12436,10 @@
         <v>471</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
@@ -12467,7 +12454,7 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
       <c r="B81" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>5</v>
@@ -12476,10 +12463,10 @@
         <v>49</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
@@ -12494,7 +12481,7 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="19"/>
       <c r="B82" s="33" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C82" s="34" t="s">
         <v>30</v>
@@ -12503,7 +12490,7 @@
         <v>559</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F82" s="41"/>
       <c r="G82" s="27"/>
@@ -12519,7 +12506,7 @@
     <row r="83" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
       <c r="B83" s="30" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>30</v>
@@ -12528,10 +12515,10 @@
         <v>476</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
@@ -12545,10 +12532,10 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
       <c r="A84" s="19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>30</v>
@@ -12557,14 +12544,14 @@
         <v>363</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
       <c r="J84" s="61" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
@@ -12573,11 +12560,9 @@
       <c r="O84" s="22"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="54" customHeight="1" spans="1:15">
-      <c r="A85" s="32" t="s">
-        <v>912</v>
-      </c>
+      <c r="A85" s="32"/>
       <c r="B85" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C85" s="34" t="s">
         <v>30</v>
@@ -12586,10 +12571,10 @@
         <v>483</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
@@ -12604,7 +12589,7 @@
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="19"/>
       <c r="B86" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C86" s="34" t="s">
         <v>5</v>
@@ -12613,10 +12598,10 @@
         <v>471</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F86" s="41" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
@@ -12631,7 +12616,7 @@
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
       <c r="B87" s="30" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>30</v>
@@ -12640,7 +12625,7 @@
         <v>363</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
@@ -12656,7 +12641,7 @@
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
       <c r="B88" s="30" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>30</v>
@@ -12665,7 +12650,7 @@
         <v>363</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
@@ -12681,7 +12666,7 @@
     <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
       <c r="B89" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C89" s="34" t="s">
         <v>30</v>
@@ -12690,10 +12675,10 @@
         <v>493</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F89" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
@@ -12708,7 +12693,7 @@
     <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
       <c r="B90" s="49" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C90" s="34" t="s">
         <v>5</v>
@@ -12717,10 +12702,10 @@
         <v>471</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F90" s="35" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
@@ -12735,7 +12720,7 @@
     <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
       <c r="B91" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C91" s="34" t="s">
         <v>5</v>
@@ -12744,10 +12729,10 @@
         <v>49</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F91" s="35" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
@@ -12761,7 +12746,7 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="36" customHeight="1" spans="2:15">
       <c r="B92" s="33" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>30</v>
@@ -12770,7 +12755,7 @@
         <v>366</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F92" s="41">
         <v>3000</v>
@@ -12788,7 +12773,7 @@
     <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C93" s="34" t="s">
         <v>30</v>
@@ -12810,10 +12795,10 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A94" s="19" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>30</v>
@@ -12822,7 +12807,7 @@
         <v>363</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F94" s="41"/>
       <c r="G94" s="27"/>
@@ -12838,7 +12823,7 @@
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
       <c r="B95" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C95" s="34" t="s">
         <v>30</v>
@@ -12847,10 +12832,10 @@
         <v>707</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F95" s="41" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
@@ -12865,7 +12850,7 @@
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
       <c r="B96" s="33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>30</v>
@@ -12874,7 +12859,7 @@
         <v>363</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F96" s="41"/>
       <c r="G96" s="27"/>
@@ -12890,7 +12875,7 @@
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
       <c r="B97" s="33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C97" s="34" t="s">
         <v>30</v>
@@ -12899,7 +12884,7 @@
         <v>363</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F97" s="41"/>
       <c r="G97" s="27"/>
@@ -12915,7 +12900,7 @@
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
       <c r="B98" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C98" s="34" t="s">
         <v>30</v>
@@ -12924,10 +12909,10 @@
         <v>483</v>
       </c>
       <c r="E98" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="F98" s="41" t="s">
         <v>809</v>
-      </c>
-      <c r="F98" s="41" t="s">
-        <v>810</v>
       </c>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
@@ -12942,7 +12927,7 @@
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
       <c r="B99" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C99" s="34" t="s">
         <v>5</v>
@@ -12951,10 +12936,10 @@
         <v>471</v>
       </c>
       <c r="E99" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="F99" s="41" t="s">
         <v>812</v>
-      </c>
-      <c r="F99" s="41" t="s">
-        <v>813</v>
       </c>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
@@ -12969,7 +12954,7 @@
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="19"/>
       <c r="B100" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C100" s="34" t="s">
         <v>30</v>
@@ -12978,10 +12963,10 @@
         <v>707</v>
       </c>
       <c r="E100" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="F100" s="27" t="s">
         <v>815</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>816</v>
       </c>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
@@ -12996,7 +12981,7 @@
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A101" s="19"/>
       <c r="B101" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C101" s="34" t="s">
         <v>30</v>
@@ -13005,10 +12990,10 @@
         <v>707</v>
       </c>
       <c r="E101" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="F101" s="27" t="s">
         <v>818</v>
-      </c>
-      <c r="F101" s="27" t="s">
-        <v>819</v>
       </c>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
@@ -13023,7 +13008,7 @@
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="19"/>
       <c r="B102" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C102" s="34" t="s">
         <v>30</v>
@@ -13032,10 +13017,10 @@
         <v>483</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F102" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
@@ -13050,7 +13035,7 @@
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="19"/>
       <c r="B103" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C103" s="34" t="s">
         <v>5</v>
@@ -13059,10 +13044,10 @@
         <v>471</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F103" s="41" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
@@ -13077,7 +13062,7 @@
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
       <c r="B104" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C104" s="34" t="s">
         <v>30</v>
@@ -13086,10 +13071,10 @@
         <v>707</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
@@ -13111,10 +13096,10 @@
         <v>656</v>
       </c>
       <c r="E105" s="47" t="s">
+        <v>790</v>
+      </c>
+      <c r="F105" s="48" t="s">
         <v>791</v>
-      </c>
-      <c r="F105" s="48" t="s">
-        <v>792</v>
       </c>
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
@@ -13129,7 +13114,7 @@
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="19"/>
       <c r="B106" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C106" s="34" t="s">
         <v>30</v>
@@ -13138,10 +13123,10 @@
         <v>707</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
@@ -13156,7 +13141,7 @@
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="19"/>
       <c r="B107" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>30</v>
@@ -13165,7 +13150,7 @@
         <v>363</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -13179,11 +13164,9 @@
       <c r="O107" s="22"/>
     </row>
     <row r="108" s="1" customFormat="1" ht="58" customHeight="1" spans="1:15">
-      <c r="A108" s="32" t="s">
-        <v>912</v>
-      </c>
+      <c r="A108" s="32"/>
       <c r="B108" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C108" s="34" t="s">
         <v>30</v>
@@ -13192,10 +13175,10 @@
         <v>493</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F108" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
@@ -13209,7 +13192,7 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B109" s="49" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C109" s="34" t="s">
         <v>5</v>
@@ -13218,10 +13201,10 @@
         <v>471</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F109" s="35" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
@@ -13235,7 +13218,7 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B110" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C110" s="34" t="s">
         <v>5</v>
@@ -13244,10 +13227,10 @@
         <v>49</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F110" s="35" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
@@ -13261,7 +13244,7 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B111" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>30</v>
@@ -13283,10 +13266,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A112" s="19" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C112" s="34" t="s">
         <v>30</v>
@@ -13295,10 +13278,10 @@
         <v>707</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F112" s="41" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
@@ -13313,7 +13296,7 @@
     <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A113" s="19"/>
       <c r="B113" s="30" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>30</v>
@@ -13322,7 +13305,7 @@
         <v>600</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
@@ -13338,7 +13321,7 @@
     <row r="114" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A114" s="19"/>
       <c r="B114" s="30" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>30</v>
@@ -13347,7 +13330,7 @@
         <v>253</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
@@ -13363,7 +13346,7 @@
     <row r="115" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A115" s="19"/>
       <c r="B115" s="30" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C115" s="26" t="s">
         <v>30</v>
@@ -13372,7 +13355,7 @@
         <v>363</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
@@ -13388,7 +13371,7 @@
     <row r="116" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A116" s="19"/>
       <c r="B116" s="30" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>30</v>
@@ -13397,7 +13380,7 @@
         <v>363</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
@@ -13413,7 +13396,7 @@
     <row r="117" s="1" customFormat="1" ht="71" customHeight="1" spans="1:15">
       <c r="A117" s="31"/>
       <c r="B117" s="30" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>30</v>
@@ -13422,7 +13405,7 @@
         <v>253</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
@@ -13436,11 +13419,9 @@
       <c r="O117" s="22"/>
     </row>
     <row r="118" s="1" customFormat="1" ht="74" customHeight="1" spans="1:15">
-      <c r="A118" s="32" t="s">
-        <v>912</v>
-      </c>
+      <c r="A118" s="32"/>
       <c r="B118" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C118" s="34" t="s">
         <v>30</v>
@@ -13449,10 +13430,10 @@
         <v>493</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F118" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
@@ -13467,7 +13448,7 @@
     <row r="119" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A119" s="19"/>
       <c r="B119" s="49" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C119" s="34" t="s">
         <v>5</v>
@@ -13476,10 +13457,10 @@
         <v>471</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F119" s="35" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
@@ -13494,7 +13475,7 @@
     <row r="120" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A120" s="19"/>
       <c r="B120" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C120" s="34" t="s">
         <v>5</v>
@@ -13503,10 +13484,10 @@
         <v>49</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
@@ -13521,7 +13502,7 @@
     <row r="121" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A121" s="19"/>
       <c r="B121" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>30</v>
@@ -13544,7 +13525,7 @@
     <row r="122" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A122" s="19"/>
       <c r="B122" s="30" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>30</v>
@@ -13553,7 +13534,7 @@
         <v>553</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>

--- a/tests/artifact/script/UI-AddCategory.xlsx
+++ b/tests/artifact/script/UI-AddCategory.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="948">
   <si>
     <t>target</t>
   </si>
@@ -2351,9 +2351,6 @@
     <t>${Inventory.Category}</t>
   </si>
   <si>
-    <t>How it will verify the user has landed on the Category page&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify the Add Categories </t>
   </si>
   <si>
@@ -2369,7 +2366,7 @@
     <t>${addCategory.Search}</t>
   </si>
   <si>
-    <t>CategoryTest</t>
+    <t>TestCategory1202</t>
   </si>
   <si>
     <t>Saving the row count</t>
@@ -2672,9 +2669,6 @@
     <t>Search the created Category</t>
   </si>
   <si>
-    <t>Rework on the edit functionality and ask aditi how to verify edit functionality</t>
-  </si>
-  <si>
     <t>click on Edit button</t>
   </si>
   <si>
@@ -2750,6 +2744,9 @@
     <t>${Tax.table.row.xpath}[${editcattaxrowcount}]${table.title.values}${tax.state.values}</t>
   </si>
   <si>
+    <t>${Category.select.State}</t>
+  </si>
+  <si>
     <t>${Tax.table.row.xpath}[${editcattaxrowcount}]${table.rate.values}${spec.title.value}</t>
   </si>
   <si>
@@ -2799,9 +2796,6 @@
   </si>
   <si>
     <t>ProceedIf()</t>
-  </si>
-  <si>
-    <t>I see only element is being verified. Where is the message verification? The data is successfully deleted? Use expected and actual here</t>
   </si>
   <si>
     <t>edittaxtablerow</t>
@@ -2925,7 +2919,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3008,12 +3002,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
@@ -3028,6 +3024,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -3558,135 +3566,135 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3867,6 +3875,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3889,7 +3909,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3897,15 +3917,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3920,11 +3940,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -7042,14 +7062,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="54"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -7063,12 +7083,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="53"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -7080,7 +7100,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="57"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -7115,10 +7135,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="61" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -7133,7 +7153,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="68" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -7148,69 +7168,69 @@
       <c r="E5" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="69" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="61"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="64"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="61"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="61"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="64"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="61"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="64"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -7222,7 +7242,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="64"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -7239,7 +7259,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -7256,7 +7276,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -7273,7 +7293,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -7290,7 +7310,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7307,7 +7327,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7324,7 +7344,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7333,7 +7353,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="76"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -7341,7 +7361,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7358,7 +7378,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7375,7 +7395,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="64"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7392,7 +7412,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7409,7 +7429,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7426,7 +7446,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7443,7 +7463,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7460,7 +7480,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="64"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7477,7 +7497,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="64"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7494,7 +7514,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="64"/>
+      <c r="J25" s="67"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7511,7 +7531,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="64"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7528,7 +7548,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7545,7 +7565,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="64"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7562,7 +7582,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="64"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7579,7 +7599,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="64"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7596,7 +7616,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="64"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7613,7 +7633,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="64"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7630,7 +7650,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="64"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7647,7 +7667,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="64"/>
+      <c r="J34" s="67"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7664,7 +7684,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="64"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7681,7 +7701,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="64"/>
+      <c r="J36" s="67"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7698,7 +7718,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="64"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7715,7 +7735,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="64"/>
+      <c r="J38" s="67"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7732,7 +7752,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="64"/>
+      <c r="J39" s="67"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7749,7 +7769,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="64"/>
+      <c r="J40" s="67"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7766,7 +7786,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="64"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7783,7 +7803,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="64"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7800,7 +7820,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="64"/>
+      <c r="J43" s="67"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7817,7 +7837,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="64"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7834,7 +7854,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="64"/>
+      <c r="J45" s="67"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7851,7 +7871,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="64"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7868,7 +7888,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="64"/>
+      <c r="J47" s="67"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7885,7 +7905,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="64"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7902,7 +7922,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="64"/>
+      <c r="J49" s="67"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7919,7 +7939,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="64"/>
+      <c r="J50" s="67"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7936,7 +7956,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="64"/>
+      <c r="J51" s="67"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7953,7 +7973,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="64"/>
+      <c r="J52" s="67"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7970,7 +7990,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="64"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7987,7 +8007,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="64"/>
+      <c r="J54" s="67"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -8004,7 +8024,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="64"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -8021,7 +8041,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="64"/>
+      <c r="J56" s="67"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -8038,7 +8058,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="64"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -8055,7 +8075,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="64"/>
+      <c r="J58" s="67"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -8072,7 +8092,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="64"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -8089,7 +8109,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="64"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -8106,7 +8126,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="64"/>
+      <c r="J61" s="67"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -8123,7 +8143,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="64"/>
+      <c r="J62" s="67"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -8140,7 +8160,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="64"/>
+      <c r="J63" s="67"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -8157,7 +8177,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="64"/>
+      <c r="J64" s="67"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -8174,7 +8194,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="64"/>
+      <c r="J65" s="67"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -8191,7 +8211,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="64"/>
+      <c r="J66" s="67"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -8208,7 +8228,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="64"/>
+      <c r="J67" s="67"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -8225,7 +8245,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="64"/>
+      <c r="J68" s="67"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -8242,7 +8262,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="64"/>
+      <c r="J69" s="67"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -8259,7 +8279,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="64"/>
+      <c r="J70" s="67"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -8276,7 +8296,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="64"/>
+      <c r="J71" s="67"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -8293,7 +8313,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="64"/>
+      <c r="J72" s="67"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8310,7 +8330,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="64"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8327,7 +8347,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="64"/>
+      <c r="J74" s="67"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8344,7 +8364,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="64"/>
+      <c r="J75" s="67"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8361,7 +8381,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="64"/>
+      <c r="J76" s="67"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8378,7 +8398,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="64"/>
+      <c r="J77" s="67"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8395,7 +8415,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="64"/>
+      <c r="J78" s="67"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8412,7 +8432,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="64"/>
+      <c r="J79" s="67"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8429,7 +8449,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="64"/>
+      <c r="J80" s="67"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8446,7 +8466,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="64"/>
+      <c r="J81" s="67"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8463,7 +8483,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="64"/>
+      <c r="J82" s="67"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8480,7 +8500,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="64"/>
+      <c r="J83" s="67"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8497,7 +8517,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="64"/>
+      <c r="J84" s="67"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8514,7 +8534,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="64"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8531,7 +8551,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="64"/>
+      <c r="J86" s="67"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8548,7 +8568,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="64"/>
+      <c r="J87" s="67"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8565,7 +8585,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="64"/>
+      <c r="J88" s="67"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8582,7 +8602,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="64"/>
+      <c r="J89" s="67"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8599,7 +8619,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="64"/>
+      <c r="J90" s="67"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8616,7 +8636,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="64"/>
+      <c r="J91" s="67"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8633,7 +8653,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="64"/>
+      <c r="J92" s="67"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8650,7 +8670,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="64"/>
+      <c r="J93" s="67"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8667,7 +8687,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="64"/>
+      <c r="J94" s="67"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8684,7 +8704,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="64"/>
+      <c r="J95" s="67"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8701,7 +8721,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="64"/>
+      <c r="J96" s="67"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8718,7 +8738,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="64"/>
+      <c r="J97" s="67"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8735,7 +8755,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="64"/>
+      <c r="J98" s="67"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8752,7 +8772,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="64"/>
+      <c r="J99" s="67"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8769,7 +8789,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="64"/>
+      <c r="J100" s="67"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8786,7 +8806,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="64"/>
+      <c r="J101" s="67"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8803,7 +8823,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="64"/>
+      <c r="J102" s="67"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8820,7 +8840,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="64"/>
+      <c r="J103" s="67"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8837,7 +8857,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="64"/>
+      <c r="J104" s="67"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8854,7 +8874,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="64"/>
+      <c r="J105" s="67"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8871,7 +8891,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="64"/>
+      <c r="J106" s="67"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8888,7 +8908,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="64"/>
+      <c r="J107" s="67"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8905,7 +8925,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="64"/>
+      <c r="J108" s="67"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8922,7 +8942,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="64"/>
+      <c r="J109" s="67"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8939,7 +8959,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="64"/>
+      <c r="J110" s="67"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8956,7 +8976,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="64"/>
+      <c r="J111" s="67"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8973,7 +8993,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="64"/>
+      <c r="J112" s="67"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8990,7 +9010,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="64"/>
+      <c r="J113" s="67"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -9007,7 +9027,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="64"/>
+      <c r="J114" s="67"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -9024,7 +9044,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="64"/>
+      <c r="J115" s="67"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -9041,7 +9061,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="64"/>
+      <c r="J116" s="67"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -9058,7 +9078,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="64"/>
+      <c r="J117" s="67"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -9075,7 +9095,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="64"/>
+      <c r="J118" s="67"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -9092,7 +9112,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="64"/>
+      <c r="J119" s="67"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -9109,7 +9129,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="64"/>
+      <c r="J120" s="67"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -9126,7 +9146,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="64"/>
+      <c r="J121" s="67"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -9143,7 +9163,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="64"/>
+      <c r="J122" s="67"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -9160,7 +9180,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="64"/>
+      <c r="J123" s="67"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -9177,7 +9197,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="64"/>
+      <c r="J124" s="67"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -9194,7 +9214,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="64"/>
+      <c r="J125" s="67"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -9211,7 +9231,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="64"/>
+      <c r="J126" s="67"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -9228,7 +9248,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="64"/>
+      <c r="J127" s="67"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -9245,7 +9265,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="64"/>
+      <c r="J128" s="67"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -9262,7 +9282,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="64"/>
+      <c r="J129" s="67"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -9279,7 +9299,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="64"/>
+      <c r="J130" s="67"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -9296,7 +9316,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="64"/>
+      <c r="J131" s="67"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9313,7 +9333,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="64"/>
+      <c r="J132" s="67"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9330,7 +9350,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="64"/>
+      <c r="J133" s="67"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9347,7 +9367,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="64"/>
+      <c r="J134" s="67"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9364,7 +9384,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="64"/>
+      <c r="J135" s="67"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9381,7 +9401,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="64"/>
+      <c r="J136" s="67"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9398,7 +9418,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="64"/>
+      <c r="J137" s="67"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9415,7 +9435,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="64"/>
+      <c r="J138" s="67"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9432,7 +9452,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="64"/>
+      <c r="J139" s="67"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9449,7 +9469,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="64"/>
+      <c r="J140" s="67"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9466,7 +9486,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="64"/>
+      <c r="J141" s="67"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9483,7 +9503,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="64"/>
+      <c r="J142" s="67"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9500,7 +9520,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="64"/>
+      <c r="J143" s="67"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9517,7 +9537,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="64"/>
+      <c r="J144" s="67"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9534,7 +9554,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="64"/>
+      <c r="J145" s="67"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9551,7 +9571,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="64"/>
+      <c r="J146" s="67"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9568,7 +9588,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="64"/>
+      <c r="J147" s="67"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9585,7 +9605,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="64"/>
+      <c r="J148" s="67"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9602,7 +9622,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="64"/>
+      <c r="J149" s="67"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9619,7 +9639,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="64"/>
+      <c r="J150" s="67"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9636,7 +9656,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="64"/>
+      <c r="J151" s="67"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9653,7 +9673,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="64"/>
+      <c r="J152" s="67"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9670,7 +9690,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="64"/>
+      <c r="J153" s="67"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9687,7 +9707,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="64"/>
+      <c r="J154" s="67"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9704,7 +9724,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="64"/>
+      <c r="J155" s="67"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9721,7 +9741,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="64"/>
+      <c r="J156" s="67"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9738,7 +9758,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="64"/>
+      <c r="J157" s="67"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9755,7 +9775,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="64"/>
+      <c r="J158" s="67"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9772,7 +9792,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="64"/>
+      <c r="J159" s="67"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9789,7 +9809,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="64"/>
+      <c r="J160" s="67"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9806,7 +9826,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="64"/>
+      <c r="J161" s="67"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9823,7 +9843,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="64"/>
+      <c r="J162" s="67"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9840,7 +9860,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="64"/>
+      <c r="J163" s="67"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9857,7 +9877,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="64"/>
+      <c r="J164" s="67"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9874,7 +9894,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="64"/>
+      <c r="J165" s="67"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9891,7 +9911,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="64"/>
+      <c r="J166" s="67"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9908,7 +9928,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="64"/>
+      <c r="J167" s="67"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9925,7 +9945,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="64"/>
+      <c r="J168" s="67"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9942,7 +9962,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="64"/>
+      <c r="J169" s="67"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9959,7 +9979,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="64"/>
+      <c r="J170" s="67"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9976,7 +9996,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="64"/>
+      <c r="J171" s="67"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9993,7 +10013,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="64"/>
+      <c r="J172" s="67"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -10010,7 +10030,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="64"/>
+      <c r="J173" s="67"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -10027,7 +10047,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="64"/>
+      <c r="J174" s="67"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -10044,7 +10064,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="64"/>
+      <c r="J175" s="67"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -10061,7 +10081,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="64"/>
+      <c r="J176" s="67"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -10078,7 +10098,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="64"/>
+      <c r="J177" s="67"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -10095,7 +10115,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="64"/>
+      <c r="J178" s="67"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -10112,7 +10132,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="64"/>
+      <c r="J179" s="67"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -10129,7 +10149,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="64"/>
+      <c r="J180" s="67"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -10146,7 +10166,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="64"/>
+      <c r="J181" s="67"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -10163,7 +10183,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="64"/>
+      <c r="J182" s="67"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -10180,7 +10200,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="64"/>
+      <c r="J183" s="67"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -10197,7 +10217,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="64"/>
+      <c r="J184" s="67"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -10214,7 +10234,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="64"/>
+      <c r="J185" s="67"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -10231,7 +10251,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="64"/>
+      <c r="J186" s="67"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -10248,7 +10268,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="64"/>
+      <c r="J187" s="67"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -10265,7 +10285,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="64"/>
+      <c r="J188" s="67"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -10330,8 +10350,8 @@
   <sheetPr/>
   <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10375,14 +10395,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="54"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -10396,12 +10416,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="53"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -10413,7 +10433,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="57"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10448,10 +10468,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="61" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10487,12 +10507,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="61"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="64"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10512,12 +10532,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="61"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10539,7 +10559,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10564,7 +10584,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10572,11 +10592,9 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" customHeight="1" spans="1:15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33" t="s">
         <v>762</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>763</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>30</v>
@@ -10585,13 +10603,13 @@
         <v>253</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="64"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10600,10 +10618,10 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>765</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>766</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>30</v>
@@ -10612,15 +10630,15 @@
         <v>707</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>767</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>768</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10630,7 +10648,7 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
@@ -10639,15 +10657,15 @@
         <v>483</v>
       </c>
       <c r="E11" s="27" t="s">
+        <v>769</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>770</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>771</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10657,7 +10675,7 @@
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>5</v>
@@ -10666,15 +10684,15 @@
         <v>471</v>
       </c>
       <c r="E12" s="37" t="s">
+        <v>772</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>773</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>774</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10691,15 +10709,15 @@
         <v>465</v>
       </c>
       <c r="E13" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>775</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>776</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10716,15 +10734,15 @@
         <v>49</v>
       </c>
       <c r="E14" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>777</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>778</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10734,7 +10752,7 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>20</v>
@@ -10743,15 +10761,15 @@
         <v>302</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10761,7 +10779,7 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
@@ -10770,15 +10788,15 @@
         <v>493</v>
       </c>
       <c r="E16" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>782</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>783</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10788,7 +10806,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>30</v>
@@ -10797,15 +10815,15 @@
         <v>530</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10815,7 +10833,7 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10828,7 +10846,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="64"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10836,11 +10854,11 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>787</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>788</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>30</v>
@@ -10849,13 +10867,13 @@
         <v>253</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10863,9 +10881,9 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="32"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>30</v>
@@ -10874,13 +10892,13 @@
         <v>363</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10888,7 +10906,7 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="40"/>
       <c r="C21" s="44" t="s">
         <v>8</v>
@@ -10897,15 +10915,15 @@
         <v>656</v>
       </c>
       <c r="E21" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>791</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>792</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10913,9 +10931,9 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="32"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>30</v>
@@ -10930,7 +10948,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10939,10 +10957,10 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A23" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>794</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>795</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10951,13 +10969,13 @@
         <v>363</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="64"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10967,7 +10985,7 @@
     <row r="24" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>30</v>
@@ -10976,13 +10994,13 @@
         <v>253</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="64"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10991,7 +11009,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B25" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>5</v>
@@ -11000,15 +11018,15 @@
         <v>471</v>
       </c>
       <c r="E25" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="F25" s="49" t="s">
         <v>799</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>800</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="64"/>
+      <c r="J25" s="67"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -11017,7 +11035,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B26" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>30</v>
@@ -11026,15 +11044,15 @@
         <v>707</v>
       </c>
       <c r="E26" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="F26" s="49" t="s">
         <v>802</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>803</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="64"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -11044,7 +11062,7 @@
     <row r="27" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>30</v>
@@ -11053,13 +11071,13 @@
         <v>363</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -11069,7 +11087,7 @@
     <row r="28" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>30</v>
@@ -11078,13 +11096,13 @@
         <v>363</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="64"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -11094,7 +11112,7 @@
     <row r="29" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>30</v>
@@ -11103,15 +11121,15 @@
         <v>483</v>
       </c>
       <c r="E29" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="F29" s="49" t="s">
         <v>809</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>810</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="64"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -11121,7 +11139,7 @@
     <row r="30" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>5</v>
@@ -11130,15 +11148,15 @@
         <v>471</v>
       </c>
       <c r="E30" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="F30" s="49" t="s">
         <v>812</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>813</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="64"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -11148,7 +11166,7 @@
     <row r="31" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>30</v>
@@ -11157,15 +11175,15 @@
         <v>707</v>
       </c>
       <c r="E31" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>815</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>816</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="64"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -11175,7 +11193,7 @@
     <row r="32" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>30</v>
@@ -11184,15 +11202,15 @@
         <v>707</v>
       </c>
       <c r="E32" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="F32" s="27" t="s">
         <v>818</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>819</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="64"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -11202,7 +11220,7 @@
     <row r="33" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>30</v>
@@ -11211,15 +11229,15 @@
         <v>483</v>
       </c>
       <c r="E33" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="F33" s="49" t="s">
         <v>821</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>822</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="64"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -11229,7 +11247,7 @@
     <row r="34" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>5</v>
@@ -11238,15 +11256,15 @@
         <v>471</v>
       </c>
       <c r="E34" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="F34" s="49" t="s">
         <v>824</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>825</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="64"/>
+      <c r="J34" s="67"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -11256,7 +11274,7 @@
     <row r="35" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>30</v>
@@ -11265,15 +11283,15 @@
         <v>707</v>
       </c>
       <c r="E35" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>827</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>828</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="64"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -11290,15 +11308,15 @@
         <v>656</v>
       </c>
       <c r="E36" s="50" t="s">
+        <v>790</v>
+      </c>
+      <c r="F36" s="51" t="s">
         <v>791</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>792</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="64"/>
+      <c r="J36" s="67"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -11308,7 +11326,7 @@
     <row r="37" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>30</v>
@@ -11317,15 +11335,15 @@
         <v>707</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="64"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -11335,7 +11353,7 @@
     <row r="38" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
@@ -11344,13 +11362,13 @@
         <v>363</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="64"/>
+      <c r="J38" s="67"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -11359,7 +11377,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B39" s="52" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>30</v>
@@ -11368,15 +11386,15 @@
         <v>493</v>
       </c>
       <c r="E39" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="F39" s="49" t="s">
         <v>834</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>835</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="64"/>
+      <c r="J39" s="67"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -11385,7 +11403,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B40" s="52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>5</v>
@@ -11394,15 +11412,15 @@
         <v>471</v>
       </c>
       <c r="E40" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>837</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>838</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="64"/>
+      <c r="J40" s="67"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -11411,7 +11429,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
       <c r="B41" s="52" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>5</v>
@@ -11420,15 +11438,15 @@
         <v>49</v>
       </c>
       <c r="E41" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="F41" s="35" t="s">
         <v>840</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>841</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="64"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -11437,23 +11455,23 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="33" t="s">
-        <v>842</v>
-      </c>
-      <c r="C42" s="34" t="s">
+      <c r="B42" s="53" t="s">
+        <v>841</v>
+      </c>
+      <c r="C42" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="55" t="s">
         <v>559</v>
       </c>
-      <c r="E42" s="35" t="s">
-        <v>819</v>
+      <c r="E42" s="55" t="s">
+        <v>818</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="64"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -11462,10 +11480,10 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>5</v>
@@ -11474,15 +11492,15 @@
         <v>471</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="64"/>
+      <c r="J43" s="67"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11492,7 +11510,7 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>30</v>
@@ -11501,15 +11519,15 @@
         <v>707</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="64"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11532,7 +11550,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="64"/>
+      <c r="J45" s="67"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11542,7 +11560,7 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
@@ -11551,15 +11569,15 @@
         <v>692</v>
       </c>
       <c r="E46" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="F46" s="27" t="s">
         <v>847</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>848</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="64"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11569,7 +11587,7 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>30</v>
@@ -11578,15 +11596,15 @@
         <v>483</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="64"/>
+      <c r="J47" s="67"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11596,7 +11614,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>5</v>
@@ -11605,15 +11623,15 @@
         <v>471</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="64"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11623,7 +11641,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>30</v>
@@ -11632,15 +11650,15 @@
         <v>692</v>
       </c>
       <c r="E49" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="F49" s="27" t="s">
         <v>851</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>852</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="64"/>
+      <c r="J49" s="67"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11650,7 +11668,7 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>30</v>
@@ -11659,15 +11677,15 @@
         <v>707</v>
       </c>
       <c r="E50" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="F50" s="27" t="s">
         <v>853</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>854</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="64"/>
+      <c r="J50" s="67"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11677,7 +11695,7 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>30</v>
@@ -11686,15 +11704,15 @@
         <v>483</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="64"/>
+      <c r="J51" s="67"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11704,7 +11722,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>5</v>
@@ -11713,15 +11731,15 @@
         <v>471</v>
       </c>
       <c r="E52" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="F52" s="49" t="s">
         <v>856</v>
-      </c>
-      <c r="F52" s="49" t="s">
-        <v>857</v>
       </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="64"/>
+      <c r="J52" s="67"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11731,7 +11749,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>30</v>
@@ -11740,15 +11758,15 @@
         <v>707</v>
       </c>
       <c r="E53" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="F53" s="27" t="s">
         <v>858</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>859</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="64"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11765,15 +11783,15 @@
         <v>656</v>
       </c>
       <c r="E54" s="50" t="s">
+        <v>790</v>
+      </c>
+      <c r="F54" s="51" t="s">
         <v>791</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>792</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="64"/>
+      <c r="J54" s="67"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11783,7 +11801,7 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C55" s="34" t="s">
         <v>30</v>
@@ -11792,15 +11810,15 @@
         <v>707</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="64"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11810,7 +11828,7 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
@@ -11819,13 +11837,13 @@
         <v>363</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="64"/>
+      <c r="J56" s="67"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11835,7 +11853,7 @@
     <row r="57" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="52" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>30</v>
@@ -11844,15 +11862,15 @@
         <v>493</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="64"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11862,7 +11880,7 @@
     <row r="58" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>5</v>
@@ -11871,15 +11889,15 @@
         <v>471</v>
       </c>
       <c r="E58" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="F58" s="35" t="s">
         <v>862</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>863</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="64"/>
+      <c r="J58" s="67"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11889,7 +11907,7 @@
     <row r="59" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="52" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>5</v>
@@ -11898,15 +11916,15 @@
         <v>49</v>
       </c>
       <c r="E59" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="F59" s="35" t="s">
         <v>864</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>865</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="64"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11916,7 +11934,7 @@
     <row r="60" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>30</v>
@@ -11929,7 +11947,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="64"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11938,10 +11956,10 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>867</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>868</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>30</v>
@@ -11950,15 +11968,15 @@
         <v>707</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="64"/>
+      <c r="J61" s="67"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11966,11 +11984,9 @@
       <c r="O61" s="22"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="46" customHeight="1" spans="1:15">
-      <c r="A62" s="32" t="s">
-        <v>869</v>
-      </c>
+      <c r="A62" s="32"/>
       <c r="B62" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>30</v>
@@ -11979,15 +11995,15 @@
         <v>576</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="64"/>
+      <c r="J62" s="67"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11996,8 +12012,8 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
-      <c r="B63" s="30" t="s">
-        <v>808</v>
+      <c r="B63" s="33" t="s">
+        <v>807</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>30</v>
@@ -12006,15 +12022,15 @@
         <v>483</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="64"/>
+      <c r="J63" s="67"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -12023,8 +12039,8 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
-      <c r="B64" s="30" t="s">
-        <v>811</v>
+      <c r="B64" s="33" t="s">
+        <v>810</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>5</v>
@@ -12033,15 +12049,15 @@
         <v>471</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="64"/>
+      <c r="J64" s="67"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -12050,23 +12066,23 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
-      <c r="B65" s="30" t="s">
-        <v>877</v>
-      </c>
-      <c r="C65" s="26" t="s">
+      <c r="B65" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="C65" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="35" t="s">
         <v>363</v>
       </c>
       <c r="E65" s="49" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F65" s="49"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="64"/>
+      <c r="J65" s="67"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -12075,8 +12091,8 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
-      <c r="B66" s="30" t="s">
-        <v>808</v>
+      <c r="B66" s="33" t="s">
+        <v>807</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>30</v>
@@ -12085,15 +12101,15 @@
         <v>483</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="64"/>
+      <c r="J66" s="67"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -12102,8 +12118,8 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
-      <c r="B67" s="30" t="s">
-        <v>811</v>
+      <c r="B67" s="33" t="s">
+        <v>810</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>5</v>
@@ -12112,15 +12128,15 @@
         <v>471</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="64"/>
+      <c r="J67" s="67"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -12129,8 +12145,8 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
-      <c r="B68" s="30" t="s">
-        <v>814</v>
+      <c r="B68" s="33" t="s">
+        <v>813</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>30</v>
@@ -12138,16 +12154,16 @@
       <c r="D68" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="E68" s="28" t="s">
-        <v>882</v>
+      <c r="E68" s="49" t="s">
+        <v>880</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="64"/>
+      <c r="J68" s="67"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -12156,8 +12172,8 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
-      <c r="B69" s="30" t="s">
-        <v>817</v>
+      <c r="B69" s="33" t="s">
+        <v>816</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>30</v>
@@ -12165,16 +12181,16 @@
       <c r="D69" s="35" t="s">
         <v>707</v>
       </c>
-      <c r="E69" s="28" t="s">
-        <v>884</v>
-      </c>
-      <c r="F69" s="42" t="s">
-        <v>885</v>
+      <c r="E69" s="49" t="s">
+        <v>882</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>883</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="64"/>
+      <c r="J69" s="67"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -12184,7 +12200,7 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
       <c r="B70" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>30</v>
@@ -12193,15 +12209,15 @@
         <v>483</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="64"/>
+      <c r="J70" s="67"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -12211,7 +12227,7 @@
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
       <c r="B71" s="33" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C71" s="34" t="s">
         <v>5</v>
@@ -12220,15 +12236,15 @@
         <v>471</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="64"/>
+      <c r="J71" s="67"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -12238,7 +12254,7 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>30</v>
@@ -12247,13 +12263,13 @@
         <v>363</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="64"/>
+      <c r="J72" s="67"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -12263,7 +12279,7 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>30</v>
@@ -12272,15 +12288,15 @@
         <v>483</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F73" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="64"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -12290,7 +12306,7 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
       <c r="B74" s="33" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>5</v>
@@ -12299,15 +12315,15 @@
         <v>471</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F74" s="49" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="64"/>
+      <c r="J74" s="67"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -12317,7 +12333,7 @@
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
       <c r="B75" s="33" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C75" s="34" t="s">
         <v>30</v>
@@ -12326,15 +12342,15 @@
         <v>707</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>828</v>
+        <v>893</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="64"/>
+      <c r="J75" s="67"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -12351,15 +12367,15 @@
         <v>656</v>
       </c>
       <c r="E76" s="50" t="s">
+        <v>790</v>
+      </c>
+      <c r="F76" s="51" t="s">
         <v>791</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>792</v>
       </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="64"/>
+      <c r="J76" s="67"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -12369,7 +12385,7 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C77" s="34" t="s">
         <v>30</v>
@@ -12378,15 +12394,15 @@
         <v>707</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="64"/>
+      <c r="J77" s="67"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -12396,7 +12412,7 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
       <c r="B78" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>30</v>
@@ -12405,13 +12421,13 @@
         <v>363</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="64"/>
+      <c r="J78" s="67"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -12421,7 +12437,7 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
       <c r="B79" s="52" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C79" s="34" t="s">
         <v>30</v>
@@ -12430,15 +12446,15 @@
         <v>493</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F79" s="49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="64"/>
+      <c r="J79" s="67"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -12448,7 +12464,7 @@
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
       <c r="B80" s="52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>5</v>
@@ -12457,15 +12473,15 @@
         <v>471</v>
       </c>
       <c r="E80" s="35" t="s">
+        <v>898</v>
+      </c>
+      <c r="F80" s="35" t="s">
         <v>899</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>900</v>
       </c>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="64"/>
+      <c r="J80" s="67"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -12475,7 +12491,7 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
       <c r="B81" s="52" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>5</v>
@@ -12484,15 +12500,15 @@
         <v>49</v>
       </c>
       <c r="E81" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="F81" s="35" t="s">
         <v>901</v>
-      </c>
-      <c r="F81" s="35" t="s">
-        <v>902</v>
       </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="64"/>
+      <c r="J81" s="67"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -12502,7 +12518,7 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="19"/>
       <c r="B82" s="33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C82" s="34" t="s">
         <v>30</v>
@@ -12511,13 +12527,13 @@
         <v>559</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F82" s="49"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="64"/>
+      <c r="J82" s="67"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -12527,7 +12543,7 @@
     <row r="83" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
       <c r="B83" s="30" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>30</v>
@@ -12536,27 +12552,27 @@
         <v>476</v>
       </c>
       <c r="E83" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="F83" s="27" t="s">
         <v>906</v>
-      </c>
-      <c r="F83" s="27" t="s">
-        <v>907</v>
       </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="64"/>
+      <c r="J83" s="67"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
       <c r="N83" s="23"/>
       <c r="O83" s="22"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
+    <row r="84" s="1" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A84" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="B84" s="30" t="s">
         <v>908</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>909</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>30</v>
@@ -12565,14 +12581,14 @@
         <v>363</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="64" t="s">
-        <v>911</v>
+      <c r="J84" s="67" t="s">
+        <v>910</v>
       </c>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
@@ -12581,11 +12597,9 @@
       <c r="O84" s="22"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="54" customHeight="1" spans="1:15">
-      <c r="A85" s="32" t="s">
-        <v>912</v>
-      </c>
+      <c r="A85" s="32"/>
       <c r="B85" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C85" s="34" t="s">
         <v>30</v>
@@ -12594,15 +12608,15 @@
         <v>483</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F85" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="64"/>
+      <c r="J85" s="67"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -12612,7 +12626,7 @@
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="19"/>
       <c r="B86" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C86" s="34" t="s">
         <v>5</v>
@@ -12621,15 +12635,15 @@
         <v>471</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F86" s="49" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="64"/>
+      <c r="J86" s="67"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -12639,7 +12653,7 @@
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
       <c r="B87" s="30" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>30</v>
@@ -12648,13 +12662,13 @@
         <v>363</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="64"/>
+      <c r="J87" s="67"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12664,7 +12678,7 @@
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
       <c r="B88" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>30</v>
@@ -12673,13 +12687,13 @@
         <v>363</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="64"/>
+      <c r="J88" s="67"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -12689,7 +12703,7 @@
     <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
       <c r="B89" s="52" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C89" s="34" t="s">
         <v>30</v>
@@ -12698,15 +12712,15 @@
         <v>493</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="64"/>
+      <c r="J89" s="67"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12716,7 +12730,7 @@
     <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
       <c r="B90" s="52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C90" s="34" t="s">
         <v>5</v>
@@ -12725,15 +12739,15 @@
         <v>471</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F90" s="35" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="64"/>
+      <c r="J90" s="67"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12743,7 +12757,7 @@
     <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
       <c r="B91" s="52" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C91" s="34" t="s">
         <v>5</v>
@@ -12752,15 +12766,15 @@
         <v>49</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F91" s="35" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="64"/>
+      <c r="J91" s="67"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -12769,7 +12783,7 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="36" customHeight="1" spans="2:15">
       <c r="B92" s="33" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>30</v>
@@ -12778,7 +12792,7 @@
         <v>366</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F92" s="49">
         <v>3000</v>
@@ -12786,7 +12800,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="64"/>
+      <c r="J92" s="67"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12796,7 +12810,7 @@
     <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C93" s="34" t="s">
         <v>30</v>
@@ -12809,7 +12823,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="64"/>
+      <c r="J93" s="67"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12818,10 +12832,10 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A94" s="19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>30</v>
@@ -12830,13 +12844,13 @@
         <v>363</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="64"/>
+      <c r="J94" s="67"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12846,7 +12860,7 @@
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
       <c r="B95" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C95" s="34" t="s">
         <v>30</v>
@@ -12855,15 +12869,15 @@
         <v>707</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F95" s="49" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="64"/>
+      <c r="J95" s="67"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12873,7 +12887,7 @@
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
       <c r="B96" s="33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>30</v>
@@ -12882,13 +12896,13 @@
         <v>363</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="64"/>
+      <c r="J96" s="67"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12898,7 +12912,7 @@
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
       <c r="B97" s="33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C97" s="34" t="s">
         <v>30</v>
@@ -12907,13 +12921,13 @@
         <v>363</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="64"/>
+      <c r="J97" s="67"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12923,7 +12937,7 @@
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
       <c r="B98" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C98" s="34" t="s">
         <v>30</v>
@@ -12932,15 +12946,15 @@
         <v>483</v>
       </c>
       <c r="E98" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="F98" s="49" t="s">
         <v>809</v>
-      </c>
-      <c r="F98" s="49" t="s">
-        <v>810</v>
       </c>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="64"/>
+      <c r="J98" s="67"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12950,7 +12964,7 @@
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
       <c r="B99" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C99" s="34" t="s">
         <v>5</v>
@@ -12959,15 +12973,15 @@
         <v>471</v>
       </c>
       <c r="E99" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="F99" s="49" t="s">
         <v>812</v>
-      </c>
-      <c r="F99" s="49" t="s">
-        <v>813</v>
       </c>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="64"/>
+      <c r="J99" s="67"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12977,7 +12991,7 @@
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="19"/>
       <c r="B100" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C100" s="34" t="s">
         <v>30</v>
@@ -12986,15 +13000,15 @@
         <v>707</v>
       </c>
       <c r="E100" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="F100" s="27" t="s">
         <v>815</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>816</v>
       </c>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="64"/>
+      <c r="J100" s="67"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -13004,7 +13018,7 @@
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A101" s="19"/>
       <c r="B101" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C101" s="34" t="s">
         <v>30</v>
@@ -13013,15 +13027,15 @@
         <v>707</v>
       </c>
       <c r="E101" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="F101" s="27" t="s">
         <v>818</v>
-      </c>
-      <c r="F101" s="27" t="s">
-        <v>819</v>
       </c>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="64"/>
+      <c r="J101" s="67"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -13031,7 +13045,7 @@
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="19"/>
       <c r="B102" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C102" s="34" t="s">
         <v>30</v>
@@ -13040,15 +13054,15 @@
         <v>483</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F102" s="49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="64"/>
+      <c r="J102" s="67"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -13058,7 +13072,7 @@
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="19"/>
       <c r="B103" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C103" s="34" t="s">
         <v>5</v>
@@ -13067,15 +13081,15 @@
         <v>471</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F103" s="49" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="64"/>
+      <c r="J103" s="67"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -13085,7 +13099,7 @@
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
       <c r="B104" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C104" s="34" t="s">
         <v>30</v>
@@ -13094,15 +13108,15 @@
         <v>707</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="64"/>
+      <c r="J104" s="67"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -13119,15 +13133,15 @@
         <v>656</v>
       </c>
       <c r="E105" s="50" t="s">
+        <v>790</v>
+      </c>
+      <c r="F105" s="51" t="s">
         <v>791</v>
-      </c>
-      <c r="F105" s="51" t="s">
-        <v>792</v>
       </c>
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="64"/>
+      <c r="J105" s="67"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -13137,7 +13151,7 @@
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="19"/>
       <c r="B106" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C106" s="34" t="s">
         <v>30</v>
@@ -13146,15 +13160,15 @@
         <v>707</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="64"/>
+      <c r="J106" s="67"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -13164,7 +13178,7 @@
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="19"/>
       <c r="B107" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>30</v>
@@ -13173,25 +13187,23 @@
         <v>363</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="64"/>
+      <c r="J107" s="67"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
       <c r="N107" s="23"/>
       <c r="O107" s="22"/>
     </row>
-    <row r="108" s="1" customFormat="1" ht="58" customHeight="1" spans="1:15">
-      <c r="A108" s="32" t="s">
-        <v>912</v>
-      </c>
+    <row r="108" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A108" s="32"/>
       <c r="B108" s="52" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C108" s="34" t="s">
         <v>30</v>
@@ -13200,15 +13212,15 @@
         <v>493</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F108" s="49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="64"/>
+      <c r="J108" s="67"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -13217,7 +13229,7 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B109" s="52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C109" s="34" t="s">
         <v>5</v>
@@ -13226,15 +13238,15 @@
         <v>471</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F109" s="35" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="64"/>
+      <c r="J109" s="67"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -13243,7 +13255,7 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B110" s="52" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C110" s="34" t="s">
         <v>5</v>
@@ -13252,15 +13264,15 @@
         <v>49</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F110" s="35" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="64"/>
+      <c r="J110" s="67"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -13269,7 +13281,7 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B111" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>30</v>
@@ -13282,7 +13294,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="64"/>
+      <c r="J111" s="67"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -13291,10 +13303,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A112" s="19" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C112" s="34" t="s">
         <v>30</v>
@@ -13303,15 +13315,15 @@
         <v>707</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F112" s="49" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="64"/>
+      <c r="J112" s="67"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -13321,7 +13333,7 @@
     <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A113" s="19"/>
       <c r="B113" s="30" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>30</v>
@@ -13330,13 +13342,13 @@
         <v>600</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="64"/>
+      <c r="J113" s="67"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -13346,7 +13358,7 @@
     <row r="114" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A114" s="19"/>
       <c r="B114" s="30" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>30</v>
@@ -13355,13 +13367,13 @@
         <v>253</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="64"/>
+      <c r="J114" s="67"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -13371,7 +13383,7 @@
     <row r="115" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A115" s="19"/>
       <c r="B115" s="30" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C115" s="26" t="s">
         <v>30</v>
@@ -13380,13 +13392,13 @@
         <v>363</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="64"/>
+      <c r="J115" s="67"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -13396,7 +13408,7 @@
     <row r="116" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A116" s="19"/>
       <c r="B116" s="30" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>30</v>
@@ -13405,13 +13417,13 @@
         <v>363</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="64"/>
+      <c r="J116" s="67"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -13421,7 +13433,7 @@
     <row r="117" s="1" customFormat="1" ht="71" customHeight="1" spans="1:15">
       <c r="A117" s="31"/>
       <c r="B117" s="30" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>30</v>
@@ -13430,25 +13442,23 @@
         <v>253</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="64"/>
+      <c r="J117" s="67"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
       <c r="N117" s="23"/>
       <c r="O117" s="22"/>
     </row>
-    <row r="118" s="1" customFormat="1" ht="74" customHeight="1" spans="1:15">
-      <c r="A118" s="32" t="s">
-        <v>912</v>
-      </c>
+    <row r="118" s="1" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="A118" s="32"/>
       <c r="B118" s="52" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C118" s="34" t="s">
         <v>30</v>
@@ -13457,15 +13467,15 @@
         <v>493</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F118" s="49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="64"/>
+      <c r="J118" s="67"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -13475,7 +13485,7 @@
     <row r="119" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A119" s="19"/>
       <c r="B119" s="52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C119" s="34" t="s">
         <v>5</v>
@@ -13484,15 +13494,15 @@
         <v>471</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F119" s="35" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="64"/>
+      <c r="J119" s="67"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -13502,7 +13512,7 @@
     <row r="120" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A120" s="19"/>
       <c r="B120" s="52" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C120" s="34" t="s">
         <v>5</v>
@@ -13511,15 +13521,15 @@
         <v>49</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="64"/>
+      <c r="J120" s="67"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -13529,7 +13539,7 @@
     <row r="121" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A121" s="19"/>
       <c r="B121" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>30</v>
@@ -13542,7 +13552,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="64"/>
+      <c r="J121" s="67"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -13552,7 +13562,7 @@
     <row r="122" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A122" s="19"/>
       <c r="B122" s="30" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>30</v>
@@ -13561,13 +13571,13 @@
         <v>553</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="64"/>
+      <c r="J122" s="67"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -13584,7 +13594,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="64"/>
+      <c r="J123" s="67"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -13601,7 +13611,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="64"/>
+      <c r="J124" s="67"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -13618,7 +13628,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="64"/>
+      <c r="J125" s="67"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -13635,7 +13645,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="64"/>
+      <c r="J126" s="67"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -13652,7 +13662,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="64"/>
+      <c r="J127" s="67"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -13669,7 +13679,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="64"/>
+      <c r="J128" s="67"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -13686,7 +13696,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="64"/>
+      <c r="J129" s="67"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -13703,7 +13713,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="64"/>
+      <c r="J130" s="67"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -13720,7 +13730,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="64"/>
+      <c r="J131" s="67"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -13737,7 +13747,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="64"/>
+      <c r="J132" s="67"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -13754,7 +13764,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="64"/>
+      <c r="J133" s="67"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -13771,7 +13781,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="64"/>
+      <c r="J134" s="67"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -13788,7 +13798,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="64"/>
+      <c r="J135" s="67"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -13805,7 +13815,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="64"/>
+      <c r="J136" s="67"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -13822,7 +13832,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="64"/>
+      <c r="J137" s="67"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -13839,7 +13849,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="64"/>
+      <c r="J138" s="67"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -13856,7 +13866,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="64"/>
+      <c r="J139" s="67"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -13873,7 +13883,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="64"/>
+      <c r="J140" s="67"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -13890,7 +13900,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="64"/>
+      <c r="J141" s="67"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -13907,7 +13917,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="64"/>
+      <c r="J142" s="67"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -13924,7 +13934,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="64"/>
+      <c r="J143" s="67"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -13941,7 +13951,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="64"/>
+      <c r="J144" s="67"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -13958,7 +13968,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="64"/>
+      <c r="J145" s="67"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13975,7 +13985,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="64"/>
+      <c r="J146" s="67"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13992,7 +14002,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="64"/>
+      <c r="J147" s="67"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -14009,7 +14019,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="64"/>
+      <c r="J148" s="67"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -14026,7 +14036,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="64"/>
+      <c r="J149" s="67"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -14043,7 +14053,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="64"/>
+      <c r="J150" s="67"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -14060,7 +14070,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="64"/>
+      <c r="J151" s="67"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -14077,7 +14087,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="64"/>
+      <c r="J152" s="67"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -14094,7 +14104,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="64"/>
+      <c r="J153" s="67"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -14111,7 +14121,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="64"/>
+      <c r="J154" s="67"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -14128,7 +14138,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="64"/>
+      <c r="J155" s="67"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -14145,7 +14155,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="64"/>
+      <c r="J156" s="67"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -14162,7 +14172,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="64"/>
+      <c r="J157" s="67"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -14179,7 +14189,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="64"/>
+      <c r="J158" s="67"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -14196,7 +14206,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="64"/>
+      <c r="J159" s="67"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -14213,7 +14223,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="64"/>
+      <c r="J160" s="67"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -14230,7 +14240,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="64"/>
+      <c r="J161" s="67"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -14247,7 +14257,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="64"/>
+      <c r="J162" s="67"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -14264,7 +14274,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="64"/>
+      <c r="J163" s="67"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -14281,7 +14291,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="64"/>
+      <c r="J164" s="67"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -14298,7 +14308,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="64"/>
+      <c r="J165" s="67"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -14315,7 +14325,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="64"/>
+      <c r="J166" s="67"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -14332,7 +14342,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="64"/>
+      <c r="J167" s="67"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -14349,7 +14359,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="64"/>
+      <c r="J168" s="67"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -14366,7 +14376,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="64"/>
+      <c r="J169" s="67"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -14383,7 +14393,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="64"/>
+      <c r="J170" s="67"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -14400,7 +14410,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="64"/>
+      <c r="J171" s="67"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -14417,7 +14427,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="64"/>
+      <c r="J172" s="67"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -14434,7 +14444,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="64"/>
+      <c r="J173" s="67"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -14451,7 +14461,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="64"/>
+      <c r="J174" s="67"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -14468,7 +14478,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="64"/>
+      <c r="J175" s="67"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -14485,7 +14495,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="64"/>
+      <c r="J176" s="67"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -14502,7 +14512,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="64"/>
+      <c r="J177" s="67"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -14519,7 +14529,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="64"/>
+      <c r="J178" s="67"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -14536,7 +14546,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="64"/>
+      <c r="J179" s="67"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -14553,7 +14563,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="64"/>
+      <c r="J180" s="67"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -14570,7 +14580,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="64"/>
+      <c r="J181" s="67"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -14587,7 +14597,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="64"/>
+      <c r="J182" s="67"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -14604,7 +14614,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="64"/>
+      <c r="J183" s="67"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -14621,7 +14631,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="64"/>
+      <c r="J184" s="67"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -14638,7 +14648,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="64"/>
+      <c r="J185" s="67"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -14655,7 +14665,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="64"/>
+      <c r="J186" s="67"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -14672,7 +14682,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="64"/>
+      <c r="J187" s="67"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -14689,7 +14699,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="64"/>
+      <c r="J188" s="67"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -14706,7 +14716,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="64"/>
+      <c r="J189" s="67"/>
       <c r="K189" s="22"/>
       <c r="L189" s="23"/>
       <c r="M189" s="21"/>
@@ -14723,7 +14733,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="64"/>
+      <c r="J190" s="67"/>
       <c r="K190" s="22"/>
       <c r="L190" s="23"/>
       <c r="M190" s="21"/>
@@ -14740,7 +14750,7 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="64"/>
+      <c r="J191" s="67"/>
       <c r="K191" s="22"/>
       <c r="L191" s="23"/>
       <c r="M191" s="21"/>
@@ -14757,7 +14767,7 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
-      <c r="J192" s="64"/>
+      <c r="J192" s="67"/>
       <c r="K192" s="22"/>
       <c r="L192" s="23"/>
       <c r="M192" s="21"/>
@@ -14774,7 +14784,7 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
-      <c r="J193" s="64"/>
+      <c r="J193" s="67"/>
       <c r="K193" s="22"/>
       <c r="L193" s="23"/>
       <c r="M193" s="21"/>
@@ -14791,7 +14801,7 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
-      <c r="J194" s="64"/>
+      <c r="J194" s="67"/>
       <c r="K194" s="22"/>
       <c r="L194" s="23"/>
       <c r="M194" s="21"/>
@@ -14808,7 +14818,7 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
-      <c r="J195" s="64"/>
+      <c r="J195" s="67"/>
       <c r="K195" s="22"/>
       <c r="L195" s="23"/>
       <c r="M195" s="21"/>
@@ -14825,7 +14835,7 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
-      <c r="J196" s="64"/>
+      <c r="J196" s="67"/>
       <c r="K196" s="22"/>
       <c r="L196" s="23"/>
       <c r="M196" s="21"/>
@@ -14842,7 +14852,7 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="64"/>
+      <c r="J197" s="67"/>
       <c r="K197" s="22"/>
       <c r="L197" s="23"/>
       <c r="M197" s="21"/>
@@ -14859,7 +14869,7 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="64"/>
+      <c r="J198" s="67"/>
       <c r="K198" s="22"/>
       <c r="L198" s="23"/>
       <c r="M198" s="21"/>
@@ -14876,7 +14886,7 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="64"/>
+      <c r="J199" s="67"/>
       <c r="K199" s="22"/>
       <c r="L199" s="23"/>
       <c r="M199" s="21"/>
@@ -14893,7 +14903,7 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="64"/>
+      <c r="J200" s="67"/>
       <c r="K200" s="22"/>
       <c r="L200" s="23"/>
       <c r="M200" s="21"/>
@@ -14910,7 +14920,7 @@
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
-      <c r="J201" s="64"/>
+      <c r="J201" s="67"/>
       <c r="K201" s="22"/>
       <c r="L201" s="23"/>
       <c r="M201" s="21"/>
@@ -14927,7 +14937,7 @@
       <c r="G202" s="27"/>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
-      <c r="J202" s="64"/>
+      <c r="J202" s="67"/>
       <c r="K202" s="22"/>
       <c r="L202" s="23"/>
       <c r="M202" s="21"/>
@@ -14944,7 +14954,7 @@
       <c r="G203" s="27"/>
       <c r="H203" s="27"/>
       <c r="I203" s="27"/>
-      <c r="J203" s="64"/>
+      <c r="J203" s="67"/>
       <c r="K203" s="22"/>
       <c r="L203" s="23"/>
       <c r="M203" s="21"/>
@@ -14961,7 +14971,7 @@
       <c r="G204" s="27"/>
       <c r="H204" s="27"/>
       <c r="I204" s="27"/>
-      <c r="J204" s="64"/>
+      <c r="J204" s="67"/>
       <c r="K204" s="22"/>
       <c r="L204" s="23"/>
       <c r="M204" s="21"/>
@@ -14978,7 +14988,7 @@
       <c r="G205" s="27"/>
       <c r="H205" s="27"/>
       <c r="I205" s="27"/>
-      <c r="J205" s="64"/>
+      <c r="J205" s="67"/>
       <c r="K205" s="22"/>
       <c r="L205" s="23"/>
       <c r="M205" s="21"/>
@@ -14995,7 +15005,7 @@
       <c r="G206" s="27"/>
       <c r="H206" s="27"/>
       <c r="I206" s="27"/>
-      <c r="J206" s="64"/>
+      <c r="J206" s="67"/>
       <c r="K206" s="22"/>
       <c r="L206" s="23"/>
       <c r="M206" s="21"/>
@@ -15012,7 +15022,7 @@
       <c r="G207" s="27"/>
       <c r="H207" s="27"/>
       <c r="I207" s="27"/>
-      <c r="J207" s="64"/>
+      <c r="J207" s="67"/>
       <c r="K207" s="22"/>
       <c r="L207" s="23"/>
       <c r="M207" s="21"/>
@@ -15029,7 +15039,7 @@
       <c r="G208" s="27"/>
       <c r="H208" s="27"/>
       <c r="I208" s="27"/>
-      <c r="J208" s="64"/>
+      <c r="J208" s="67"/>
       <c r="K208" s="22"/>
       <c r="L208" s="23"/>
       <c r="M208" s="21"/>
@@ -15046,7 +15056,7 @@
       <c r="G209" s="27"/>
       <c r="H209" s="27"/>
       <c r="I209" s="27"/>
-      <c r="J209" s="64"/>
+      <c r="J209" s="67"/>
       <c r="K209" s="22"/>
       <c r="L209" s="23"/>
       <c r="M209" s="21"/>
@@ -15063,7 +15073,7 @@
       <c r="G210" s="27"/>
       <c r="H210" s="27"/>
       <c r="I210" s="27"/>
-      <c r="J210" s="64"/>
+      <c r="J210" s="67"/>
       <c r="K210" s="22"/>
       <c r="L210" s="23"/>
       <c r="M210" s="21"/>
@@ -15080,7 +15090,7 @@
       <c r="G211" s="27"/>
       <c r="H211" s="27"/>
       <c r="I211" s="27"/>
-      <c r="J211" s="64"/>
+      <c r="J211" s="67"/>
       <c r="K211" s="22"/>
       <c r="L211" s="23"/>
       <c r="M211" s="21"/>
@@ -15097,7 +15107,7 @@
       <c r="G212" s="27"/>
       <c r="H212" s="27"/>
       <c r="I212" s="27"/>
-      <c r="J212" s="64"/>
+      <c r="J212" s="67"/>
       <c r="K212" s="22"/>
       <c r="L212" s="23"/>
       <c r="M212" s="21"/>
@@ -15114,7 +15124,7 @@
       <c r="G213" s="27"/>
       <c r="H213" s="27"/>
       <c r="I213" s="27"/>
-      <c r="J213" s="64"/>
+      <c r="J213" s="67"/>
       <c r="K213" s="22"/>
       <c r="L213" s="23"/>
       <c r="M213" s="21"/>
